--- a/Unity/Assets/Config/Excel/AbilityConfig/BuffConfig/BuffCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/BuffConfig/BuffCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\BuffConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880B5ABD-5518-4584-AB75-826B59C1A546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF508888-AD9A-4E49-B14B-689A8BCEAA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -714,7 +714,7 @@
   <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/BuffConfig/BuffCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/BuffConfig/BuffCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\BuffConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF508888-AD9A-4E49-B14B-689A8BCEAA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E5527F-5A9F-4E36-9DA1-DBE0EACAB8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="768" windowWidth="23040" windowHeight="9144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -205,9 +205,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ActionCallOnHitUnit</t>
-  </si>
-  <si>
     <t>ActionCallBeHurtUnit</t>
   </si>
   <si>
@@ -249,6 +246,9 @@
   <si>
     <t>tag标志</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallOnAttackUnit</t>
   </si>
 </sst>
 </file>
@@ -416,10 +416,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
@@ -428,10 +428,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -714,7 +714,7 @@
   <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -742,10 +742,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>20</v>
@@ -792,15 +792,15 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="12"/>
+      <c r="O2" s="16"/>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
@@ -832,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>21</v>
@@ -846,12 +846,12 @@
       <c r="K3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="L3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
@@ -943,10 +943,10 @@
         <v>11</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>22</v>
@@ -1001,7 +1001,7 @@
         <v>2</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>29</v>
@@ -1046,13 +1046,13 @@
         <v>3</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="O9" s="6"/>
     </row>
@@ -1066,13 +1066,13 @@
       <c r="J10" s="6"/>
       <c r="K10" s="8"/>
       <c r="L10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>29</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O10" s="6"/>
     </row>
@@ -1101,13 +1101,13 @@
         <v>4</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="6"/>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/BuffConfig/BuffCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/BuffConfig/BuffCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\BuffConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E5527F-5A9F-4E36-9DA1-DBE0EACAB8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC739063-ACA1-4149-B99D-04437BD74A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="768" windowWidth="23040" windowHeight="9144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,34 +221,35 @@
     <t>DamageBeforeOnKill</t>
   </si>
   <si>
+    <t>list,BuffActionCall</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tags</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag标志</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallOnAttackUnit</t>
+  </si>
+  <si>
     <t>ActionCallCasterPlayerUnit</t>
-  </si>
-  <si>
-    <t>list,BuffActionCall</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tags</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>list,string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag标志</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCallOnAttackUnit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -714,7 +715,7 @@
   <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -724,6 +725,9 @@
     <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="11" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" customWidth="1"/>
+    <col min="14" max="14" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -742,10 +746,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>20</v>
@@ -832,7 +836,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>21</v>
@@ -847,7 +851,7 @@
         <v>13</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
@@ -943,10 +947,10 @@
         <v>11</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>22</v>
@@ -1052,7 +1056,7 @@
         <v>29</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O9" s="6"/>
     </row>
@@ -1072,7 +1076,7 @@
         <v>29</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="O10" s="6"/>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/BuffConfig/BuffCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/BuffConfig/BuffCfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\BuffConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\BuffConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC739063-ACA1-4149-B99D-04437BD74A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C6792E-B390-4B37-BFB1-CD4E97C7CDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="768" windowWidth="23040" windowHeight="9144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
   <si>
     <t>##var</t>
   </si>
@@ -172,24 +172,13 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>buff的优先级，优先级越低的buff越后面执行</t>
-  </si>
-  <si>
     <t>maxStack</t>
   </si>
   <si>
-    <t>buff堆叠的规则中需要的层数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>tickTime</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>buff的工作周期，单位：秒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>*monitorTriggers</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -212,9 +201,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SkillOnCast</t>
-  </si>
-  <si>
     <t>DamageBeforeOnHit</t>
   </si>
   <si>
@@ -225,22 +211,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>tags</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>list,string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>tag标志</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -249,6 +223,163 @@
   </si>
   <si>
     <t>ActionCallCasterPlayerUnit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff最高层数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发时机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发事件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>delayTime</t>
+  </si>
+  <si>
+    <t>buff工作周期(秒)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>immuneTags</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>免疫哪个类型的buff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=;),BuffTagType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffTagType3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon图标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIcon_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string#ref=ResIconCfgCategory?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增益还是减益Buff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff</t>
+  </si>
+  <si>
+    <t>Debuff</t>
+  </si>
+  <si>
+    <t>Debuff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟多久后触发action</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffOnTick</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffReduceStackCount_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffResetDuration_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffOnRefresh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffTagType1;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffTagType2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RemoveBuff_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff优先级(越小越低)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tagGroup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tagGroup标志</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>immuneTagGroups</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=;),BuffTagGroupType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>免疫TagGroup的buff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffTagGroupType3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffTagGroupType1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffTagGroupType?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionCondition1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionCondition2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件1(cond11&amp;cond12|cond21&amp;cond22)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件2(cond11&amp;cond12|cond21&amp;cond22)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +534,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -417,6 +548,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -435,6 +567,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -712,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC12"/>
+  <dimension ref="A1:AJ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -723,14 +856,14 @@
     <col min="1" max="2" width="9.21875" customWidth="1"/>
     <col min="3" max="3" width="11.21875" customWidth="1"/>
     <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="11" width="13.77734375" customWidth="1"/>
-    <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" customWidth="1"/>
-    <col min="14" max="14" width="20.88671875" customWidth="1"/>
+    <col min="5" max="6" width="11" customWidth="1"/>
+    <col min="7" max="15" width="13.77734375" customWidth="1"/>
+    <col min="16" max="17" width="20" customWidth="1"/>
+    <col min="18" max="20" width="12.88671875" customWidth="1"/>
+    <col min="21" max="21" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -743,36 +876,44 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1"/>
-      <c r="Q1"/>
-      <c r="R1"/>
-      <c r="S1"/>
-      <c r="T1"/>
-      <c r="U1"/>
-      <c r="V1"/>
+      <c r="P1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
       <c r="W1"/>
       <c r="X1"/>
       <c r="Y1"/>
@@ -780,8 +921,15 @@
       <c r="AA1"/>
       <c r="AB1"/>
       <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+      <c r="AJ1"/>
     </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -795,23 +943,29 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="15" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="U2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="16"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
+      <c r="V2" s="17"/>
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
@@ -819,83 +973,105 @@
       <c r="AA2"/>
       <c r="AB2"/>
       <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
     </row>
-    <row r="3" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
+    <row r="3" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="AA3"/>
       <c r="AB3"/>
       <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
     </row>
-    <row r="4" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
+    <row r="4" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
@@ -903,8 +1079,15 @@
       <c r="AA4"/>
       <c r="AB4"/>
       <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
     </row>
-    <row r="5" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -912,26 +1095,37 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
       <c r="AA5"/>
       <c r="AB5"/>
       <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
     </row>
-    <row r="6" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -944,43 +1138,68 @@
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="U6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
       <c r="AA6"/>
       <c r="AB6"/>
       <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
@@ -992,144 +1211,258 @@
         <v>Buff_1</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6">
+      <c r="H7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="6">
         <v>1</v>
       </c>
-      <c r="J7" s="6">
-        <v>9</v>
-      </c>
-      <c r="K7" s="8">
-        <v>2</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="6"/>
+      <c r="N7" s="6">
+        <v>19</v>
+      </c>
+      <c r="O7" s="8">
+        <v>4</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="6"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="8"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="str">
-        <f>B9&amp;"_"&amp;C9</f>
-        <v>Buff_2</v>
-      </c>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="6">
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="str">
+        <f>B10&amp;"_"&amp;C10</f>
+        <v>Buff_2</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="6">
         <v>1</v>
       </c>
-      <c r="J9" s="6">
+      <c r="N10" s="6">
         <v>11</v>
       </c>
-      <c r="K9" s="8">
+      <c r="O10" s="8">
         <v>3</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O9" s="6"/>
+      <c r="P10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V10" s="6"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" t="str">
-        <f>B11&amp;"_"&amp;C11</f>
-        <v>Buff_3</v>
-      </c>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="6">
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V11" s="6"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="str">
+        <f>B12&amp;"_"&amp;C12</f>
+        <v>Buff_3</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" s="6">
         <v>1</v>
       </c>
-      <c r="J11" s="6">
+      <c r="N12" s="6">
         <v>7</v>
       </c>
-      <c r="K11" s="8">
+      <c r="O12" s="8">
         <v>4</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="6" t="s">
+      <c r="P12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O11" s="6"/>
+      <c r="Q12" s="6">
+        <v>0</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="V12" s="6"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="8"/>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="G15" s="6"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="U2:V2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/BuffConfig/BuffCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/BuffConfig/BuffCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\BuffConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C6792E-B390-4B37-BFB1-CD4E97C7CDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9718E9-18B3-42F2-AF4C-246C998BB9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="93">
   <si>
     <t>##var</t>
   </si>
@@ -136,10 +136,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>float</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>$type</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -303,10 +299,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BuffOnTick</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>BuffReduceStackCount_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -380,6 +372,71 @@
   </si>
   <si>
     <t>条件2(cond11&amp;cond12|cond21&amp;cond22)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line1</t>
+  </si>
+  <si>
+    <t>Circle1</t>
+  </si>
+  <si>
+    <t>火焰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒雾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>直线火焰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆形毒雾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateEffect_PlayerLine1</t>
+  </si>
+  <si>
+    <t>CreateEffect_PlayerCircle1</t>
+  </si>
+  <si>
+    <t>ActionCallAutoUnitWhenUmbellate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallAutoSelf</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FaceTo_1</t>
+  </si>
+  <si>
+    <t>AttackArea_PlayerSolo1</t>
+  </si>
+  <si>
+    <t>(list#sep=;),float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffOnTick1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true;1;false;false;"";0,0,0;0,0,0;false;false;true;100;360</t>
+  </si>
+  <si>
+    <t>BuffOnTick2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2;1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallSelectLast</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -387,7 +444,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,6 +488,21 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -534,7 +606,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -549,6 +621,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -567,7 +648,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -845,22 +925,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ19"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="6" width="11" customWidth="1"/>
-    <col min="7" max="15" width="13.77734375" customWidth="1"/>
-    <col min="16" max="17" width="20" customWidth="1"/>
-    <col min="18" max="20" width="12.88671875" customWidth="1"/>
-    <col min="21" max="21" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.88671875" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" customWidth="1"/>
+    <col min="21" max="21" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -876,44 +969,44 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
       <c r="W1"/>
       <c r="X1"/>
       <c r="Y1"/>
@@ -948,24 +1041,24 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="U2" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" s="17"/>
+        <v>72</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" s="20"/>
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
@@ -1005,10 +1098,10 @@
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
       <c r="U3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="AA3"/>
       <c r="AB3"/>
@@ -1034,44 +1127,44 @@
         <v>5</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
+        <v>87</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
@@ -1138,55 +1231,55 @@
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="S6" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="U6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V6" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="AA6"/>
       <c r="AB6"/>
@@ -1201,7 +1294,7 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1212,23 +1305,23 @@
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M7" s="6">
         <v>1</v>
@@ -1240,20 +1333,22 @@
         <v>4</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="Q7" s="6">
         <v>0</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="V7" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="V7" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
@@ -1269,18 +1364,21 @@
       <c r="N8" s="6"/>
       <c r="O8" s="8"/>
       <c r="P8" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="V8" s="6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
@@ -1297,23 +1395,26 @@
       <c r="N9" s="6"/>
       <c r="O9" s="8"/>
       <c r="P9" s="6" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="V9" s="6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1326,15 +1427,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M10" s="6">
         <v>1</v>
@@ -1346,20 +1447,22 @@
         <v>3</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="6">
         <v>0</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="V10" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="V10" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
@@ -1375,24 +1478,26 @@
       <c r="N11" s="6"/>
       <c r="O11" s="8"/>
       <c r="P11" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="6">
         <v>0</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="V11" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="V11" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -1404,14 +1509,14 @@
       <c r="E12" s="7"/>
       <c r="F12" s="11"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="18" t="s">
-        <v>62</v>
+      <c r="H12" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="18"/>
+      <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M12" s="6">
         <v>1</v>
@@ -1423,40 +1528,235 @@
         <v>4</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="6">
         <v>0</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="V12" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="V12" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" ref="D13:D16" si="0">B13&amp;"_"&amp;C13</f>
+        <v>Buff_Line1</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="8"/>
+      <c r="L13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="6">
+        <v>1</v>
+      </c>
+      <c r="N13" s="6">
+        <v>1</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>85</v>
+      </c>
+      <c r="T13" s="6"/>
+      <c r="U13" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="V13" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>81</v>
+      </c>
+      <c r="T14" s="6"/>
+      <c r="U14" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="V14" s="12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="E15" s="6"/>
       <c r="G15" s="6"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
+        <v>86</v>
+      </c>
+      <c r="T15" s="6"/>
+      <c r="U15" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="V15" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>Buff_Circle1</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" s="6">
+        <v>1</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>85</v>
+      </c>
+      <c r="T16" s="6"/>
+      <c r="U16" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="V16" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="G17" s="6"/>
+      <c r="P17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>82</v>
+      </c>
+      <c r="T17" s="6"/>
+      <c r="U17" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="V17" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="P18" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>86</v>
+      </c>
+      <c r="T18" s="6"/>
+      <c r="U18" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="V18" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="T19" s="6"/>
+    </row>
+    <row r="20" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="T20" s="6"/>
+    </row>
+    <row r="21" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F21" s="6"/>
+      <c r="T21" s="6"/>
+    </row>
+    <row r="22" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="T22" s="6"/>
+    </row>
+    <row r="23" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="T23" s="6"/>
+    </row>
+    <row r="24" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="T24" s="6"/>
+    </row>
+    <row r="27" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="W27" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Unity/Assets/Config/Excel/AbilityConfig/BuffConfig/BuffCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/BuffConfig/BuffCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\BuffConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9718E9-18B3-42F2-AF4C-246C998BB9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A012BAE5-503F-436F-8803-D8E6AF29A565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="103">
   <si>
     <t>##var</t>
   </si>
@@ -319,10 +319,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>RemoveBuff_3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>buff优先级(越小越低)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -397,46 +393,84 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CreateEffect_PlayerLine1</t>
-  </si>
-  <si>
-    <t>CreateEffect_PlayerCircle1</t>
-  </si>
-  <si>
     <t>ActionCallAutoUnitWhenUmbellate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>FaceTo_1</t>
+  </si>
+  <si>
+    <t>(list#sep=;),float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffOnTick1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallSelectLast</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_Line1</t>
+  </si>
+  <si>
+    <t>BuffOnAwake</t>
+  </si>
+  <si>
     <t>ActionCallAutoSelf</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>FaceTo_1</t>
-  </si>
-  <si>
-    <t>AttackArea_PlayerSolo1</t>
-  </si>
-  <si>
-    <t>(list#sep=;),float</t>
+  </si>
+  <si>
+    <t>BuffOnDestroy</t>
+  </si>
+  <si>
+    <t>BuffResetDuration_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true;1;false;false;"";0,0,0;0,0,0;false;false;true;100;360;false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_PlayerLine1</t>
+  </si>
+  <si>
+    <t>EffectCreate_PlayerCircle1</t>
+  </si>
+  <si>
+    <t>EffectRemove_Fire1</t>
+  </si>
+  <si>
+    <t>BuffRemove_3</t>
+  </si>
+  <si>
+    <t>AttackGetGold1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击偷钱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitOnHit</t>
+  </si>
+  <si>
+    <t>AutoGetGold1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动加钱</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>BuffOnTick1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>true;1;false;false;"";0,0,0;0,0,0;false;false;true;100;360</t>
-  </si>
-  <si>
-    <t>BuffOnTick2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2;1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCallSelectLast</t>
+  </si>
+  <si>
+    <t>CoinAdd_Attack_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoinAdd_Auto_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +478,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,23 +525,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,6 +542,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,7 +631,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -624,10 +649,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
@@ -925,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ27"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -936,7 +966,7 @@
     <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
@@ -981,10 +1011,10 @@
         <v>41</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>50</v>
@@ -998,15 +1028,15 @@
       <c r="O1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
       <c r="W1"/>
       <c r="X1"/>
       <c r="Y1"/>
@@ -1050,15 +1080,15 @@
         <v>24</v>
       </c>
       <c r="S2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="T2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="T2" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="U2" s="19" t="s">
+      <c r="U2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="20"/>
+      <c r="V2" s="23"/>
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
@@ -1139,10 +1169,10 @@
         <v>43</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>49</v>
@@ -1154,17 +1184,17 @@
         <v>20</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="P4" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="P4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
@@ -1243,16 +1273,16 @@
         <v>42</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>51</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>36</v>
@@ -1270,10 +1300,10 @@
         <v>38</v>
       </c>
       <c r="S6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T6" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="U6" s="3" t="s">
         <v>15</v>
@@ -1315,10 +1345,10 @@
         <v>44</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>52</v>
@@ -1333,7 +1363,7 @@
         <v>4</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="Q7" s="6">
         <v>0</v>
@@ -1395,13 +1425,13 @@
       <c r="N9" s="6"/>
       <c r="O9" s="8"/>
       <c r="P9" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
@@ -1431,7 +1461,7 @@
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6" t="s">
@@ -1545,218 +1575,331 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="1:36" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="13" t="str">
+        <f t="shared" ref="D13:D18" si="0">B13&amp;"_"&amp;C13</f>
+        <v>Buff_Line1</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="14">
+        <v>1</v>
+      </c>
+      <c r="N13" s="14">
+        <v>1</v>
+      </c>
+      <c r="O13" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>0</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="U13" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="V13" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>0</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="V14" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="T15" s="14"/>
+      <c r="U15" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="V15" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>0</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="T16" s="14"/>
+      <c r="U16" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="V16" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>0</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="U17" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="V17" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
         <v>75</v>
       </c>
-      <c r="D13" t="str">
-        <f t="shared" ref="D13:D16" si="0">B13&amp;"_"&amp;C13</f>
-        <v>Buff_Line1</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13" s="6">
-        <v>1</v>
-      </c>
-      <c r="N13" s="6">
-        <v>1</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>0</v>
-      </c>
-      <c r="R13" t="s">
-        <v>85</v>
-      </c>
-      <c r="T13" s="6"/>
-      <c r="U13" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="V13" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>0</v>
-      </c>
-      <c r="R14" t="s">
-        <v>81</v>
-      </c>
-      <c r="T14" s="6"/>
-      <c r="U14" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="V14" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>0</v>
-      </c>
-      <c r="R15" t="s">
-        <v>86</v>
-      </c>
-      <c r="T15" s="6"/>
-      <c r="U15" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="V15" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" t="str">
+      <c r="D18" t="str">
         <f t="shared" si="0"/>
         <v>Buff_Circle1</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="6" t="s">
+      <c r="E18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="M16">
+      <c r="M18">
         <v>1</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N18" s="6">
         <v>1</v>
       </c>
-      <c r="O16" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>0</v>
-      </c>
-      <c r="R16" t="s">
-        <v>85</v>
-      </c>
-      <c r="T16" s="6"/>
-      <c r="U16" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="V16" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="6:23" x14ac:dyDescent="0.25">
-      <c r="G17" s="6"/>
-      <c r="P17" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q17" s="6">
-        <v>0</v>
-      </c>
-      <c r="R17" t="s">
-        <v>82</v>
-      </c>
-      <c r="T17" s="6"/>
-      <c r="U17" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="V17" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="6:23" x14ac:dyDescent="0.25">
-      <c r="P18" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q18" s="6">
+      <c r="O18" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="P18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>86</v>
-      </c>
-      <c r="T18" s="6"/>
-      <c r="U18" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="V18" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="6:23" x14ac:dyDescent="0.25">
-      <c r="T19" s="6"/>
-    </row>
-    <row r="20" spans="6:23" x14ac:dyDescent="0.25">
-      <c r="T20" s="6"/>
-    </row>
-    <row r="21" spans="6:23" x14ac:dyDescent="0.25">
-      <c r="F21" s="6"/>
-      <c r="T21" s="6"/>
-    </row>
-    <row r="22" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="U18" t="s">
+        <v>87</v>
+      </c>
+      <c r="V18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="12"/>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" ref="D20" si="1">B20&amp;"_"&amp;C20</f>
+        <v>Buff_AttackGetGold1</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1</v>
+      </c>
+      <c r="O20" s="12">
+        <v>0</v>
+      </c>
+      <c r="P20" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="U20" t="s">
+        <v>87</v>
+      </c>
+      <c r="V20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" ref="D21" si="2">B21&amp;"_"&amp;C21</f>
+        <v>Buff_AutoGetGold1</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" s="6">
+        <v>1</v>
+      </c>
+      <c r="O21" s="12">
+        <v>2</v>
+      </c>
+      <c r="P21" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="U21" t="s">
+        <v>87</v>
+      </c>
+      <c r="V21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="F23" s="6"/>
       <c r="T23" s="6"/>
     </row>
-    <row r="24" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="T24" s="6"/>
     </row>
-    <row r="27" spans="6:23" x14ac:dyDescent="0.25">
-      <c r="W27" s="6"/>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R25" s="6"/>
+      <c r="T25" s="6"/>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T26" s="6"/>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W29" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Unity/Assets/Config/Excel/AbilityConfig/BuffConfig/BuffCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/BuffConfig/BuffCfg.xlsx
@@ -1,37 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\BuffConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\BuffConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A012BAE5-503F-436F-8803-D8E6AF29A565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A565AC4A-38D3-4033-8D97-8A23F86BEF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="控制状态的说明" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="173">
   <si>
     <t>##var</t>
   </si>
@@ -245,10 +235,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>免疫哪个类型的buff</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>(list#sep=;),BuffTagType</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -299,10 +285,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BuffReduceStackCount_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>BuffResetDuration_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -327,10 +309,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>tagGroup标志</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>immuneTagGroups</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -397,9 +375,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>FaceTo_1</t>
-  </si>
-  <si>
     <t>(list#sep=;),float</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -415,15 +390,9 @@
     <t>AttackArea_Line1</t>
   </si>
   <si>
-    <t>BuffOnAwake</t>
-  </si>
-  <si>
     <t>ActionCallAutoSelf</t>
   </si>
   <si>
-    <t>BuffOnDestroy</t>
-  </si>
-  <si>
     <t>BuffResetDuration_2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -432,46 +401,350 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>BuffRemove_3</t>
+  </si>
+  <si>
+    <t>AttackGetGold1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击偷钱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitOnHit</t>
+  </si>
+  <si>
+    <t>AutoGetGold1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动加钱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffOnTick1</t>
+  </si>
+  <si>
+    <t>CoinAdd_Attack_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoinAdd_Auto_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffOnRefresh</t>
+  </si>
+  <si>
+    <t>BuffResetDuration_2</t>
+  </si>
+  <si>
+    <t>AttackArea_Circle1</t>
+  </si>
+  <si>
+    <t>ActionCallSelectLast</t>
+  </si>
+  <si>
+    <t>BuffStackCountChg_Reduce1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伴随buff的特效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>EffectCreate_PlayerLine1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>EffectCreate_PlayerCircle1</t>
-  </si>
-  <si>
-    <t>EffectRemove_Fire1</t>
-  </si>
-  <si>
-    <t>BuffRemove_3</t>
-  </si>
-  <si>
-    <t>AttackGetGold1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击偷钱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitOnHit</t>
-  </si>
-  <si>
-    <t>AutoGetGold1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动加钱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffOnTick1</t>
-  </si>
-  <si>
-    <t>CoinAdd_Attack_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CoinAdd_Auto_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FaceTo_Forward_ForceSetFace</t>
+  </si>
+  <si>
+    <t>HitBack1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击产生击退</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeHitBack1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>被击退</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_BeHitBack1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>定身：无法移动，可以普攻，无法使用像晕眩状态的大部分技能，但被定住可以普攻，就像是被白起大招嘲讽一样的状态</t>
+  </si>
+  <si>
+    <t>眩晕：无法移动，无法转身，无法普攻，无法使用大部分技能，但是可以使用净化、清除技能</t>
+  </si>
+  <si>
+    <t>冰冻：应该是固定当前时刻动作的眩晕</t>
+  </si>
+  <si>
+    <t>击飞：被击飞的目标原地降落</t>
+  </si>
+  <si>
+    <t>击退：被击退的目标向施法者反方向移动。</t>
+  </si>
+  <si>
+    <t>击开：被击开的目标向与施法方向垂直的方向移动</t>
+  </si>
+  <si>
+    <t>牵引：牵引目标至施法方向。</t>
+  </si>
+  <si>
+    <t>致盲：效果是被致盲的单位的平砍不造成伤害</t>
+  </si>
+  <si>
+    <t>缴械，效果是目标不能普通攻击</t>
+  </si>
+  <si>
+    <t>缠绕：目标不可以控制移动并且攻击，附加一切定身效果。可以认为是定身+缴械</t>
+  </si>
+  <si>
+    <t>魅惑：目标会试图向施法者方向移动并且减速</t>
+  </si>
+  <si>
+    <t>恐惧：目标会向随机方向移动并且减速</t>
+  </si>
+  <si>
+    <t>逃跑：目标会被极短的时间内定身，之后向施法者相反的方向移动并减速</t>
+  </si>
+  <si>
+    <t>嘲讽：目标会尝试攻击施法者</t>
+  </si>
+  <si>
+    <t>沉默：目标不能使用任何技能及闪现传送</t>
+  </si>
+  <si>
+    <t>无敌：几乎不受到所有的伤害和效果影响</t>
+  </si>
+  <si>
+    <t>隐身：不可被其他人看见(不被主动搜索到)</t>
+  </si>
+  <si>
+    <t>selfEffectList</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=;),string#ref=ActionCfg_EffectCreateCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伴随buff的动作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string#ref=ActionCfg_PlayAnimatorCategory?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayAnimator_1</t>
+  </si>
+  <si>
+    <t>selfPlayAnimator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Line</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Line</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_PlayerLine2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_PlayerLine3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tagGroup标志(同组只会有一个生效)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>removeTagGroups</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>removeTags</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>免疫哪个类型的buff(这个新增的buff会加不上)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除哪个类型的buff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除TagGroup的buff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>减cd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackUp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitChgSaveSelectObj</t>
+  </si>
+  <si>
+    <t>BuffRemove_1</t>
+  </si>
+  <si>
+    <t>EffectCreate_TowerTime_Hit1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>为队友释放减cd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallAutoUnitWhenUmbellate</t>
+  </si>
+  <si>
+    <t>CDDown2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDDown3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDDown1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_TowerTime_Hit2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_TowerTime_Hit3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddCDDown1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddCDDown2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddCDDown3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>减cd1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>减cd2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>减cd3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_CDDown1</t>
+  </si>
+  <si>
+    <t>BuffAdd_CDDown2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_CDDown3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true;-1;true;false;"";0,0,0;0,0,0;false;true;true;5;360;false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否忽略发起者而进行合并</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>isIgnoreCasterActor</t>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffTagGroupCDDown</t>
   </si>
 </sst>
 </file>
@@ -955,38 +1228,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ29"/>
+  <dimension ref="A1:AO43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="6" topLeftCell="N19" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="6.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.88671875" customWidth="1"/>
-    <col min="20" max="20" width="10.6640625" customWidth="1"/>
-    <col min="21" max="21" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.125" customWidth="1"/>
+    <col min="11" max="11" width="19.625" customWidth="1"/>
+    <col min="12" max="12" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="27.625" customWidth="1"/>
+    <col min="16" max="16" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.375" customWidth="1"/>
+    <col min="20" max="20" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.875" customWidth="1"/>
+    <col min="25" max="25" width="10.625" customWidth="1"/>
+    <col min="26" max="26" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -999,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -1008,40 +1289,50 @@
         <v>32</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="M1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="S1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="U1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
       <c r="V1" s="21"/>
-      <c r="W1"/>
-      <c r="X1"/>
-      <c r="Y1"/>
-      <c r="Z1"/>
-      <c r="AA1"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
       <c r="AB1"/>
       <c r="AC1"/>
       <c r="AD1"/>
@@ -1051,8 +1342,13 @@
       <c r="AH1"/>
       <c r="AI1"/>
       <c r="AJ1"/>
-    </row>
-    <row r="2" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+      <c r="AO1"/>
+    </row>
+    <row r="2" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1070,30 +1366,30 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="U2" s="22" t="s">
+      <c r="X2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="23"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
+      <c r="AA2" s="23"/>
       <c r="AB2"/>
       <c r="AC2"/>
       <c r="AD2"/>
@@ -1103,8 +1399,13 @@
       <c r="AH2"/>
       <c r="AI2"/>
       <c r="AJ2"/>
-    </row>
-    <row r="3" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+    </row>
+    <row r="3" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1125,26 +1426,31 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9" t="s">
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="AA3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AA3"/>
-      <c r="AB3"/>
-      <c r="AC3"/>
-      <c r="AD3"/>
-      <c r="AE3"/>
       <c r="AF3"/>
       <c r="AG3"/>
       <c r="AH3"/>
       <c r="AI3"/>
       <c r="AJ3"/>
-    </row>
-    <row r="4" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+    </row>
+    <row r="4" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1157,49 +1463,59 @@
         <v>5</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="P4" s="18" t="s">
+      <c r="S4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="U4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
       <c r="V4" s="19"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
       <c r="AB4"/>
       <c r="AC4"/>
       <c r="AD4"/>
@@ -1209,8 +1525,13 @@
       <c r="AH4"/>
       <c r="AI4"/>
       <c r="AJ4"/>
-    </row>
-    <row r="5" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+    </row>
+    <row r="5" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1237,18 +1558,23 @@
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-      <c r="AC5"/>
-      <c r="AD5"/>
-      <c r="AE5"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
       <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
       <c r="AI5"/>
       <c r="AJ5"/>
-    </row>
-    <row r="6" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5"/>
+    </row>
+    <row r="6" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1261,7 +1587,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>11</v>
@@ -1270,59 +1596,74 @@
         <v>33</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="N6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="S6" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="T6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R6" s="3" t="s">
+      <c r="V6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="S6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U6" s="3" t="s">
+      <c r="X6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="AA6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AC6"/>
-      <c r="AD6"/>
-      <c r="AE6"/>
       <c r="AF6"/>
       <c r="AG6"/>
       <c r="AH6"/>
       <c r="AI6"/>
       <c r="AJ6"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
@@ -1335,52 +1676,57 @@
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>67</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
       <c r="L7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="6">
-        <v>1</v>
-      </c>
-      <c r="N7" s="6">
+        <v>43</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>1</v>
+      </c>
+      <c r="R7" s="6">
         <v>19</v>
       </c>
-      <c r="O7" s="8">
+      <c r="S7" s="6"/>
+      <c r="T7" s="8">
         <v>4</v>
       </c>
-      <c r="P7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>0</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
       <c r="U7" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="V7" s="6">
+        <v>0</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="V7" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AA7" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
       <c r="E8" s="7"/>
       <c r="F8" s="11"/>
@@ -1392,26 +1738,31 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
       <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
+      <c r="T8" s="8"/>
       <c r="U8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="V8" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AA8" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
       <c r="E9" s="7"/>
       <c r="F9" s="11"/>
@@ -1423,26 +1774,31 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>94</v>
-      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
       <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
+      <c r="T9" s="8"/>
       <c r="U9" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="V9" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AA9" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
@@ -1457,44 +1813,49 @@
       <c r="F10" s="11"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6" t="s">
-        <v>67</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="6">
-        <v>1</v>
-      </c>
-      <c r="N10" s="6">
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>1</v>
+      </c>
+      <c r="R10" s="6">
         <v>11</v>
       </c>
-      <c r="O10" s="8">
+      <c r="S10" s="6"/>
+      <c r="T10" s="8">
         <v>3</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="U10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q10" s="6">
-        <v>0</v>
-      </c>
-      <c r="R10" s="6" t="s">
+      <c r="V10" s="6">
+        <v>0</v>
+      </c>
+      <c r="W10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6" t="s">
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="V10" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AA10" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B11" s="6"/>
       <c r="E11" s="7"/>
       <c r="F11" s="11"/>
@@ -1506,26 +1867,31 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="6" t="s">
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="6">
-        <v>0</v>
-      </c>
-      <c r="R11" s="6" t="s">
+      <c r="V11" s="6">
+        <v>0</v>
+      </c>
+      <c r="W11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6" t="s">
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="V11" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AA11" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
@@ -1540,91 +1906,105 @@
       <c r="F12" s="11"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M12" s="6">
-        <v>1</v>
-      </c>
-      <c r="N12" s="6">
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>1</v>
+      </c>
+      <c r="R12" s="6">
         <v>7</v>
       </c>
-      <c r="O12" s="8">
+      <c r="S12" s="6"/>
+      <c r="T12" s="8">
         <v>4</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="U12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q12" s="6">
-        <v>0</v>
-      </c>
-      <c r="R12" s="6" t="s">
+      <c r="V12" s="6">
+        <v>0</v>
+      </c>
+      <c r="W12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6" t="s">
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="V12" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA12" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13" s="13" t="str">
-        <f t="shared" ref="D13:D18" si="0">B13&amp;"_"&amp;C13</f>
+        <f t="shared" ref="D13:D24" si="0">B13&amp;"_"&amp;C13</f>
         <v>Buff_Line1</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
-      <c r="L13" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13" s="14">
-        <v>1</v>
-      </c>
-      <c r="N13" s="14">
-        <v>1</v>
-      </c>
-      <c r="O13" s="15">
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>1</v>
+      </c>
+      <c r="R13" s="14">
+        <v>1</v>
+      </c>
+      <c r="S13" s="14"/>
+      <c r="T13" s="15">
         <v>0.2</v>
       </c>
-      <c r="P13" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q13" s="13">
-        <v>0</v>
-      </c>
-      <c r="R13" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="U13" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="V13" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U13" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="V13" s="13">
+        <v>0</v>
+      </c>
+      <c r="W13" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z13" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA13" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="14"/>
       <c r="E14" s="14"/>
       <c r="G14" s="14"/>
@@ -1635,24 +2015,30 @@
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q14" s="13">
-        <v>0</v>
-      </c>
-      <c r="R14" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="U14" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="V14" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="V14" s="14">
+        <v>0</v>
+      </c>
+      <c r="W14" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA14" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="14"/>
       <c r="E15" s="14"/>
       <c r="G15" s="14"/>
@@ -1663,54 +2049,88 @@
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q15" s="14">
-        <v>0</v>
-      </c>
-      <c r="R15" s="13" t="s">
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="V15" s="14">
+        <v>0</v>
+      </c>
+      <c r="W15" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="T15" s="14"/>
-      <c r="U15" s="15" t="s">
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="V15" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="AA15" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="13" t="str">
+        <f t="shared" ref="D16" si="1">B16&amp;"_"&amp;C16</f>
+        <v>Buff_Line2</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="17"/>
+      <c r="N16" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="P16" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>1</v>
+      </c>
+      <c r="R16" s="14">
+        <v>1</v>
+      </c>
+      <c r="S16" s="14"/>
+      <c r="T16" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="U16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="V16" s="13">
+        <v>0</v>
+      </c>
+      <c r="W16" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="Q16" s="14">
-        <v>0</v>
-      </c>
-      <c r="R16" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="T16" s="14"/>
-      <c r="U16" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="V16" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z16" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA16" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="14"/>
       <c r="E17" s="14"/>
       <c r="G17" s="14"/>
@@ -1721,194 +2141,1021 @@
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q17" s="13">
-        <v>0</v>
-      </c>
-      <c r="R17" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="U17" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="V17" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="V17" s="14">
+        <v>0</v>
+      </c>
+      <c r="W17" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA17" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="V18" s="14">
+        <v>0</v>
+      </c>
+      <c r="W18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA18" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="13" t="str">
+        <f t="shared" ref="D19" si="2">B19&amp;"_"&amp;C19</f>
+        <v>Buff_Line3</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D18" t="str">
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>1</v>
+      </c>
+      <c r="R19" s="14">
+        <v>1</v>
+      </c>
+      <c r="S19" s="14"/>
+      <c r="T19" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="U19" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="V19" s="13">
+        <v>0</v>
+      </c>
+      <c r="W19" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z19" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA19" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="V20" s="14">
+        <v>0</v>
+      </c>
+      <c r="W20" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA20" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="V21" s="14">
+        <v>0</v>
+      </c>
+      <c r="W21" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA21" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="17"/>
+    </row>
+    <row r="23" spans="2:27" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="17"/>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="str">
         <f t="shared" si="0"/>
         <v>Buff_Circle1</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="6" t="s">
+      <c r="E24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24" s="6">
+        <v>1</v>
+      </c>
+      <c r="S24" s="6"/>
+      <c r="T24" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="U24" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="V24" s="13">
+        <v>0</v>
+      </c>
+      <c r="W24" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z24" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA24" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="F25" s="6"/>
+      <c r="U25" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="V25" s="6">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA25" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="W27" s="6"/>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="12"/>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" ref="D29" si="3">B29&amp;"_"&amp;C29</f>
+        <v>Buff_AttackGetGold1</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29" s="6">
+        <v>1</v>
+      </c>
+      <c r="S29" s="6"/>
+      <c r="T29" s="12">
+        <v>0</v>
+      </c>
+      <c r="U29" t="s">
+        <v>88</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="12"/>
+      <c r="W30" s="6"/>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" ref="D31" si="4">B31&amp;"_"&amp;C31</f>
+        <v>Buff_AutoGetGold1</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31" s="6">
+        <v>1</v>
+      </c>
+      <c r="S31" s="6"/>
+      <c r="T31" s="12">
+        <v>2</v>
+      </c>
+      <c r="U31" t="s">
+        <v>91</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="Y32" s="6"/>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" ref="D33" si="5">B33&amp;"_"&amp;C33</f>
+        <v>Buff_HitBack1</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33" s="6">
+        <v>1</v>
+      </c>
+      <c r="S33" s="6"/>
+      <c r="T33" s="12">
+        <v>0</v>
+      </c>
+      <c r="U33" t="s">
+        <v>88</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" ref="D34:D41" si="6">B34&amp;"_"&amp;C34</f>
+        <v>Buff_BeHitBack1</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34" s="6">
+        <v>1</v>
+      </c>
+      <c r="S34" s="6"/>
+      <c r="T34" s="12">
+        <v>0</v>
+      </c>
+      <c r="U34" s="6"/>
+      <c r="W34" s="6"/>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="6"/>
+        <v>Buff_Slow</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35" s="6">
+        <v>1</v>
+      </c>
+      <c r="S35" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T35" s="12">
+        <v>0</v>
+      </c>
+      <c r="U35" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="V35" s="13">
+        <v>0</v>
+      </c>
+      <c r="W35" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z35" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA35" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="6"/>
+        <v>Buff_CDDown1</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I36" t="s">
+        <v>172</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36" s="6">
+        <v>1</v>
+      </c>
+      <c r="S36" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T36" s="12">
+        <v>1</v>
+      </c>
+      <c r="U36" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="V36" s="13">
+        <v>0</v>
+      </c>
+      <c r="W36" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
+      <c r="Z36" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA36" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="6"/>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" ref="D37" si="7">B37&amp;"_"&amp;C37</f>
+        <v>Buff_CDDown2</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I37" t="s">
+        <v>172</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q37">
+        <v>2</v>
+      </c>
+      <c r="R37" s="6">
+        <v>1</v>
+      </c>
+      <c r="S37" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T37" s="12">
+        <v>1</v>
+      </c>
+      <c r="U37" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="V37" s="13">
+        <v>0</v>
+      </c>
+      <c r="W37" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="13"/>
+      <c r="Z37" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA37" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="6"/>
+    </row>
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" ref="D38" si="8">B38&amp;"_"&amp;C38</f>
+        <v>Buff_CDDown3</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I38" t="s">
+        <v>172</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q38">
+        <v>3</v>
+      </c>
+      <c r="R38" s="6">
+        <v>1</v>
+      </c>
+      <c r="S38" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T38" s="12">
+        <v>1</v>
+      </c>
+      <c r="U38" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="V38" s="13">
+        <v>0</v>
+      </c>
+      <c r="W38" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA38" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="6"/>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="6"/>
+        <v>Buff_AttackUp</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39" s="6">
+        <v>10</v>
+      </c>
+      <c r="S39" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T39" s="12">
+        <v>1</v>
+      </c>
+      <c r="U39" t="s">
+        <v>94</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z39" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA39" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="U40" t="s">
+        <v>146</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z40" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA40" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="6"/>
+        <v>Buff_AddCDDown1</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>1</v>
+      </c>
+      <c r="R41" s="1">
+        <v>1</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18" s="6">
-        <v>1</v>
-      </c>
-      <c r="O18" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="P18" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18" t="s">
-        <v>92</v>
-      </c>
-      <c r="U18" t="s">
-        <v>87</v>
-      </c>
-      <c r="V18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="12"/>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+      <c r="V41" s="1">
+        <v>0</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z41" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" ref="D20" si="1">B20&amp;"_"&amp;C20</f>
-        <v>Buff_AttackGetGold1</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20" s="6">
-        <v>1</v>
-      </c>
-      <c r="O20" s="12">
-        <v>0</v>
-      </c>
-      <c r="P20" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="U20" t="s">
-        <v>87</v>
-      </c>
-      <c r="V20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
+      <c r="C42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" ref="D42:D43" si="9">B42&amp;"_"&amp;C42</f>
+        <v>Buff_AddCDDown2</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" ref="D21" si="2">B21&amp;"_"&amp;C21</f>
-        <v>Buff_AutoGetGold1</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21" s="6">
-        <v>1</v>
-      </c>
-      <c r="O21" s="12">
+      <c r="Q42" s="1">
         <v>2</v>
       </c>
-      <c r="P21" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="U21" t="s">
-        <v>87</v>
-      </c>
-      <c r="V21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="T22" s="6"/>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="F23" s="6"/>
-      <c r="T23" s="6"/>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="T24" s="6"/>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="R25" s="6"/>
-      <c r="T25" s="6"/>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="T26" s="6"/>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="W29" s="6"/>
+      <c r="R42" s="1">
+        <v>1</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="V42" s="1">
+        <v>0</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z42" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA42" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="9"/>
+        <v>Buff_AddCDDown3</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>3</v>
+      </c>
+      <c r="R43" s="1">
+        <v>1</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="V43" s="1">
+        <v>0</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z43" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="P1:V1"/>
-    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U4:AA4"/>
+    <mergeCell ref="U1:AA1"/>
+    <mergeCell ref="Z2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA6B93E-47EF-4D0E-B6CD-40A32F6AF18A}">
+  <dimension ref="B3:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/BuffConfig/BuffCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/BuffConfig/BuffCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\BuffConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A565AC4A-38D3-4033-8D97-8A23F86BEF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C31C81-4371-4969-A050-510DAAF1B2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="R39" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S39" s="6" t="b">
         <v>1</v>

--- a/Unity/Assets/Config/Excel/AbilityConfig/BuffConfig/BuffCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/BuffConfig/BuffCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\BuffConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C31C81-4371-4969-A050-510DAAF1B2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95049895-4AFD-4DE7-8FBB-5E4F16C50CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="182">
   <si>
     <t>##var</t>
   </si>
@@ -745,6 +745,53 @@
   </si>
   <si>
     <t>BuffTagGroupCDDown</t>
+  </si>
+  <si>
+    <t>SeedHeal1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复生命</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回血</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_SeedHeal1</t>
+  </si>
+  <si>
+    <t>AttackArea_SeedHeal1</t>
+  </si>
+  <si>
+    <t>毒雾3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Circle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆形毒雾3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_PlayerCircle3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1228,13 +1275,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO43"/>
+  <dimension ref="A1:AO45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="N19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="R39" sqref="R39"/>
+      <selection pane="bottomRight" activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1242,7 +1289,7 @@
     <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
@@ -1256,7 +1303,7 @@
     <col min="16" max="16" width="16.375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.75" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.375" customWidth="1"/>
+    <col min="19" max="19" width="25.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19.25" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="20.625" bestFit="1" customWidth="1"/>
@@ -2431,8 +2478,76 @@
         <v>0</v>
       </c>
     </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" t="str">
+        <f>B26&amp;"_"&amp;C26</f>
+        <v>Buff_Circle3</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26" s="6">
+        <v>1</v>
+      </c>
+      <c r="S26" s="6"/>
+      <c r="T26" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="U26" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="V26" s="13">
+        <v>0</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z26" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA26" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="W27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="U27" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="V27" s="6">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA27" s="12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B28" s="6"/>
@@ -2965,7 +3080,7 @@
         <v>157</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" ref="D42:D43" si="9">B42&amp;"_"&amp;C42</f>
+        <f t="shared" ref="D42:D44" si="9">B42&amp;"_"&amp;C42</f>
         <v>Buff_AddCDDown2</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -3045,6 +3160,72 @@
       </c>
       <c r="AA43" s="1" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="9"/>
+        <v>Buff_SeedHeal1</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44" s="6">
+        <v>1</v>
+      </c>
+      <c r="S44" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T44" s="12">
+        <v>2</v>
+      </c>
+      <c r="U44" t="s">
+        <v>91</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="T45" s="12"/>
+      <c r="U45" t="s">
+        <v>91</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA45" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/BuffConfig/BuffCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/BuffConfig/BuffCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\BuffConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4212C516-4733-4C0B-B232-98E2689D9C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2AF6CB-C3BC-4CDA-94D3-680FFEF5770D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="511">
   <si>
     <t>##var</t>
   </si>
@@ -350,13 +350,7 @@
     <t>EffectCreate_PlayerLine3</t>
   </si>
   <si>
-    <t>火焰塔灼烧buff1</t>
-  </si>
-  <si>
     <t>单体毒</t>
-  </si>
-  <si>
-    <t>AttackArea_Buff_HuoYan1</t>
   </si>
   <si>
     <t>毒雾</t>
@@ -1102,12 +1096,6 @@
     <t>Buff_Line3</t>
   </si>
   <si>
-    <t>Buff_HuoYan1</t>
-  </si>
-  <si>
-    <t>EffectCreate_BuffHuoYan1</t>
-  </si>
-  <si>
     <t>Buff_Circle1</t>
   </si>
   <si>
@@ -1676,6 +1664,37 @@
   </si>
   <si>
     <t>Buff_Monster_Challenge_Niao3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_WaveHpUp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_WaveSpeedUp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环刷怪加血</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环刷怪加速</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_Line3_Fire</t>
+  </si>
+  <si>
+    <t>火焰塔3灼烧buff</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_Buff_Line3_Fire</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_Buff_Line3_Fire</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1870,6 +1889,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1881,9 +1903,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2454,13 +2473,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL204"/>
+  <dimension ref="A1:AL206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D87" sqref="D87"/>
+      <selection pane="bottomRight" activeCell="L112" sqref="L112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2536,14 +2555,14 @@
       <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
       <c r="Y1"/>
       <c r="Z1"/>
       <c r="AA1"/>
@@ -2706,14 +2725,14 @@
       <c r="R4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="22" t="s">
+      <c r="S4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
       <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4"/>
@@ -2855,10 +2874,10 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>64</v>
@@ -2882,10 +2901,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
@@ -2897,18 +2916,18 @@
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>64</v>
@@ -2932,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
@@ -2947,18 +2966,18 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>64</v>
@@ -2982,10 +3001,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
@@ -2997,18 +3016,18 @@
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>64</v>
@@ -3032,10 +3051,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
@@ -3047,18 +3066,18 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>64</v>
@@ -3082,10 +3101,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
@@ -3097,18 +3116,18 @@
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>64</v>
@@ -3132,18 +3151,18 @@
         <v>0</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>64</v>
@@ -3167,18 +3186,18 @@
         <v>0</v>
       </c>
       <c r="U18" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>64</v>
@@ -3202,18 +3221,18 @@
         <v>0</v>
       </c>
       <c r="U19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>64</v>
@@ -3237,10 +3256,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
@@ -3252,18 +3271,18 @@
         <v>0</v>
       </c>
       <c r="U21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>64</v>
@@ -3287,18 +3306,18 @@
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E23" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>64</v>
@@ -3322,10 +3341,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.2">
@@ -3337,18 +3356,18 @@
         <v>0</v>
       </c>
       <c r="U24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E25" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>64</v>
@@ -3372,10 +3391,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
@@ -3387,18 +3406,18 @@
         <v>0</v>
       </c>
       <c r="U26" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E27" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>64</v>
@@ -3422,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
@@ -3437,18 +3456,18 @@
         <v>0</v>
       </c>
       <c r="U28" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E29" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>64</v>
@@ -3472,10 +3491,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.2">
@@ -3487,18 +3506,18 @@
         <v>0</v>
       </c>
       <c r="U30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E31" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N31" s="3" t="s">
         <v>64</v>
@@ -3522,10 +3541,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.2">
@@ -3537,18 +3556,18 @@
         <v>0</v>
       </c>
       <c r="U32" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E33" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>64</v>
@@ -3572,18 +3591,18 @@
         <v>0</v>
       </c>
       <c r="U33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E34" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N34" s="3" t="s">
         <v>64</v>
@@ -3607,10 +3626,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
@@ -3622,18 +3641,18 @@
         <v>0</v>
       </c>
       <c r="U35" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E36" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N36" s="3" t="s">
         <v>64</v>
@@ -3657,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="X36" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
@@ -3672,24 +3691,24 @@
         <v>0</v>
       </c>
       <c r="U37" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="X37" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F38" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L38" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>64</v>
@@ -3711,16 +3730,16 @@
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F39" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L39" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N39" s="3" t="s">
         <v>64</v>
@@ -3741,16 +3760,16 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F40" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L40" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>64</v>
@@ -3771,16 +3790,16 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F41" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L41" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>64</v>
@@ -3801,16 +3820,16 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F42" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L42" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>64</v>
@@ -3831,19 +3850,19 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F43" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O43">
         <v>1</v>
@@ -3867,24 +3886,24 @@
         <v>84</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F44" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O44">
         <v>1</v>
@@ -3908,24 +3927,24 @@
         <v>84</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
+        <v>311</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>315</v>
-      </c>
       <c r="F45" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O45">
         <v>1</v>
@@ -3949,24 +3968,24 @@
         <v>84</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
+        <v>301</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F46" t="s">
+        <v>305</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="N46" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="F46" t="s">
-        <v>307</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="O46">
         <v>1</v>
@@ -3990,24 +4009,24 @@
         <v>84</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
+        <v>302</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F47" t="s">
+        <v>305</v>
+      </c>
+      <c r="L47" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="F47" t="s">
-        <v>307</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>306</v>
-      </c>
       <c r="N47" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O47">
         <v>1</v>
@@ -4031,15 +4050,15 @@
         <v>84</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B49" s="18" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E49" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>64</v>
@@ -4063,10 +4082,10 @@
         <v>0</v>
       </c>
       <c r="U49" s="18" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="X49" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.2">
@@ -4078,18 +4097,18 @@
         <v>0</v>
       </c>
       <c r="U50" s="18" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B51" s="18" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E51" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="N51" s="3" t="s">
         <v>64</v>
@@ -4113,10 +4132,10 @@
         <v>0</v>
       </c>
       <c r="U51" s="18" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.2">
@@ -4128,18 +4147,18 @@
         <v>0</v>
       </c>
       <c r="U52" s="18" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B53" s="18" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E53" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="N53" s="3" t="s">
         <v>64</v>
@@ -4163,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="U53" s="18" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="X53" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.2">
@@ -4178,18 +4197,18 @@
         <v>0</v>
       </c>
       <c r="U54" s="18" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="X54" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B55" s="18" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E55" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="N55" s="3" t="s">
         <v>64</v>
@@ -4213,10 +4232,10 @@
         <v>0</v>
       </c>
       <c r="U55" s="18" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="X55" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.2">
@@ -4228,18 +4247,18 @@
         <v>0</v>
       </c>
       <c r="U56" s="18" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="X56" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B57" s="18" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E57" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>64</v>
@@ -4263,10 +4282,10 @@
         <v>0</v>
       </c>
       <c r="U57" s="18" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="X57" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.2">
@@ -4278,18 +4297,18 @@
         <v>0</v>
       </c>
       <c r="U58" s="18" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="X58" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B59" s="18" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E59" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>64</v>
@@ -4313,10 +4332,10 @@
         <v>0</v>
       </c>
       <c r="U59" s="18" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="X59" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.2">
@@ -4328,18 +4347,18 @@
         <v>0</v>
       </c>
       <c r="U60" s="18" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="X60" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B61" s="18" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E61" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="N61" s="3" t="s">
         <v>64</v>
@@ -4363,10 +4382,10 @@
         <v>0</v>
       </c>
       <c r="U61" s="18" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="X61" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.2">
@@ -4378,18 +4397,18 @@
         <v>0</v>
       </c>
       <c r="U62" s="18" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="X62" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B63" s="18" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="N63" s="3" t="s">
         <v>64</v>
@@ -4413,18 +4432,18 @@
         <v>0</v>
       </c>
       <c r="U63" s="18" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="X63" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B64" s="18" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="N64" s="3" t="s">
         <v>64</v>
@@ -4448,18 +4467,18 @@
         <v>0</v>
       </c>
       <c r="U64" s="18" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="X64" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B65" s="18" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="N65" s="3" t="s">
         <v>64</v>
@@ -4483,18 +4502,18 @@
         <v>0</v>
       </c>
       <c r="U65" s="18" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="X65" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B66" s="18" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>64</v>
@@ -4518,18 +4537,18 @@
         <v>0</v>
       </c>
       <c r="U66" s="18" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="X66" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B67" s="18" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="N67" s="3" t="s">
         <v>64</v>
@@ -4553,18 +4572,18 @@
         <v>0</v>
       </c>
       <c r="U67" s="18" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="X67" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B68" s="18" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="N68" s="3" t="s">
         <v>64</v>
@@ -4588,18 +4607,18 @@
         <v>0</v>
       </c>
       <c r="U68" s="18" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="X68" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B69" s="18" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="N69" s="3" t="s">
         <v>64</v>
@@ -4623,18 +4642,18 @@
         <v>0</v>
       </c>
       <c r="U69" s="18" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="X69" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B70" s="18" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="N70" s="3" t="s">
         <v>64</v>
@@ -4658,18 +4677,18 @@
         <v>0</v>
       </c>
       <c r="U70" s="18" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="X70" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B71" s="18" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="N71" s="3" t="s">
         <v>64</v>
@@ -4693,10 +4712,10 @@
         <v>0</v>
       </c>
       <c r="U71" s="18" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="X71" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="2:24" x14ac:dyDescent="0.2">
@@ -4710,18 +4729,18 @@
         <v>0</v>
       </c>
       <c r="U72" s="18" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="X72" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B73" s="18" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="N73" s="3" t="s">
         <v>64</v>
@@ -4745,10 +4764,10 @@
         <v>0</v>
       </c>
       <c r="U73" s="18" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="X73" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" spans="2:24" x14ac:dyDescent="0.2">
@@ -4762,18 +4781,18 @@
         <v>0</v>
       </c>
       <c r="U74" s="18" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="X74" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B75" s="18" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="N75" s="3" t="s">
         <v>64</v>
@@ -4797,10 +4816,10 @@
         <v>0</v>
       </c>
       <c r="U75" s="18" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="X75" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="2:24" x14ac:dyDescent="0.2">
@@ -4814,18 +4833,18 @@
         <v>0</v>
       </c>
       <c r="U76" s="18" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="X76" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B77" s="18" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="N77" s="3" t="s">
         <v>64</v>
@@ -4849,10 +4868,10 @@
         <v>0</v>
       </c>
       <c r="U77" s="18" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="X77" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="78" spans="2:24" x14ac:dyDescent="0.2">
@@ -4866,18 +4885,18 @@
         <v>0</v>
       </c>
       <c r="U78" s="18" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="X78" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="18" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="N79" s="3" t="s">
         <v>64</v>
@@ -4901,10 +4920,10 @@
         <v>0</v>
       </c>
       <c r="U79" s="18" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="X79" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="80" spans="2:24" x14ac:dyDescent="0.2">
@@ -4918,18 +4937,18 @@
         <v>0</v>
       </c>
       <c r="U80" s="18" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="X80" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="81" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B81" s="18" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>64</v>
@@ -4953,10 +4972,10 @@
         <v>0</v>
       </c>
       <c r="U81" s="18" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="X81" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="82" spans="2:24" x14ac:dyDescent="0.2">
@@ -4968,18 +4987,18 @@
         <v>0</v>
       </c>
       <c r="U82" s="18" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="X82" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B83" s="18" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>64</v>
@@ -5003,10 +5022,10 @@
         <v>0</v>
       </c>
       <c r="U83" s="18" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="X83" s="3" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="84" spans="2:24" x14ac:dyDescent="0.2">
@@ -5018,18 +5037,18 @@
         <v>0</v>
       </c>
       <c r="U84" s="18" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="X84" s="18" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="85" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B85" s="18" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="N85" s="3" t="s">
         <v>64</v>
@@ -5052,11 +5071,11 @@
       <c r="T85">
         <v>0</v>
       </c>
-      <c r="U85" s="24" t="s">
-        <v>495</v>
+      <c r="U85" s="20" t="s">
+        <v>491</v>
       </c>
       <c r="X85" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" spans="2:24" x14ac:dyDescent="0.2">
@@ -5068,18 +5087,18 @@
         <v>0</v>
       </c>
       <c r="U86" s="18" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="X86" s="18" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="87" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B87" s="18" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="N87" s="3" t="s">
         <v>64</v>
@@ -5103,10 +5122,10 @@
         <v>0</v>
       </c>
       <c r="U87" s="18" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="X87" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" spans="2:24" x14ac:dyDescent="0.2">
@@ -5118,10 +5137,10 @@
         <v>0</v>
       </c>
       <c r="U88" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="X88" s="18" t="s">
         <v>498</v>
-      </c>
-      <c r="X88" s="18" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="89" spans="2:24" x14ac:dyDescent="0.2">
@@ -5131,16 +5150,16 @@
     </row>
     <row r="90" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B90" s="18" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F90" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L90" s="18" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="N90" s="3" t="s">
         <v>64</v>
@@ -5161,16 +5180,16 @@
     </row>
     <row r="91" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B91" s="18" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F91" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L91" s="18" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>64</v>
@@ -5191,16 +5210,16 @@
     </row>
     <row r="92" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B92" s="18" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F92" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L92" s="18" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="N92" s="3" t="s">
         <v>64</v>
@@ -5221,16 +5240,16 @@
     </row>
     <row r="93" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B93" s="18" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E93" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="F93" t="s">
+        <v>244</v>
+      </c>
+      <c r="L93" s="18" t="s">
         <v>457</v>
-      </c>
-      <c r="F93" t="s">
-        <v>246</v>
-      </c>
-      <c r="L93" s="18" t="s">
-        <v>461</v>
       </c>
       <c r="N93" s="3" t="s">
         <v>64</v>
@@ -5251,16 +5270,16 @@
     </row>
     <row r="94" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B94" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="E94" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="E94" s="6" t="s">
-        <v>457</v>
-      </c>
       <c r="F94" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L94" s="18" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>64</v>
@@ -5281,16 +5300,16 @@
     </row>
     <row r="95" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B95" s="18" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F95" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L95" s="18" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="N95" s="3" t="s">
         <v>64</v>
@@ -5311,16 +5330,16 @@
     </row>
     <row r="96" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B96" s="18" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F96" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L96" s="18" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="N96" s="3" t="s">
         <v>64</v>
@@ -5341,16 +5360,16 @@
     </row>
     <row r="97" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B97" s="18" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F97" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L97" s="18" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="N97" s="3" t="s">
         <v>64</v>
@@ -5371,19 +5390,19 @@
     </row>
     <row r="98" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B98" s="18" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F98" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N98" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O98">
         <v>1</v>
@@ -5407,24 +5426,24 @@
         <v>84</v>
       </c>
       <c r="X98" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="99" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B99" s="18" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F99" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L99" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N99" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O99">
         <v>1</v>
@@ -5448,24 +5467,24 @@
         <v>84</v>
       </c>
       <c r="X99" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="100" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B100" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="E100" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="E100" s="6" t="s">
-        <v>472</v>
-      </c>
       <c r="F100" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N100" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O100">
         <v>1</v>
@@ -5489,24 +5508,24 @@
         <v>84</v>
       </c>
       <c r="X100" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B101" s="18" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F101" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L101" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N101" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O101">
         <v>1</v>
@@ -5530,24 +5549,24 @@
         <v>84</v>
       </c>
       <c r="X101" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="102" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B102" s="18" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F102" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N102" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O102">
         <v>1</v>
@@ -5571,24 +5590,24 @@
         <v>84</v>
       </c>
       <c r="X102" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="103" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B103" s="18" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F103" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L103" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N103" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O103">
         <v>1</v>
@@ -5612,19 +5631,19 @@
         <v>84</v>
       </c>
       <c r="X103" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="104" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B104" s="18" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L104" s="6"/>
       <c r="N104" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O104">
         <v>1</v>
@@ -5648,33 +5667,31 @@
         <v>84</v>
       </c>
       <c r="X104" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="105" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B105" s="18"/>
+      <c r="E105" s="6"/>
+      <c r="L105" s="6"/>
       <c r="N105" s="3"/>
-      <c r="U105" s="18"/>
       <c r="X105" s="3"/>
     </row>
     <row r="106" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K106" s="3" t="s">
-        <v>69</v>
+        <v>317</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M106" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="N106" s="3" t="s">
         <v>64</v>
@@ -5683,200 +5700,221 @@
         <v>1</v>
       </c>
       <c r="P106" s="3">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="R106" s="14">
-        <v>4</v>
+        <v>0.3</v>
       </c>
       <c r="S106" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T106" s="3">
         <v>0</v>
       </c>
       <c r="U106" s="3" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="X106" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="107" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
       <c r="R107" s="14"/>
       <c r="S107" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="T107" s="3">
+        <v>0</v>
+      </c>
+      <c r="U107" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="X107" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="108" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M108" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N108" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O108" s="3">
+        <v>1</v>
+      </c>
+      <c r="P108" s="3">
+        <v>1</v>
+      </c>
+      <c r="R108" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="S108" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="T107" s="3">
-        <v>0</v>
-      </c>
-      <c r="U107" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="X107" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="108" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="R108" s="14"/>
-      <c r="S108" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="T108" s="3">
         <v>0</v>
       </c>
       <c r="U108" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="X108" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="109" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="F109" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N109" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O109" s="3">
-        <v>1</v>
-      </c>
-      <c r="P109" s="3">
-        <v>11</v>
-      </c>
-      <c r="R109" s="14">
-        <v>3</v>
-      </c>
+      <c r="R109" s="14"/>
       <c r="S109" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="T109" s="3">
         <v>0</v>
       </c>
       <c r="U109" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="X109" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="X109" s="14" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="110" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="R110" s="14"/>
+      <c r="B110" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M110" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N110" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O110" s="3">
+        <v>1</v>
+      </c>
+      <c r="P110" s="3">
+        <v>1</v>
+      </c>
+      <c r="R110" s="14">
+        <v>0.3</v>
+      </c>
       <c r="S110" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="T110" s="3">
         <v>0</v>
       </c>
       <c r="U110" s="3" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="X110" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="111" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="F111" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="N111" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O111" s="3">
-        <v>1</v>
-      </c>
-      <c r="P111" s="3">
-        <v>7</v>
-      </c>
-      <c r="R111" s="14">
-        <v>4</v>
-      </c>
+      <c r="R111" s="14"/>
       <c r="S111" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="T111" s="3">
         <v>0</v>
       </c>
       <c r="U111" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="X111" s="3" t="s">
-        <v>229</v>
+        <v>233</v>
+      </c>
+      <c r="X111" s="14" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="112" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B112" s="3" t="s">
-        <v>319</v>
+        <v>507</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L112" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="M112" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="M112"/>
       <c r="N112" s="3" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="O112" s="3">
         <v>1</v>
       </c>
       <c r="P112" s="3">
         <v>1</v>
+      </c>
+      <c r="Q112" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="R112" s="14">
         <v>0.3</v>
       </c>
-      <c r="S112" s="3" t="s">
-        <v>72</v>
+      <c r="S112" t="s">
+        <v>70</v>
       </c>
       <c r="T112" s="3">
         <v>0</v>
       </c>
-      <c r="U112" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="U112" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="V112"/>
+      <c r="W112"/>
       <c r="X112" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="113" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E113" s="11"/>
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
       <c r="R113" s="14"/>
       <c r="S113" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T113" s="3">
         <v>0</v>
       </c>
       <c r="U113" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="X113" s="14" t="s">
-        <v>228</v>
+        <v>84</v>
+      </c>
+      <c r="X113" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="114" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5884,13 +5922,13 @@
         <v>320</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M114" s="3" t="s">
         <v>83</v>
@@ -5917,11 +5955,10 @@
         <v>84</v>
       </c>
       <c r="X114" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="115" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="R115" s="14"/>
       <c r="S115" s="3" t="s">
         <v>70</v>
       </c>
@@ -5929,10 +5966,10 @@
         <v>0</v>
       </c>
       <c r="U115" s="3" t="s">
-        <v>234</v>
+        <v>92</v>
       </c>
       <c r="X115" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="116" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5940,13 +5977,13 @@
         <v>321</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M116" s="3" t="s">
         <v>83</v>
@@ -5973,11 +6010,10 @@
         <v>84</v>
       </c>
       <c r="X116" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="117" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="R117" s="14"/>
       <c r="S117" s="3" t="s">
         <v>70</v>
       </c>
@@ -5985,162 +6021,144 @@
         <v>0</v>
       </c>
       <c r="U117" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="X117" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="118" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L118" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M118" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N118" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O118" s="3">
+        <v>1</v>
+      </c>
+      <c r="P118" s="3">
+        <v>1</v>
+      </c>
+      <c r="R118" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="S118" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T118" s="3">
+        <v>0</v>
+      </c>
+      <c r="U118" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X118" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="119" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S119" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="T119" s="3">
+        <v>0</v>
+      </c>
+      <c r="U119" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="X117" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="118" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="R118" s="14"/>
-    </row>
-    <row r="119" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="R119" s="14"/>
+      <c r="X119" s="14" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="120" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E120" t="s">
-        <v>89</v>
-      </c>
-      <c r="F120"/>
-      <c r="G120"/>
-      <c r="H120"/>
-      <c r="I120"/>
-      <c r="J120"/>
-      <c r="K120"/>
-      <c r="L120" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="M120"/>
-      <c r="N120" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O120" s="3">
-        <v>1</v>
-      </c>
-      <c r="P120" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q120" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R120" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="S120" t="s">
-        <v>70</v>
-      </c>
-      <c r="T120" s="3">
-        <v>0</v>
-      </c>
-      <c r="U120" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="V120"/>
-      <c r="W120"/>
-      <c r="X120" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="121" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E121" s="11"/>
-      <c r="F121"/>
-      <c r="G121"/>
-      <c r="H121"/>
-      <c r="I121"/>
-      <c r="J121"/>
-      <c r="K121"/>
-      <c r="L121"/>
-      <c r="M121"/>
-      <c r="R121" s="14"/>
-      <c r="S121" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T121" s="3">
-        <v>0</v>
-      </c>
-      <c r="U121" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="X121" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="122" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L122" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M122" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="X120" s="14"/>
+    </row>
+    <row r="121" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B121" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="L121" s="6"/>
+      <c r="N121" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O121">
+        <v>1</v>
+      </c>
+      <c r="P121">
+        <v>1</v>
+      </c>
+      <c r="Q121" t="b">
+        <v>1</v>
+      </c>
+      <c r="R121">
+        <v>0</v>
+      </c>
+      <c r="X121" s="3"/>
+    </row>
+    <row r="122" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B122" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="L122" s="6"/>
       <c r="N122" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="O122" s="3">
-        <v>1</v>
-      </c>
-      <c r="P122" s="3">
-        <v>1</v>
-      </c>
-      <c r="R122" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="S122" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T122" s="3">
-        <v>0</v>
-      </c>
-      <c r="U122" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="X122" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="123" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="S123" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="T123" s="3">
-        <v>0</v>
-      </c>
-      <c r="U123" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="X123" s="14" t="s">
-        <v>228</v>
-      </c>
+      <c r="O122">
+        <v>1</v>
+      </c>
+      <c r="P122">
+        <v>1</v>
+      </c>
+      <c r="Q122" t="b">
+        <v>1</v>
+      </c>
+      <c r="R122">
+        <v>0</v>
+      </c>
+      <c r="X122" s="3"/>
+    </row>
+    <row r="123" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="N123" s="3"/>
+      <c r="U123" s="18"/>
+      <c r="X123" s="3"/>
     </row>
     <row r="124" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B124" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L124" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M124" s="3" t="s">
-        <v>83</v>
+        <v>314</v>
+      </c>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="N124" s="3" t="s">
         <v>64</v>
@@ -6149,126 +6167,141 @@
         <v>1</v>
       </c>
       <c r="P124" s="3">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="R124" s="14">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="S124" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="T124" s="3">
+        <v>0</v>
+      </c>
+      <c r="U124" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="X124" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="125" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="R125" s="14"/>
+      <c r="S125" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="T124" s="3">
-        <v>0</v>
-      </c>
-      <c r="U124" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="X124" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="125" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="S125" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="T125" s="3">
         <v>0</v>
       </c>
       <c r="U125" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="X125" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="X125" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="126" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="R126" s="14"/>
+      <c r="S126" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="T126" s="3">
+        <v>0</v>
+      </c>
+      <c r="U126" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="X126" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="127" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="F127" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N127" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O127" s="3">
+        <v>1</v>
+      </c>
+      <c r="P127" s="3">
+        <v>11</v>
+      </c>
+      <c r="R127" s="14">
+        <v>3</v>
+      </c>
+      <c r="S127" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="T127" s="3">
+        <v>0</v>
+      </c>
+      <c r="U127" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="X127" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="128" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="R128" s="14"/>
+      <c r="S128" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="T128" s="3">
+        <v>0</v>
+      </c>
+      <c r="U128" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="X128" s="3" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="126" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="L126" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="M126" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="N126" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O126" s="3">
-        <v>1</v>
-      </c>
-      <c r="P126" s="3">
-        <v>1</v>
-      </c>
-      <c r="R126" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="S126" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T126" s="3">
-        <v>0</v>
-      </c>
-      <c r="U126" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="X126" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="127" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="S127" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="T127" s="3">
-        <v>0</v>
-      </c>
-      <c r="U127" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="X127" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="128" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="R128" s="14"/>
     </row>
     <row r="129" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B129" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>99</v>
+        <v>316</v>
+      </c>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="F129" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="N129" s="3" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="O129" s="3">
         <v>1</v>
       </c>
       <c r="P129" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R129" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S129" s="3" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="T129" s="3">
         <v>0</v>
       </c>
       <c r="U129" s="3" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="X129" s="3" t="s">
         <v>227</v>
@@ -6279,13 +6312,13 @@
     </row>
     <row r="131" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B131" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="N131" s="3" t="s">
         <v>64</v>
@@ -6297,31 +6330,33 @@
         <v>1</v>
       </c>
       <c r="R131" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S131" s="3" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="T131" s="3">
         <v>0</v>
       </c>
       <c r="U131" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="X131" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="132" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="132" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R132" s="14"/>
+    </row>
     <row r="133" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B133" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N133" s="3" t="s">
         <v>64</v>
@@ -6333,56 +6368,34 @@
         <v>1</v>
       </c>
       <c r="R133" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S133" s="3" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="T133" s="3">
         <v>0</v>
       </c>
       <c r="U133" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="X133" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="134" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N134" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O134" s="3">
-        <v>1</v>
-      </c>
-      <c r="P134" s="3">
-        <v>1</v>
-      </c>
-      <c r="R134" s="14">
-        <v>0</v>
-      </c>
-    </row>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="134" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="135" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B135" s="3" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N135" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="O135" s="3">
         <v>1</v>
@@ -6390,20 +6403,17 @@
       <c r="P135" s="3">
         <v>1</v>
       </c>
-      <c r="Q135" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="R135" s="14">
         <v>0</v>
       </c>
       <c r="S135" s="3" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="T135" s="3">
         <v>0</v>
       </c>
       <c r="U135" s="3" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="X135" s="3" t="s">
         <v>227</v>
@@ -6411,19 +6421,13 @@
     </row>
     <row r="136" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B136" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L136" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="N136" s="3" t="s">
         <v>64</v>
@@ -6434,46 +6438,25 @@
       <c r="P136" s="3">
         <v>1</v>
       </c>
-      <c r="Q136" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="R136" s="14">
-        <v>1</v>
-      </c>
-      <c r="S136" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T136" s="3">
-        <v>0</v>
-      </c>
-      <c r="U136" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="X136" s="3" t="s">
-        <v>227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B137" s="3" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L137" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="N137" s="3" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="O137" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P137" s="3">
         <v>1</v>
@@ -6482,7 +6465,7 @@
         <v>1</v>
       </c>
       <c r="R137" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S137" s="3" t="s">
         <v>72</v>
@@ -6494,30 +6477,30 @@
         <v>84</v>
       </c>
       <c r="X137" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="138" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B138" s="3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E138" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L138" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G138" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L138" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="N138" s="3" t="s">
         <v>64</v>
       </c>
       <c r="O138" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P138" s="3">
         <v>1</v>
@@ -6538,27 +6521,33 @@
         <v>84</v>
       </c>
       <c r="X138" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="139" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B139" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L139" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="N139" s="3" t="s">
         <v>64</v>
       </c>
       <c r="O139" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P139" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q139" s="3" t="b">
         <v>1</v>
@@ -6576,108 +6565,120 @@
         <v>84</v>
       </c>
       <c r="X139" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="140" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L140" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N140" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O140" s="3">
+        <v>3</v>
+      </c>
+      <c r="P140" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q140" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R140" s="14">
+        <v>1</v>
+      </c>
       <c r="S140" s="3" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="T140" s="3">
         <v>0</v>
       </c>
       <c r="U140" s="3" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="X140" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="141" spans="2:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="141" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B141" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="N141" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O141" s="4">
-        <v>1</v>
-      </c>
-      <c r="P141" s="4">
-        <v>1</v>
-      </c>
-      <c r="R141" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="S141" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="T141" s="4">
-        <v>0</v>
-      </c>
-      <c r="U141" s="4" t="s">
-        <v>121</v>
+        <v>331</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="N141" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O141" s="3">
+        <v>1</v>
+      </c>
+      <c r="P141" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q141" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R141" s="14">
+        <v>1</v>
+      </c>
+      <c r="S141" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T141" s="3">
+        <v>0</v>
+      </c>
+      <c r="U141" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="X141" s="3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="142" spans="2:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="N142" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O142" s="4">
-        <v>2</v>
-      </c>
-      <c r="P142" s="4">
-        <v>1</v>
-      </c>
-      <c r="R142" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="S142" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="T142" s="4">
-        <v>0</v>
-      </c>
-      <c r="U142" s="4" t="s">
-        <v>123</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="142" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S142" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="T142" s="3">
+        <v>0</v>
+      </c>
+      <c r="U142" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="X142" s="3" t="s">
-        <v>488</v>
+        <v>225</v>
       </c>
     </row>
     <row r="143" spans="2:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B143" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N143" s="4" t="s">
         <v>64</v>
       </c>
       <c r="O143" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P143" s="4">
         <v>1</v>
@@ -6692,74 +6693,91 @@
         <v>0</v>
       </c>
       <c r="U143" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="X143" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="144" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B144" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="N144" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O144" s="5">
-        <v>1</v>
-      </c>
-      <c r="P144" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q144" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="R144" s="15">
-        <v>4</v>
-      </c>
-      <c r="S144" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="T144" s="5">
-        <v>0</v>
-      </c>
-      <c r="U144" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="X144" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="145" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="R145" s="15"/>
-      <c r="S145" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="T145" s="5">
-        <v>0</v>
-      </c>
-      <c r="U145" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="X145" s="5" t="s">
-        <v>227</v>
+        <v>483</v>
+      </c>
+    </row>
+    <row r="144" spans="2:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B144" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N144" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O144" s="4">
+        <v>2</v>
+      </c>
+      <c r="P144" s="4">
+        <v>1</v>
+      </c>
+      <c r="R144" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="S144" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="T144" s="4">
+        <v>0</v>
+      </c>
+      <c r="U144" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="X144" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="145" spans="2:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B145" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N145" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O145" s="4">
+        <v>3</v>
+      </c>
+      <c r="P145" s="4">
+        <v>1</v>
+      </c>
+      <c r="R145" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="S145" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="T145" s="4">
+        <v>0</v>
+      </c>
+      <c r="U145" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="X145" s="3" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="146" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B146" s="5" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N146" s="5" t="s">
         <v>64</v>
@@ -6783,10 +6801,10 @@
         <v>0</v>
       </c>
       <c r="U146" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="X146" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="147" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -6798,21 +6816,21 @@
         <v>0</v>
       </c>
       <c r="U147" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="X147" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="148" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B148" s="5" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N148" s="5" t="s">
         <v>64</v>
@@ -6836,10 +6854,10 @@
         <v>0</v>
       </c>
       <c r="U148" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="X148" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="149" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -6851,178 +6869,147 @@
         <v>0</v>
       </c>
       <c r="U149" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="X149" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="150" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="R150" s="15"/>
+      <c r="B150" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="N150" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O150" s="5">
+        <v>1</v>
+      </c>
+      <c r="P150" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q150" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R150" s="15">
+        <v>4</v>
+      </c>
+      <c r="S150" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T150" s="5">
+        <v>0</v>
+      </c>
+      <c r="U150" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X150" s="5" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="151" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="C151" s="5" t="s">
+      <c r="R151" s="15"/>
+      <c r="S151" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T151" s="5">
+        <v>0</v>
+      </c>
+      <c r="U151" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="X151" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="152" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R152" s="15"/>
+    </row>
+    <row r="153" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B153" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="N153" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="O153" s="5">
+        <v>1</v>
+      </c>
+      <c r="P153" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q153" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R153" s="15">
+        <v>4</v>
+      </c>
+      <c r="S153" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T153" s="5">
+        <v>0</v>
+      </c>
+      <c r="U153" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="X153" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="154" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B154" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F154" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="N151" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="O151" s="5">
-        <v>1</v>
-      </c>
-      <c r="P151" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q151" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="R151" s="15">
-        <v>4</v>
-      </c>
-      <c r="S151" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="T151" s="5">
-        <v>0</v>
-      </c>
-      <c r="U151" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="X151" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="152" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F152" s="5" t="s">
+      <c r="L154" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="L152" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="N152" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="O152" s="5">
-        <v>1</v>
-      </c>
-      <c r="P152" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q152" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="R152" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="R153" s="15"/>
-    </row>
-    <row r="154" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B154" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="C154" t="s">
-        <v>134</v>
-      </c>
-      <c r="E154" t="s">
-        <v>135</v>
-      </c>
-      <c r="L154" s="5"/>
-      <c r="N154" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O154" s="4"/>
-      <c r="P154" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q154" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R154" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="S154" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="T154" s="12">
-        <v>0</v>
-      </c>
-      <c r="U154" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="V154" s="6"/>
-      <c r="W154" s="6"/>
-      <c r="X154" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y154" s="6"/>
-      <c r="Z154" s="6"/>
-      <c r="AA154" s="6"/>
-    </row>
-    <row r="155" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B155" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="C155" t="s">
-        <v>137</v>
-      </c>
-      <c r="E155" t="s">
-        <v>135</v>
-      </c>
-      <c r="L155" s="5"/>
-      <c r="N155" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O155" s="4"/>
-      <c r="P155" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q155" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R155" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="S155" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="T155" s="12">
-        <v>0</v>
-      </c>
-      <c r="U155" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="V155" s="6"/>
-      <c r="W155" s="6"/>
-      <c r="X155" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y155" s="6"/>
-      <c r="Z155" s="6"/>
-      <c r="AA155" s="6"/>
+      <c r="N154" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="O154" s="5">
+        <v>1</v>
+      </c>
+      <c r="P154" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q154" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R154" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R155" s="15"/>
     </row>
     <row r="156" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B156" s="3" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C156" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E156" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L156" s="5"/>
-      <c r="N156" s="4" t="s">
+      <c r="N156" s="3" t="s">
         <v>64</v>
       </c>
       <c r="O156" s="4"/>
@@ -7042,12 +7029,12 @@
         <v>0</v>
       </c>
       <c r="U156" s="12" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="V156" s="6"/>
       <c r="W156" s="6"/>
       <c r="X156" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Y156" s="6"/>
       <c r="Z156" s="6"/>
@@ -7055,48 +7042,41 @@
     </row>
     <row r="157" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B157" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E157" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G157" t="s">
-        <v>143</v>
-      </c>
-      <c r="L157" s="5" t="s">
-        <v>348</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="C157" t="s">
+        <v>135</v>
+      </c>
+      <c r="E157" t="s">
+        <v>133</v>
+      </c>
+      <c r="L157" s="5"/>
       <c r="N157" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="O157" s="4">
-        <v>1</v>
-      </c>
+      <c r="O157" s="4"/>
       <c r="P157" s="3">
         <v>1</v>
       </c>
-      <c r="Q157" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R157" s="14">
-        <v>0</v>
-      </c>
-      <c r="S157" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T157" s="3">
-        <v>0</v>
-      </c>
-      <c r="U157" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="V157" s="3"/>
-      <c r="W157" s="3"/>
-      <c r="X157" s="3" t="s">
-        <v>227</v>
+      <c r="Q157" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R157" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="S157" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="T157" s="12">
+        <v>0</v>
+      </c>
+      <c r="U157" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="V157" s="6"/>
+      <c r="W157" s="6"/>
+      <c r="X157" s="12" t="s">
+        <v>230</v>
       </c>
       <c r="Y157" s="6"/>
       <c r="Z157" s="6"/>
@@ -7104,48 +7084,41 @@
     </row>
     <row r="158" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B158" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E158" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G158" t="s">
-        <v>143</v>
-      </c>
-      <c r="L158" s="5" t="s">
-        <v>350</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="C158" t="s">
+        <v>137</v>
+      </c>
+      <c r="E158" t="s">
+        <v>133</v>
+      </c>
+      <c r="L158" s="5"/>
       <c r="N158" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="O158" s="4">
-        <v>2</v>
-      </c>
+      <c r="O158" s="4"/>
       <c r="P158" s="3">
         <v>1</v>
       </c>
-      <c r="Q158" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R158" s="14">
-        <v>0</v>
-      </c>
-      <c r="S158" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T158" s="3">
-        <v>0</v>
-      </c>
-      <c r="U158" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="V158" s="3"/>
-      <c r="W158" s="3"/>
-      <c r="X158" s="3" t="s">
-        <v>227</v>
+      <c r="Q158" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R158" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="S158" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="T158" s="12">
+        <v>0</v>
+      </c>
+      <c r="U158" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="V158" s="6"/>
+      <c r="W158" s="6"/>
+      <c r="X158" s="12" t="s">
+        <v>230</v>
       </c>
       <c r="Y158" s="6"/>
       <c r="Z158" s="6"/>
@@ -7153,25 +7126,25 @@
     </row>
     <row r="159" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B159" s="3" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G159" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L159" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="N159" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="N159" s="4" t="s">
         <v>64</v>
       </c>
       <c r="O159" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P159" s="3">
         <v>1</v>
@@ -7194,75 +7167,121 @@
       <c r="V159" s="3"/>
       <c r="W159" s="3"/>
       <c r="X159" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Y159" s="6"/>
       <c r="Z159" s="6"/>
       <c r="AA159" s="6"/>
     </row>
-    <row r="160" spans="2:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="6" t="s">
-        <v>353</v>
+    <row r="160" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B160" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="N160" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="O160" s="12"/>
-      <c r="P160" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q160" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R160" s="12">
-        <v>4</v>
-      </c>
-      <c r="S160" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="T160" s="12">
-        <v>0</v>
-      </c>
-      <c r="U160" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="X160" s="12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="161" spans="2:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="S161" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="T161" s="12">
-        <v>0</v>
-      </c>
-      <c r="U161" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="V161" s="6"/>
-      <c r="W161" s="6"/>
-      <c r="X161" s="12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="162" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+      <c r="G160" t="s">
+        <v>141</v>
+      </c>
+      <c r="L160" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="N160" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O160" s="4">
+        <v>2</v>
+      </c>
+      <c r="P160" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q160" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R160" s="14">
+        <v>0</v>
+      </c>
+      <c r="S160" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T160" s="3">
+        <v>0</v>
+      </c>
+      <c r="U160" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V160" s="3"/>
+      <c r="W160" s="3"/>
+      <c r="X160" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y160" s="6"/>
+      <c r="Z160" s="6"/>
+      <c r="AA160" s="6"/>
+    </row>
+    <row r="161" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B161" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G161" t="s">
+        <v>141</v>
+      </c>
+      <c r="L161" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="N161" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O161" s="4">
+        <v>3</v>
+      </c>
+      <c r="P161" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q161" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R161" s="14">
+        <v>0</v>
+      </c>
+      <c r="S161" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T161" s="3">
+        <v>0</v>
+      </c>
+      <c r="U161" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V161" s="3"/>
+      <c r="W161" s="3"/>
+      <c r="X161" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y161" s="6"/>
+      <c r="Z161" s="6"/>
+      <c r="AA161" s="6"/>
+    </row>
+    <row r="162" spans="2:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B162" s="6" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="N162" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="N162" s="12" t="s">
         <v>64</v>
       </c>
       <c r="O162" s="12"/>
@@ -7276,19 +7295,19 @@
         <v>4</v>
       </c>
       <c r="S162" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="T162" s="12">
         <v>0</v>
       </c>
       <c r="U162" s="12" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="X162" s="12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="163" spans="2:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="163" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="S163" s="12" t="s">
         <v>70</v>
       </c>
@@ -7296,25 +7315,25 @@
         <v>0</v>
       </c>
       <c r="U163" s="12" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="V163" s="6"/>
       <c r="W163" s="6"/>
       <c r="X163" s="12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="164" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="164" spans="2:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B164" s="6" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="N164" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="N164" s="6" t="s">
         <v>64</v>
       </c>
       <c r="O164" s="12"/>
@@ -7325,22 +7344,22 @@
         <v>1</v>
       </c>
       <c r="R164" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S164" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="T164" s="12">
         <v>0</v>
       </c>
       <c r="U164" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="X164" s="12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="165" spans="2:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="165" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="S165" s="12" t="s">
         <v>70</v>
       </c>
@@ -7348,126 +7367,90 @@
         <v>0</v>
       </c>
       <c r="U165" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V165" s="6"/>
       <c r="W165" s="6"/>
       <c r="X165" s="12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="166" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="3" t="s">
-        <v>356</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="166" spans="2:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B166" s="6" t="s">
+        <v>351</v>
       </c>
       <c r="C166" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="N166" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="O166" s="12"/>
+      <c r="P166" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q166" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R166" s="12">
+        <v>3</v>
+      </c>
+      <c r="S166" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="T166" s="12">
+        <v>0</v>
+      </c>
+      <c r="U166" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="X166" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="167" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S167" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="T167" s="12">
+        <v>0</v>
+      </c>
+      <c r="U167" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="V167" s="6"/>
+      <c r="W167" s="6"/>
+      <c r="X167" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="168" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B168" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G168" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E166" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G166" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="L166" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="N166" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O166" s="3">
-        <v>1</v>
-      </c>
-      <c r="P166" s="3">
+      <c r="L168" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="N168" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O168" s="3">
+        <v>1</v>
+      </c>
+      <c r="P168" s="3">
         <v>2</v>
-      </c>
-      <c r="Q166" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R166" s="14">
-        <v>0</v>
-      </c>
-      <c r="S166" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T166" s="3">
-        <v>0</v>
-      </c>
-      <c r="U166" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="X166" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="167" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G167" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="L167" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="N167" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O167" s="3">
-        <v>2</v>
-      </c>
-      <c r="P167" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q167" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R167" s="14">
-        <v>0</v>
-      </c>
-      <c r="S167" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T167" s="3">
-        <v>0</v>
-      </c>
-      <c r="U167" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="X167" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="168" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G168" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="L168" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="N168" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O168" s="3">
-        <v>3</v>
-      </c>
-      <c r="P168" s="3">
-        <v>6</v>
       </c>
       <c r="Q168" s="3" t="b">
         <v>1</v>
@@ -7485,90 +7468,108 @@
         <v>84</v>
       </c>
       <c r="X168" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="169" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="169" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B169" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>159</v>
+        <v>354</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="N169" s="4" t="s">
-        <v>64</v>
+        <v>153</v>
+      </c>
+      <c r="G169" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="L169" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N169" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O169" s="3">
+        <v>2</v>
       </c>
       <c r="P169" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q169" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="R169" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="S169" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="T169" s="4">
-        <v>0</v>
-      </c>
-      <c r="U169" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="X169" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="170" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R169" s="14">
+        <v>0</v>
+      </c>
+      <c r="S169" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T169" s="3">
+        <v>0</v>
+      </c>
+      <c r="U169" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X169" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="170" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B170" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>162</v>
+        <v>356</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="N170" s="4" t="s">
-        <v>64</v>
+        <v>153</v>
+      </c>
+      <c r="G170" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="L170" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="N170" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O170" s="3">
+        <v>3</v>
       </c>
       <c r="P170" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q170" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="R170" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="S170" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="T170" s="4">
-        <v>0</v>
-      </c>
-      <c r="U170" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="X170" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="171" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R170" s="14">
+        <v>0</v>
+      </c>
+      <c r="S170" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T170" s="3">
+        <v>0</v>
+      </c>
+      <c r="U170" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X170" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="171" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B171" s="3" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="N171" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="N171" s="4" t="s">
         <v>64</v>
       </c>
       <c r="P171" s="3">
@@ -7587,125 +7588,103 @@
         <v>0</v>
       </c>
       <c r="U171" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="X171" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="172" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B172" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="N172" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P172" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q172" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R172" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="S172" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="T172" s="4">
+        <v>0</v>
+      </c>
+      <c r="U172" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="X172" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="173" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B173" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="N173" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P173" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q173" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R173" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="S173" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="T173" s="4">
+        <v>0</v>
+      </c>
+      <c r="U173" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="X173" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="174" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B174" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E174" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="X171" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="172" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B172" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C172" s="6" t="s">
+      <c r="G174" t="s">
         <v>166</v>
       </c>
-      <c r="E172" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G172" t="s">
-        <v>168</v>
-      </c>
-      <c r="L172" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="N172" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O172" s="4">
-        <v>1</v>
-      </c>
-      <c r="P172" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q172" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R172" s="14">
-        <v>1</v>
-      </c>
-      <c r="S172" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T172" s="3">
-        <v>0</v>
-      </c>
-      <c r="U172" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="V172" s="3"/>
-      <c r="W172" s="3"/>
-      <c r="X172" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="173" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B173" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E173" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G173" t="s">
-        <v>168</v>
-      </c>
-      <c r="L173" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="N173" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O173" s="4">
-        <v>2</v>
-      </c>
-      <c r="P173" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q173" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R173" s="14">
-        <v>1</v>
-      </c>
-      <c r="S173" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T173" s="3">
-        <v>0</v>
-      </c>
-      <c r="U173" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="V173" s="3"/>
-      <c r="W173" s="3"/>
-      <c r="X173" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="174" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B174" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E174" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G174" t="s">
-        <v>168</v>
-      </c>
       <c r="L174" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="N174" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="N174" s="4" t="s">
         <v>64</v>
       </c>
       <c r="O174" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P174" s="3">
         <v>1</v>
@@ -7728,25 +7707,30 @@
       <c r="V174" s="3"/>
       <c r="W174" s="3"/>
       <c r="X174" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="175" spans="2:24" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="175" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B175" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C175" t="s">
-        <v>171</v>
-      </c>
-      <c r="E175" t="s">
-        <v>172</v>
-      </c>
-      <c r="L175" s="5"/>
+        <v>363</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G175" t="s">
+        <v>166</v>
+      </c>
+      <c r="L175" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="N175" s="4" t="s">
         <v>64</v>
       </c>
       <c r="O175" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P175" s="3">
         <v>1</v>
@@ -7754,62 +7738,86 @@
       <c r="Q175" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="R175" s="4">
+      <c r="R175" s="14">
+        <v>1</v>
+      </c>
+      <c r="S175" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T175" s="3">
+        <v>0</v>
+      </c>
+      <c r="U175" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V175" s="3"/>
+      <c r="W175" s="3"/>
+      <c r="X175" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="176" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B176" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G176" t="s">
+        <v>166</v>
+      </c>
+      <c r="L176" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="N176" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O176" s="4">
         <v>3</v>
       </c>
-      <c r="S175" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="T175" s="4">
-        <v>0</v>
-      </c>
-      <c r="U175" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="V175" t="s">
-        <v>174</v>
-      </c>
-      <c r="X175" s="17" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="176" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B176" s="3"/>
-      <c r="L176" s="5"/>
-      <c r="N176" s="4"/>
-      <c r="O176" s="4"/>
-      <c r="P176" s="3"/>
-      <c r="Q176" s="3"/>
-      <c r="R176" s="4"/>
-      <c r="S176" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="T176" s="4">
-        <v>0</v>
-      </c>
-      <c r="U176" s="4" t="s">
-        <v>175</v>
-      </c>
+      <c r="P176" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q176" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R176" s="14">
+        <v>1</v>
+      </c>
+      <c r="S176" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T176" s="3">
+        <v>0</v>
+      </c>
+      <c r="U176" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V176" s="3"/>
+      <c r="W176" s="3"/>
       <c r="X176" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="177" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B177" s="3" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C177" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E177" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L177" s="5"/>
       <c r="N177" s="4" t="s">
         <v>64</v>
       </c>
       <c r="O177" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P177" s="3">
         <v>1</v>
@@ -7818,7 +7826,7 @@
         <v>1</v>
       </c>
       <c r="R177" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S177" s="4" t="s">
         <v>70</v>
@@ -7827,13 +7835,13 @@
         <v>0</v>
       </c>
       <c r="U177" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="V177" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="X177" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="178" spans="2:24" x14ac:dyDescent="0.2">
@@ -7851,58 +7859,58 @@
         <v>0</v>
       </c>
       <c r="U178" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="X178" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="179" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B179" s="3" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C179" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E179" t="s">
+        <v>170</v>
+      </c>
+      <c r="L179" s="5"/>
+      <c r="N179" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O179" s="4">
+        <v>2</v>
+      </c>
+      <c r="P179" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q179" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R179" s="4">
+        <v>2</v>
+      </c>
+      <c r="S179" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="T179" s="4">
+        <v>0</v>
+      </c>
+      <c r="U179" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="V179" t="s">
         <v>172</v>
       </c>
-      <c r="L179" s="5"/>
-      <c r="N179" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O179" s="4">
-        <v>3</v>
-      </c>
-      <c r="P179" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q179" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R179" s="4">
-        <v>1</v>
-      </c>
-      <c r="S179" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="T179" s="4">
-        <v>0</v>
-      </c>
-      <c r="U179" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="V179" t="s">
-        <v>174</v>
-      </c>
       <c r="X179" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="180" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B180" s="3"/>
       <c r="L180" s="5"/>
-      <c r="N180" s="3"/>
+      <c r="N180" s="4"/>
       <c r="O180" s="4"/>
       <c r="P180" s="3"/>
       <c r="Q180" s="3"/>
@@ -7914,33 +7922,28 @@
         <v>0</v>
       </c>
       <c r="U180" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="X180" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="181" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B181" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="E181" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G181" t="s">
-        <v>184</v>
-      </c>
-      <c r="L181" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="N181" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C181" t="s">
+        <v>177</v>
+      </c>
+      <c r="E181" t="s">
+        <v>170</v>
+      </c>
+      <c r="L181" s="5"/>
+      <c r="N181" s="3" t="s">
         <v>64</v>
       </c>
       <c r="O181" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P181" s="3">
         <v>1</v>
@@ -7948,68 +7951,67 @@
       <c r="Q181" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="R181" s="14">
-        <v>0</v>
-      </c>
-      <c r="S181" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T181" s="3">
-        <v>0</v>
-      </c>
-      <c r="U181" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="W181" s="3"/>
-      <c r="X181" s="3" t="s">
-        <v>227</v>
+      <c r="R181" s="4">
+        <v>1</v>
+      </c>
+      <c r="S181" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="T181" s="4">
+        <v>0</v>
+      </c>
+      <c r="U181" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="V181" t="s">
+        <v>172</v>
+      </c>
+      <c r="X181" s="17" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="182" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B182" s="3"/>
-      <c r="C182" s="6"/>
-      <c r="E182" s="6"/>
       <c r="L182" s="5"/>
-      <c r="N182" s="4"/>
+      <c r="N182" s="3"/>
       <c r="O182" s="4"/>
       <c r="P182" s="3"/>
       <c r="Q182" s="3"/>
-      <c r="R182" s="14"/>
-      <c r="S182" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="T182" s="12">
-        <v>0</v>
-      </c>
-      <c r="U182" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="W182" s="3"/>
+      <c r="R182" s="4"/>
+      <c r="S182" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="T182" s="4">
+        <v>0</v>
+      </c>
+      <c r="U182" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="X182" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="183" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B183" s="3" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G183" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L183" s="5" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="N183" s="4" t="s">
         <v>64</v>
       </c>
       <c r="O183" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P183" s="3">
         <v>1</v>
@@ -8027,11 +8029,11 @@
         <v>0</v>
       </c>
       <c r="U183" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W183" s="3"/>
       <c r="X183" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="184" spans="2:24" x14ac:dyDescent="0.2">
@@ -8045,40 +8047,40 @@
       <c r="Q184" s="3"/>
       <c r="R184" s="14"/>
       <c r="S184" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="T184" s="12">
         <v>0</v>
       </c>
       <c r="U184" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W184" s="3"/>
       <c r="X184" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="185" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B185" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G185" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L185" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="N185" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="N185" s="4" t="s">
         <v>64</v>
       </c>
       <c r="O185" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P185" s="3">
         <v>1</v>
@@ -8096,11 +8098,11 @@
         <v>0</v>
       </c>
       <c r="U185" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W185" s="3"/>
       <c r="X185" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="186" spans="2:24" x14ac:dyDescent="0.2">
@@ -8114,37 +8116,40 @@
       <c r="Q186" s="3"/>
       <c r="R186" s="14"/>
       <c r="S186" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="T186" s="12">
         <v>0</v>
       </c>
       <c r="U186" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W186" s="3"/>
       <c r="X186" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="187" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B187" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="C187" t="s">
-        <v>188</v>
-      </c>
-      <c r="E187" s="11" t="s">
-        <v>309</v>
+        <v>374</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G187" t="s">
+        <v>182</v>
       </c>
       <c r="L187" s="5" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="N187" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O187" s="3">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="O187" s="4">
+        <v>3</v>
       </c>
       <c r="P187" s="3">
         <v>1</v>
@@ -8162,68 +8167,49 @@
         <v>0</v>
       </c>
       <c r="U187" s="3" t="s">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="W187" s="3"/>
       <c r="X187" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="188" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B188" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C188" t="s">
-        <v>189</v>
-      </c>
-      <c r="E188" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="L188" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="N188" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O188" s="3">
-        <v>1</v>
-      </c>
-      <c r="P188" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q188" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R188" s="14">
-        <v>0</v>
-      </c>
-      <c r="S188" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T188" s="3">
+      <c r="B188" s="3"/>
+      <c r="C188" s="6"/>
+      <c r="E188" s="6"/>
+      <c r="L188" s="5"/>
+      <c r="N188" s="4"/>
+      <c r="O188" s="4"/>
+      <c r="P188" s="3"/>
+      <c r="Q188" s="3"/>
+      <c r="R188" s="14"/>
+      <c r="S188" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="T188" s="12">
         <v>0</v>
       </c>
       <c r="U188" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="V188" s="3"/>
+        <v>183</v>
+      </c>
       <c r="W188" s="3"/>
       <c r="X188" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="189" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B189" s="3" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C189" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E189" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L189" s="5" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="N189" s="3" t="s">
         <v>75</v>
@@ -8249,24 +8235,23 @@
       <c r="U189" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="V189" s="3"/>
       <c r="W189" s="3"/>
       <c r="X189" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="190" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B190" s="3" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C190" t="s">
-        <v>191</v>
-      </c>
-      <c r="E190" t="s">
-        <v>89</v>
+        <v>187</v>
+      </c>
+      <c r="E190" s="11" t="s">
+        <v>307</v>
       </c>
       <c r="L190" s="5" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="N190" s="3" t="s">
         <v>75</v>
@@ -8278,32 +8263,54 @@
         <v>1</v>
       </c>
       <c r="Q190" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R190" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="S190" t="s">
-        <v>70</v>
+        <v>0</v>
+      </c>
+      <c r="S190" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="T190" s="3">
         <v>0</v>
       </c>
-      <c r="U190" t="s">
-        <v>192</v>
-      </c>
+      <c r="U190" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V190" s="3"/>
+      <c r="W190" s="3"/>
       <c r="X190" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="191" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B191" s="3"/>
-      <c r="E191" s="11"/>
-      <c r="N191" s="3"/>
-      <c r="O191" s="3"/>
-      <c r="P191" s="3"/>
-      <c r="Q191" s="3"/>
-      <c r="R191" s="14"/>
+      <c r="B191" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C191" t="s">
+        <v>188</v>
+      </c>
+      <c r="E191" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="L191" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="N191" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O191" s="3">
+        <v>1</v>
+      </c>
+      <c r="P191" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q191" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R191" s="14">
+        <v>0</v>
+      </c>
       <c r="S191" s="3" t="s">
         <v>72</v>
       </c>
@@ -8316,21 +8323,21 @@
       <c r="V191" s="3"/>
       <c r="W191" s="3"/>
       <c r="X191" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="192" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B192" s="3" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C192" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E192" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L192" s="5" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="N192" s="3" t="s">
         <v>75</v>
@@ -8354,10 +8361,10 @@
         <v>0</v>
       </c>
       <c r="U192" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="X192" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="193" spans="2:24" x14ac:dyDescent="0.2">
@@ -8380,21 +8387,21 @@
       <c r="V193" s="3"/>
       <c r="W193" s="3"/>
       <c r="X193" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="194" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B194" s="3" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C194" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E194" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L194" s="5" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="N194" s="3" t="s">
         <v>75</v>
@@ -8418,10 +8425,10 @@
         <v>0</v>
       </c>
       <c r="U194" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="X194" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="195" spans="2:24" x14ac:dyDescent="0.2">
@@ -8444,21 +8451,21 @@
       <c r="V195" s="3"/>
       <c r="W195" s="3"/>
       <c r="X195" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="196" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B196" s="3" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C196" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E196" t="s">
-        <v>198</v>
+        <v>88</v>
       </c>
       <c r="L196" s="5" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="N196" s="3" t="s">
         <v>75</v>
@@ -8482,10 +8489,10 @@
         <v>0</v>
       </c>
       <c r="U196" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="X196" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="197" spans="2:24" x14ac:dyDescent="0.2">
@@ -8508,21 +8515,21 @@
       <c r="V197" s="3"/>
       <c r="W197" s="3"/>
       <c r="X197" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="198" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B198" s="3" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C198" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E198" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L198" s="5" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="N198" s="3" t="s">
         <v>75</v>
@@ -8546,10 +8553,10 @@
         <v>0</v>
       </c>
       <c r="U198" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="X198" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="199" spans="2:24" x14ac:dyDescent="0.2">
@@ -8572,21 +8579,21 @@
       <c r="V199" s="3"/>
       <c r="W199" s="3"/>
       <c r="X199" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="200" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B200" s="3" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C200" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E200" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L200" s="5" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="N200" s="3" t="s">
         <v>75</v>
@@ -8610,10 +8617,10 @@
         <v>0</v>
       </c>
       <c r="U200" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="X200" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="201" spans="2:24" x14ac:dyDescent="0.2">
@@ -8636,86 +8643,58 @@
       <c r="V201" s="3"/>
       <c r="W201" s="3"/>
       <c r="X201" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="202" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B202" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C202" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E202" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G202" s="6" t="s">
-        <v>206</v>
+        <v>392</v>
+      </c>
+      <c r="C202" t="s">
+        <v>200</v>
+      </c>
+      <c r="E202" t="s">
+        <v>196</v>
       </c>
       <c r="L202" s="5" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="N202" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="O202" s="4">
+      <c r="O202" s="3">
         <v>1</v>
       </c>
       <c r="P202" s="3">
         <v>1</v>
       </c>
       <c r="Q202" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R202" s="14">
-        <v>0</v>
-      </c>
-      <c r="S202" s="3" t="s">
-        <v>72</v>
+        <v>0.5</v>
+      </c>
+      <c r="S202" t="s">
+        <v>70</v>
       </c>
       <c r="T202" s="3">
         <v>0</v>
       </c>
-      <c r="U202" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="V202" s="3"/>
-      <c r="W202" s="3"/>
+      <c r="U202" t="s">
+        <v>201</v>
+      </c>
       <c r="X202" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="203" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B203" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="C203" t="s">
-        <v>207</v>
-      </c>
-      <c r="E203" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G203" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="L203" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="N203" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O203" s="4">
-        <v>2</v>
-      </c>
-      <c r="P203" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q203" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R203" s="14">
-        <v>0</v>
-      </c>
+      <c r="B203" s="3"/>
+      <c r="E203" s="11"/>
+      <c r="N203" s="3"/>
+      <c r="O203" s="3"/>
+      <c r="P203" s="3"/>
+      <c r="Q203" s="3"/>
+      <c r="R203" s="14"/>
       <c r="S203" s="3" t="s">
         <v>72</v>
       </c>
@@ -8728,30 +8707,30 @@
       <c r="V203" s="3"/>
       <c r="W203" s="3"/>
       <c r="X203" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="204" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B204" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="C204" t="s">
-        <v>208</v>
+        <v>394</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>202</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L204" s="5" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="N204" s="3" t="s">
         <v>75</v>
       </c>
       <c r="O204" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P204" s="3">
         <v>1</v>
@@ -8774,7 +8753,99 @@
       <c r="V204" s="3"/>
       <c r="W204" s="3"/>
       <c r="X204" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="205" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B205" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C205" t="s">
+        <v>205</v>
+      </c>
+      <c r="E205" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G205" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="L205" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="N205" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O205" s="4">
+        <v>2</v>
+      </c>
+      <c r="P205" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q205" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R205" s="14">
+        <v>0</v>
+      </c>
+      <c r="S205" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T205" s="3">
+        <v>0</v>
+      </c>
+      <c r="U205" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V205" s="3"/>
+      <c r="W205" s="3"/>
+      <c r="X205" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="206" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B206" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C206" t="s">
+        <v>206</v>
+      </c>
+      <c r="E206" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G206" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="L206" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="N206" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O206" s="4">
+        <v>3</v>
+      </c>
+      <c r="P206" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q206" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R206" s="14">
+        <v>0</v>
+      </c>
+      <c r="S206" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T206" s="3">
+        <v>0</v>
+      </c>
+      <c r="U206" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V206" s="3"/>
+      <c r="W206" s="3"/>
+      <c r="X206" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -8798,77 +8869,77 @@
   <conditionalFormatting sqref="B81">
     <cfRule type="duplicateValues" dxfId="24" priority="32"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B83">
+    <cfRule type="duplicateValues" dxfId="23" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B85">
+    <cfRule type="duplicateValues" dxfId="22" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B87">
+    <cfRule type="duplicateValues" dxfId="21" priority="6"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B98">
-    <cfRule type="duplicateValues" dxfId="23" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="22" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="21" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="20" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102">
-    <cfRule type="duplicateValues" dxfId="19" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B103">
+    <cfRule type="duplicateValues" dxfId="15" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B121:B122 B104:B105">
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U71:U72">
-    <cfRule type="duplicateValues" dxfId="18" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U73">
-    <cfRule type="duplicateValues" dxfId="17" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U74">
-    <cfRule type="duplicateValues" dxfId="16" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U75">
-    <cfRule type="duplicateValues" dxfId="15" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U76">
-    <cfRule type="duplicateValues" dxfId="14" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U77">
-    <cfRule type="duplicateValues" dxfId="13" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U78">
-    <cfRule type="duplicateValues" dxfId="12" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U79">
-    <cfRule type="duplicateValues" dxfId="11" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U80">
-    <cfRule type="duplicateValues" dxfId="10" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U81">
-    <cfRule type="duplicateValues" dxfId="9" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U105 U82:U89">
-    <cfRule type="duplicateValues" dxfId="8" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B83">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B85">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B87">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  <conditionalFormatting sqref="U123 U82:U89">
+    <cfRule type="duplicateValues" dxfId="3" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X84">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X86">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X88">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B104">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B103">
-    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -8887,87 +8958,87 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/BuffConfig/BuffCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/BuffConfig/BuffCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\BuffConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\BuffConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2AF6CB-C3BC-4CDA-94D3-680FFEF5770D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512E9425-871A-4FB6-89EA-321F9B6DF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="515">
   <si>
     <t>##var</t>
   </si>
@@ -779,31 +779,6 @@
     <t>隐身：不可被其他人看见(不被主动搜索到)</t>
   </si>
   <si>
-    <t>SelectObjectConfig_OnAttackUnit</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Self</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_SelectLast</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_BeHurtUnit</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_CasterPlayerUnit</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_CasterUnit</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_UmbellateFriend_5_All</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Umbellate_5_All</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>AttackArea_Line2</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1282,9 +1257,6 @@
     <t>EffectCreate_BuffTowerWater3</t>
   </si>
   <si>
-    <t>Buff_TowerScorpio1</t>
-  </si>
-  <si>
     <t>EffectCreate_BuffTowerScorpio1</t>
   </si>
   <si>
@@ -1589,16 +1561,6 @@
     <t>Buff_Monster_Challenge5_5_4</t>
   </si>
   <si>
-    <t>SelectObjectConfig_Buff_AddCDDown1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Buff_AddCDDown2</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Buff_AddCDDown3</t>
-  </si>
-  <si>
     <t>Buff_Monster_Challenge_Niao1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1635,22 +1597,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>SelectObjectConfig_Self</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Monster_Niao1_SpeedUp</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Monster_Niao2_SpeedUp</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Monster_Niao3_SpeedUp</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Buff_SpeedUp</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1696,6 +1642,122 @@
   <si>
     <t>EffectCreate_Buff_Line3_Fire</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_TowerScorpio1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BuffTagGroup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TowerScorpio</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Buff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TowerBomb3</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹塔3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>EffectCreate_BuffTower</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bomb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Self</t>
+  </si>
+  <si>
+    <t>SelectObject_Monster_Niao1_SpeedUp</t>
+  </si>
+  <si>
+    <t>SelectObject_Monster_Niao2_SpeedUp</t>
+  </si>
+  <si>
+    <t>SelectObject_Monster_Niao3_SpeedUp</t>
+  </si>
+  <si>
+    <t>SelectObject_SelectLast</t>
+  </si>
+  <si>
+    <t>SelectObject_CasterUnit</t>
+  </si>
+  <si>
+    <t>SelectObject_OnAttackUnit</t>
+  </si>
+  <si>
+    <t>SelectObject_CasterPlayerUnit</t>
+  </si>
+  <si>
+    <t>SelectObject_BeHurtUnit</t>
+  </si>
+  <si>
+    <t>SelectObject_Buff_AddCDDown1</t>
+  </si>
+  <si>
+    <t>SelectObject_Buff_AddCDDown2</t>
+  </si>
+  <si>
+    <t>SelectObject_Buff_AddCDDown3</t>
+  </si>
+  <si>
+    <t>SelectObject_UmbellateFriend_5_All</t>
+  </si>
+  <si>
+    <t>SelectObject_Umbellate_5_All</t>
   </si>
 </sst>
 </file>
@@ -2473,34 +2535,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL206"/>
+  <dimension ref="A1:AL207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D178" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L112" sqref="L112"/>
+      <selection pane="bottomRight" activeCell="E188" sqref="E188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="16" width="4.375" customWidth="1"/>
-    <col min="17" max="17" width="5.75" customWidth="1"/>
-    <col min="18" max="18" width="10.125" customWidth="1"/>
-    <col min="19" max="19" width="13.625" customWidth="1"/>
-    <col min="20" max="20" width="3.625" customWidth="1"/>
-    <col min="21" max="21" width="40.375" customWidth="1"/>
-    <col min="22" max="23" width="4.375" customWidth="1"/>
-    <col min="24" max="24" width="30.375" customWidth="1"/>
+    <col min="7" max="16" width="4.33203125" customWidth="1"/>
+    <col min="17" max="17" width="5.77734375" customWidth="1"/>
+    <col min="18" max="18" width="10.109375" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" customWidth="1"/>
+    <col min="20" max="20" width="3.6640625" customWidth="1"/>
+    <col min="21" max="21" width="40.33203125" customWidth="1"/>
+    <col min="22" max="23" width="4.33203125" customWidth="1"/>
+    <col min="24" max="24" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2578,7 +2640,7 @@
       <c r="AK1"/>
       <c r="AL1"/>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -2632,7 +2694,7 @@
       <c r="AK2"/>
       <c r="AL2"/>
     </row>
-    <row r="3" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -2670,7 +2732,7 @@
       <c r="AK3"/>
       <c r="AL3"/>
     </row>
-    <row r="4" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>25</v>
       </c>
@@ -2748,7 +2810,7 @@
       <c r="AK4"/>
       <c r="AL4"/>
     </row>
-    <row r="5" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>38</v>
       </c>
@@ -2788,7 +2850,7 @@
       <c r="AK5"/>
       <c r="AL5"/>
     </row>
-    <row r="6" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>40</v>
       </c>
@@ -2872,12 +2934,12 @@
       <c r="AK6"/>
       <c r="AL6"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>64</v>
@@ -2901,13 +2963,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="N8" s="3"/>
       <c r="S8" t="s">
         <v>70</v>
@@ -2916,18 +2978,18 @@
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E9" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>64</v>
@@ -2951,13 +3013,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="N10" s="3"/>
       <c r="S10" t="s">
         <v>70</v>
@@ -2966,18 +3028,18 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E11" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>64</v>
@@ -3001,13 +3063,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="N12" s="3"/>
       <c r="S12" t="s">
         <v>70</v>
@@ -3016,18 +3078,18 @@
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E13" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>64</v>
@@ -3051,13 +3113,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="N14" s="3"/>
       <c r="S14" t="s">
         <v>70</v>
@@ -3066,18 +3128,18 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E15" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>64</v>
@@ -3101,13 +3163,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="N16" s="3"/>
       <c r="S16" t="s">
         <v>70</v>
@@ -3116,18 +3178,18 @@
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E17" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>64</v>
@@ -3151,18 +3213,18 @@
         <v>0</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E18" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>64</v>
@@ -3186,18 +3248,18 @@
         <v>0</v>
       </c>
       <c r="U18" s="6" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E19" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>64</v>
@@ -3221,18 +3283,18 @@
         <v>0</v>
       </c>
       <c r="U19" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E20" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>64</v>
@@ -3256,13 +3318,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N21" s="3"/>
       <c r="S21" t="s">
         <v>70</v>
@@ -3271,18 +3333,18 @@
         <v>0</v>
       </c>
       <c r="U21" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E22" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>64</v>
@@ -3306,18 +3368,18 @@
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E23" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>64</v>
@@ -3341,13 +3403,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N24" s="3"/>
       <c r="S24" t="s">
         <v>70</v>
@@ -3356,18 +3418,18 @@
         <v>0</v>
       </c>
       <c r="U24" t="s">
+        <v>290</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>248</v>
+      </c>
+      <c r="E25" t="s">
         <v>298</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>256</v>
-      </c>
-      <c r="E25" t="s">
-        <v>306</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>64</v>
@@ -3391,13 +3453,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N26" s="3"/>
       <c r="S26" t="s">
         <v>70</v>
@@ -3406,18 +3468,18 @@
         <v>0</v>
       </c>
       <c r="U26" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E27" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>64</v>
@@ -3441,13 +3503,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N28" s="3"/>
       <c r="S28" t="s">
         <v>70</v>
@@ -3456,18 +3518,18 @@
         <v>0</v>
       </c>
       <c r="U28" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E29" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>64</v>
@@ -3491,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N30" s="3"/>
       <c r="S30" t="s">
         <v>70</v>
@@ -3506,18 +3568,18 @@
         <v>0</v>
       </c>
       <c r="U30" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E31" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="N31" s="3" t="s">
         <v>64</v>
@@ -3541,13 +3603,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N32" s="3"/>
       <c r="S32" t="s">
         <v>70</v>
@@ -3556,18 +3618,18 @@
         <v>0</v>
       </c>
       <c r="U32" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E33" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>64</v>
@@ -3591,18 +3653,18 @@
         <v>0</v>
       </c>
       <c r="U33" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E34" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="N34" s="3" t="s">
         <v>64</v>
@@ -3626,13 +3688,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="N35" s="3"/>
       <c r="S35" t="s">
         <v>70</v>
@@ -3641,18 +3703,18 @@
         <v>0</v>
       </c>
       <c r="U35" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E36" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="N36" s="3" t="s">
         <v>64</v>
@@ -3676,13 +3738,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="X36" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="N37" s="3"/>
       <c r="S37" t="s">
         <v>70</v>
@@ -3691,24 +3753,24 @@
         <v>0</v>
       </c>
       <c r="U37" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="X37" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="F38" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="L38" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>64</v>
@@ -3727,142 +3789,142 @@
       </c>
       <c r="X38" s="3"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" t="s">
+        <v>283</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F39" t="s">
+        <v>236</v>
+      </c>
+      <c r="L39" t="s">
+        <v>264</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="b">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>284</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F40" t="s">
+        <v>236</v>
+      </c>
+      <c r="L40" t="s">
+        <v>265</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="b">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>285</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F41" t="s">
+        <v>236</v>
+      </c>
+      <c r="L41" t="s">
+        <v>268</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="b">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>286</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F42" t="s">
+        <v>236</v>
+      </c>
+      <c r="L42" t="s">
+        <v>274</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="b">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="F39" t="s">
-        <v>244</v>
-      </c>
-      <c r="L39" t="s">
-        <v>272</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O39">
-        <v>1</v>
-      </c>
-      <c r="P39">
-        <v>1</v>
-      </c>
-      <c r="Q39" t="b">
-        <v>1</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>292</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="F40" t="s">
-        <v>244</v>
-      </c>
-      <c r="L40" t="s">
-        <v>273</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O40">
-        <v>1</v>
-      </c>
-      <c r="P40">
-        <v>1</v>
-      </c>
-      <c r="Q40" t="b">
-        <v>1</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>293</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="F41" t="s">
-        <v>244</v>
-      </c>
-      <c r="L41" t="s">
-        <v>276</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O41">
-        <v>1</v>
-      </c>
-      <c r="P41">
-        <v>1</v>
-      </c>
-      <c r="Q41" t="b">
-        <v>1</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="X41" s="3"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>294</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="F42" t="s">
-        <v>244</v>
-      </c>
-      <c r="L42" t="s">
-        <v>282</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O42">
-        <v>1</v>
-      </c>
-      <c r="P42">
-        <v>1</v>
-      </c>
-      <c r="Q42" t="b">
-        <v>1</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="X42" s="3"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B43" s="6" t="s">
-        <v>299</v>
-      </c>
       <c r="E43" s="6" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F43" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="O43">
         <v>1</v>
@@ -3886,24 +3948,24 @@
         <v>84</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F44" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="O44">
         <v>1</v>
@@ -3927,24 +3989,24 @@
         <v>84</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F45" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="O45">
         <v>1</v>
@@ -3968,24 +4030,24 @@
         <v>84</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F46" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="O46">
         <v>1</v>
@@ -4009,24 +4071,24 @@
         <v>84</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F47" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="O47">
         <v>1</v>
@@ -4050,15 +4112,15 @@
         <v>84</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="E49" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>64</v>
@@ -4082,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="U49" s="18" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="X49" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N50" s="3"/>
       <c r="S50" t="s">
         <v>70</v>
@@ -4097,18 +4159,18 @@
         <v>0</v>
       </c>
       <c r="U50" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="X50" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B51" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="E51" t="s">
         <v>416</v>
-      </c>
-      <c r="X50" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B51" s="18" t="s">
-        <v>401</v>
-      </c>
-      <c r="E51" t="s">
-        <v>425</v>
       </c>
       <c r="N51" s="3" t="s">
         <v>64</v>
@@ -4132,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="U51" s="18" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N52" s="3"/>
       <c r="S52" t="s">
         <v>70</v>
@@ -4147,18 +4209,18 @@
         <v>0</v>
       </c>
       <c r="U52" s="18" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B53" s="18" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="E53" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="N53" s="3" t="s">
         <v>64</v>
@@ -4182,13 +4244,13 @@
         <v>0</v>
       </c>
       <c r="U53" s="18" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="X53" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N54" s="3"/>
       <c r="S54" t="s">
         <v>70</v>
@@ -4197,18 +4259,18 @@
         <v>0</v>
       </c>
       <c r="U54" s="18" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="X54" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" s="18" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E55" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="N55" s="3" t="s">
         <v>64</v>
@@ -4232,13 +4294,13 @@
         <v>0</v>
       </c>
       <c r="U55" s="18" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="X55" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N56" s="3"/>
       <c r="S56" t="s">
         <v>70</v>
@@ -4247,18 +4309,18 @@
         <v>0</v>
       </c>
       <c r="U56" s="18" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="X56" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B57" s="18" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E57" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>64</v>
@@ -4282,13 +4344,13 @@
         <v>0</v>
       </c>
       <c r="U57" s="18" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="X57" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N58" s="3"/>
       <c r="S58" t="s">
         <v>70</v>
@@ -4297,18 +4359,18 @@
         <v>0</v>
       </c>
       <c r="U58" s="18" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="X58" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B59" s="18" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E59" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>64</v>
@@ -4332,13 +4394,13 @@
         <v>0</v>
       </c>
       <c r="U59" s="18" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="X59" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N60" s="3"/>
       <c r="S60" t="s">
         <v>70</v>
@@ -4347,18 +4409,18 @@
         <v>0</v>
       </c>
       <c r="U60" s="18" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="X60" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B61" s="18" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E61" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="N61" s="3" t="s">
         <v>64</v>
@@ -4382,13 +4444,13 @@
         <v>0</v>
       </c>
       <c r="U61" s="18" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="X61" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N62" s="3"/>
       <c r="S62" t="s">
         <v>70</v>
@@ -4397,18 +4459,18 @@
         <v>0</v>
       </c>
       <c r="U62" s="18" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="X62" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B63" s="18" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="N63" s="3" t="s">
         <v>64</v>
@@ -4432,18 +4494,18 @@
         <v>0</v>
       </c>
       <c r="U63" s="18" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="X63" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B64" s="18" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="N64" s="3" t="s">
         <v>64</v>
@@ -4467,18 +4529,18 @@
         <v>0</v>
       </c>
       <c r="U64" s="18" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="X64" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B65" s="18" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="N65" s="3" t="s">
         <v>64</v>
@@ -4502,18 +4564,18 @@
         <v>0</v>
       </c>
       <c r="U65" s="18" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="X65" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B66" s="18" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>64</v>
@@ -4537,18 +4599,18 @@
         <v>0</v>
       </c>
       <c r="U66" s="18" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="X66" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B67" s="18" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="N67" s="3" t="s">
         <v>64</v>
@@ -4572,18 +4634,18 @@
         <v>0</v>
       </c>
       <c r="U67" s="18" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="X67" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B68" s="18" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="N68" s="3" t="s">
         <v>64</v>
@@ -4607,18 +4669,18 @@
         <v>0</v>
       </c>
       <c r="U68" s="18" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="X68" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B69" s="18" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="N69" s="3" t="s">
         <v>64</v>
@@ -4642,18 +4704,18 @@
         <v>0</v>
       </c>
       <c r="U69" s="18" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="X69" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B70" s="18" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="N70" s="3" t="s">
         <v>64</v>
@@ -4677,18 +4739,18 @@
         <v>0</v>
       </c>
       <c r="U70" s="18" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="X70" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B71" s="18" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="N71" s="3" t="s">
         <v>64</v>
@@ -4712,13 +4774,13 @@
         <v>0</v>
       </c>
       <c r="U71" s="18" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="X71" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B72" s="18"/>
       <c r="E72" s="19"/>
       <c r="N72" s="3"/>
@@ -4729,18 +4791,18 @@
         <v>0</v>
       </c>
       <c r="U72" s="18" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="X72" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B73" s="18" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="N73" s="3" t="s">
         <v>64</v>
@@ -4764,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="U73" s="18" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="X73" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B74" s="18"/>
       <c r="E74" s="19"/>
       <c r="N74" s="3"/>
@@ -4781,18 +4843,18 @@
         <v>0</v>
       </c>
       <c r="U74" s="18" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="X74" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B75" s="18" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="N75" s="3" t="s">
         <v>64</v>
@@ -4816,13 +4878,13 @@
         <v>0</v>
       </c>
       <c r="U75" s="18" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="X75" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B76" s="18"/>
       <c r="E76" s="19"/>
       <c r="N76" s="3"/>
@@ -4833,18 +4895,18 @@
         <v>0</v>
       </c>
       <c r="U76" s="18" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="X76" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B77" s="18" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="N77" s="3" t="s">
         <v>64</v>
@@ -4868,13 +4930,13 @@
         <v>0</v>
       </c>
       <c r="U77" s="18" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="X77" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B78" s="18"/>
       <c r="E78" s="19"/>
       <c r="N78" s="3"/>
@@ -4885,18 +4947,18 @@
         <v>0</v>
       </c>
       <c r="U78" s="18" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="X78" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B79" s="18" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="N79" s="3" t="s">
         <v>64</v>
@@ -4920,13 +4982,13 @@
         <v>0</v>
       </c>
       <c r="U79" s="18" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="X79" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="80" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B80" s="18"/>
       <c r="E80" s="19"/>
       <c r="N80" s="3"/>
@@ -4937,18 +4999,18 @@
         <v>0</v>
       </c>
       <c r="U80" s="18" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="X80" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="81" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="81" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B81" s="18" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>64</v>
@@ -4972,13 +5034,13 @@
         <v>0</v>
       </c>
       <c r="U81" s="18" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="X81" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="82" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="82" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N82" s="3"/>
       <c r="S82" t="s">
         <v>70</v>
@@ -4987,18 +5049,18 @@
         <v>0</v>
       </c>
       <c r="U82" s="18" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="X82" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="83" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="83" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B83" s="18" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>64</v>
@@ -5022,13 +5084,13 @@
         <v>0</v>
       </c>
       <c r="U83" s="18" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="X83" s="3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="84" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="84" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N84" s="3"/>
       <c r="S84" t="s">
         <v>70</v>
@@ -5037,18 +5099,18 @@
         <v>0</v>
       </c>
       <c r="U84" s="18" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="X84" s="18" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="85" spans="2:24" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="85" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B85" s="18" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="N85" s="3" t="s">
         <v>64</v>
@@ -5072,13 +5134,13 @@
         <v>0</v>
       </c>
       <c r="U85" s="20" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="X85" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="86" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="86" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N86" s="3"/>
       <c r="S86" t="s">
         <v>70</v>
@@ -5087,18 +5149,18 @@
         <v>0</v>
       </c>
       <c r="U86" s="18" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="X86" s="18" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="87" spans="2:24" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="87" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B87" s="18" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="N87" s="3" t="s">
         <v>64</v>
@@ -5122,13 +5184,13 @@
         <v>0</v>
       </c>
       <c r="U87" s="18" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="X87" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="88" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="88" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N88" s="3"/>
       <c r="S88" t="s">
         <v>70</v>
@@ -5137,272 +5199,272 @@
         <v>0</v>
       </c>
       <c r="U88" s="18" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="X88" s="18" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="89" spans="2:24" x14ac:dyDescent="0.2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="89" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N89" s="3"/>
       <c r="U89" s="18"/>
       <c r="X89" s="3"/>
     </row>
-    <row r="90" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B90" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="F90" t="s">
+        <v>236</v>
+      </c>
+      <c r="L90" s="18" t="s">
         <v>445</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="N90" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90">
+        <v>1</v>
+      </c>
+      <c r="Q90" t="b">
+        <v>1</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B91" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="F91" t="s">
+        <v>236</v>
+      </c>
+      <c r="L91" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="P91">
+        <v>1</v>
+      </c>
+      <c r="Q91" t="b">
+        <v>1</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3"/>
+    </row>
+    <row r="92" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B92" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="F92" t="s">
+        <v>236</v>
+      </c>
+      <c r="L92" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="N92" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+      <c r="P92">
+        <v>1</v>
+      </c>
+      <c r="Q92" t="b">
+        <v>1</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3"/>
+    </row>
+    <row r="93" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B93" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="F93" t="s">
+        <v>236</v>
+      </c>
+      <c r="L93" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="N93" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O93">
+        <v>1</v>
+      </c>
+      <c r="P93">
+        <v>1</v>
+      </c>
+      <c r="Q93" t="b">
+        <v>1</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3"/>
+    </row>
+    <row r="94" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B94" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="F94" t="s">
+        <v>236</v>
+      </c>
+      <c r="L94" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O94">
+        <v>1</v>
+      </c>
+      <c r="P94">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="b">
+        <v>1</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3"/>
+    </row>
+    <row r="95" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B95" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="F95" t="s">
+        <v>236</v>
+      </c>
+      <c r="L95" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="N95" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O95">
+        <v>1</v>
+      </c>
+      <c r="P95">
+        <v>1</v>
+      </c>
+      <c r="Q95" t="b">
+        <v>1</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B96" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="F96" t="s">
+        <v>236</v>
+      </c>
+      <c r="L96" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="N96" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O96">
+        <v>1</v>
+      </c>
+      <c r="P96">
+        <v>1</v>
+      </c>
+      <c r="Q96" t="b">
+        <v>1</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3"/>
+    </row>
+    <row r="97" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B97" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="F97" t="s">
+        <v>236</v>
+      </c>
+      <c r="L97" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="N97" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O97">
+        <v>1</v>
+      </c>
+      <c r="P97">
+        <v>1</v>
+      </c>
+      <c r="Q97" t="b">
+        <v>1</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3"/>
+    </row>
+    <row r="98" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B98" s="18" t="s">
         <v>453</v>
       </c>
-      <c r="F90" t="s">
-        <v>244</v>
-      </c>
-      <c r="L90" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="N90" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O90">
-        <v>1</v>
-      </c>
-      <c r="P90">
-        <v>1</v>
-      </c>
-      <c r="Q90" t="b">
-        <v>1</v>
-      </c>
-      <c r="R90">
-        <v>0</v>
-      </c>
-      <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B91" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="F91" t="s">
-        <v>244</v>
-      </c>
-      <c r="L91" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O91">
-        <v>1</v>
-      </c>
-      <c r="P91">
-        <v>1</v>
-      </c>
-      <c r="Q91" t="b">
-        <v>1</v>
-      </c>
-      <c r="R91">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3"/>
-    </row>
-    <row r="92" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B92" s="18" t="s">
-        <v>447</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="F92" t="s">
-        <v>244</v>
-      </c>
-      <c r="L92" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="N92" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O92">
-        <v>1</v>
-      </c>
-      <c r="P92">
-        <v>1</v>
-      </c>
-      <c r="Q92" t="b">
-        <v>1</v>
-      </c>
-      <c r="R92">
-        <v>0</v>
-      </c>
-      <c r="X92" s="3"/>
-    </row>
-    <row r="93" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B93" s="18" t="s">
-        <v>448</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="F93" t="s">
-        <v>244</v>
-      </c>
-      <c r="L93" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="N93" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O93">
-        <v>1</v>
-      </c>
-      <c r="P93">
-        <v>1</v>
-      </c>
-      <c r="Q93" t="b">
-        <v>1</v>
-      </c>
-      <c r="R93">
-        <v>0</v>
-      </c>
-      <c r="X93" s="3"/>
-    </row>
-    <row r="94" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B94" s="18" t="s">
-        <v>449</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="F94" t="s">
-        <v>244</v>
-      </c>
-      <c r="L94" s="18" t="s">
-        <v>458</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O94">
-        <v>1</v>
-      </c>
-      <c r="P94">
-        <v>1</v>
-      </c>
-      <c r="Q94" t="b">
-        <v>1</v>
-      </c>
-      <c r="R94">
-        <v>0</v>
-      </c>
-      <c r="X94" s="3"/>
-    </row>
-    <row r="95" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B95" s="18" t="s">
-        <v>450</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="F95" t="s">
-        <v>244</v>
-      </c>
-      <c r="L95" s="18" t="s">
+      <c r="E98" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="N95" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O95">
-        <v>1</v>
-      </c>
-      <c r="P95">
-        <v>1</v>
-      </c>
-      <c r="Q95" t="b">
-        <v>1</v>
-      </c>
-      <c r="R95">
-        <v>0</v>
-      </c>
-      <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B96" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="F96" t="s">
-        <v>244</v>
-      </c>
-      <c r="L96" s="18" t="s">
-        <v>460</v>
-      </c>
-      <c r="N96" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O96">
-        <v>1</v>
-      </c>
-      <c r="P96">
-        <v>1</v>
-      </c>
-      <c r="Q96" t="b">
-        <v>1</v>
-      </c>
-      <c r="R96">
-        <v>0</v>
-      </c>
-      <c r="X96" s="3"/>
-    </row>
-    <row r="97" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B97" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="F97" t="s">
-        <v>244</v>
-      </c>
-      <c r="L97" s="18" t="s">
-        <v>461</v>
-      </c>
-      <c r="N97" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O97">
-        <v>1</v>
-      </c>
-      <c r="P97">
-        <v>1</v>
-      </c>
-      <c r="Q97" t="b">
-        <v>1</v>
-      </c>
-      <c r="R97">
-        <v>0</v>
-      </c>
-      <c r="X97" s="3"/>
-    </row>
-    <row r="98" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B98" s="18" t="s">
-        <v>462</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>468</v>
-      </c>
       <c r="F98" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="N98" s="3" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="O98">
         <v>1</v>
@@ -5426,24 +5488,24 @@
         <v>84</v>
       </c>
       <c r="X98" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="99" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="99" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B99" s="18" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="F99" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="L99" s="6" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="N99" s="3" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="O99">
         <v>1</v>
@@ -5467,24 +5529,24 @@
         <v>84</v>
       </c>
       <c r="X99" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="100" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="100" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B100" s="18" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="F100" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="N100" s="3" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="O100">
         <v>1</v>
@@ -5508,24 +5570,24 @@
         <v>84</v>
       </c>
       <c r="X100" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="101" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="101" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B101" s="18" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="F101" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="L101" s="6" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="N101" s="3" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="O101">
         <v>1</v>
@@ -5549,24 +5611,24 @@
         <v>84</v>
       </c>
       <c r="X101" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="102" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="102" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B102" s="18" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="F102" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="N102" s="3" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="O102">
         <v>1</v>
@@ -5590,24 +5652,24 @@
         <v>84</v>
       </c>
       <c r="X102" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="103" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="103" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B103" s="18" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="F103" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="L103" s="6" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="N103" s="3" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="O103">
         <v>1</v>
@@ -5631,19 +5693,19 @@
         <v>84</v>
       </c>
       <c r="X103" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="104" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="104" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B104" s="18" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="L104" s="6"/>
       <c r="N104" s="3" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="O104">
         <v>1</v>
@@ -5667,19 +5729,19 @@
         <v>84</v>
       </c>
       <c r="X104" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="105" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="105" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B105" s="18"/>
       <c r="E105" s="6"/>
       <c r="L105" s="6"/>
       <c r="N105" s="3"/>
       <c r="X105" s="3"/>
     </row>
-    <row r="106" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="3" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>80</v>
@@ -5715,10 +5777,10 @@
         <v>84</v>
       </c>
       <c r="X106" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="107" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="107" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="R107" s="14"/>
       <c r="S107" s="3" t="s">
         <v>70</v>
@@ -5730,12 +5792,12 @@
         <v>85</v>
       </c>
       <c r="X107" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="108" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="108" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B108" s="3" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>80</v>
@@ -5771,10 +5833,10 @@
         <v>84</v>
       </c>
       <c r="X108" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="109" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="109" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="R109" s="14"/>
       <c r="S109" s="3" t="s">
         <v>70</v>
@@ -5783,15 +5845,15 @@
         <v>0</v>
       </c>
       <c r="U109" s="3" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="X109" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="110" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="110" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B110" s="3" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>80</v>
@@ -5827,10 +5889,10 @@
         <v>84</v>
       </c>
       <c r="X110" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="111" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="111" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="R111" s="14"/>
       <c r="S111" s="3" t="s">
         <v>70</v>
@@ -5839,18 +5901,18 @@
         <v>0</v>
       </c>
       <c r="U111" s="3" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="X111" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="112" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="112" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B112" s="3" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="E112"/>
       <c r="F112"/>
@@ -5860,7 +5922,7 @@
       <c r="J112"/>
       <c r="K112"/>
       <c r="L112" s="6" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="M112"/>
       <c r="N112" s="3" t="s">
@@ -5885,15 +5947,15 @@
         <v>0</v>
       </c>
       <c r="U112" s="6" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="V112"/>
       <c r="W112"/>
       <c r="X112" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="113" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="113" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E113" s="11"/>
       <c r="F113"/>
       <c r="G113"/>
@@ -5914,12 +5976,12 @@
         <v>84</v>
       </c>
       <c r="X113" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="114" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="114" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>89</v>
@@ -5955,10 +6017,10 @@
         <v>84</v>
       </c>
       <c r="X114" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="115" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="115" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="S115" s="3" t="s">
         <v>70</v>
       </c>
@@ -5969,12 +6031,12 @@
         <v>92</v>
       </c>
       <c r="X115" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="116" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="116" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B116" s="3" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>93</v>
@@ -6010,10 +6072,10 @@
         <v>84</v>
       </c>
       <c r="X116" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="117" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="117" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="S117" s="3" t="s">
         <v>70</v>
       </c>
@@ -6021,15 +6083,15 @@
         <v>0</v>
       </c>
       <c r="U117" s="3" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="X117" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="118" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="118" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B118" s="3" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>94</v>
@@ -6065,10 +6127,10 @@
         <v>84</v>
       </c>
       <c r="X118" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="119" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="119" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="S119" s="3" t="s">
         <v>70</v>
       </c>
@@ -6076,21 +6138,21 @@
         <v>0</v>
       </c>
       <c r="U119" s="3" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="X119" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="120" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="120" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X120" s="14"/>
     </row>
-    <row r="121" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B121" s="18" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="L121" s="6"/>
       <c r="N121" s="3" t="s">
@@ -6110,12 +6172,12 @@
       </c>
       <c r="X121" s="3"/>
     </row>
-    <row r="122" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B122" s="18" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="L122" s="6"/>
       <c r="N122" s="3" t="s">
@@ -6135,14 +6197,14 @@
       </c>
       <c r="X122" s="3"/>
     </row>
-    <row r="123" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N123" s="3"/>
       <c r="U123" s="18"/>
       <c r="X123" s="3"/>
     </row>
-    <row r="124" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B124" s="3" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="s">
@@ -6182,10 +6244,10 @@
         <v>71</v>
       </c>
       <c r="X124" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="125" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="125" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="R125" s="14"/>
@@ -6199,10 +6261,10 @@
         <v>73</v>
       </c>
       <c r="X125" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="126" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="126" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="R126" s="14"/>
@@ -6216,12 +6278,12 @@
         <v>74</v>
       </c>
       <c r="X126" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="127" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="127" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="3" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
@@ -6253,10 +6315,10 @@
         <v>77</v>
       </c>
       <c r="X127" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="128" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="128" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="R128" s="14"/>
@@ -6270,12 +6332,12 @@
         <v>77</v>
       </c>
       <c r="X128" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="129" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="129" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B129" s="3" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -6304,15 +6366,15 @@
         <v>77</v>
       </c>
       <c r="X129" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="130" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="130" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="R130" s="14"/>
     </row>
-    <row r="131" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B131" s="3" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>97</v>
@@ -6342,15 +6404,15 @@
         <v>99</v>
       </c>
       <c r="X131" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="132" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="132" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="R132" s="14"/>
     </row>
-    <row r="133" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B133" s="3" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>100</v>
@@ -6380,13 +6442,13 @@
         <v>101</v>
       </c>
       <c r="X133" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="134" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="135" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="134" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B135" s="3" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>102</v>
@@ -6416,12 +6478,12 @@
         <v>103</v>
       </c>
       <c r="X135" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="136" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="136" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B136" s="3" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>104</v>
@@ -6442,9 +6504,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B137" s="3" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>105</v>
@@ -6477,12 +6539,12 @@
         <v>84</v>
       </c>
       <c r="X137" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="138" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="138" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B138" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>106</v>
@@ -6521,12 +6583,12 @@
         <v>84</v>
       </c>
       <c r="X138" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="139" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="139" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B139" s="3" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>110</v>
@@ -6565,12 +6627,12 @@
         <v>84</v>
       </c>
       <c r="X139" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="140" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="140" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B140" s="3" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>112</v>
@@ -6609,12 +6671,12 @@
         <v>84</v>
       </c>
       <c r="X140" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="141" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="141" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B141" s="3" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>114</v>
@@ -6647,10 +6709,10 @@
         <v>84</v>
       </c>
       <c r="X141" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="142" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="142" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="S142" s="3" t="s">
         <v>115</v>
       </c>
@@ -6661,12 +6723,12 @@
         <v>116</v>
       </c>
       <c r="X142" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="143" spans="2:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="143" spans="2:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B143" s="3" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>117</v>
@@ -6696,12 +6758,12 @@
         <v>119</v>
       </c>
       <c r="X143" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="144" spans="2:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="144" spans="2:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B144" s="3" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>120</v>
@@ -6731,12 +6793,12 @@
         <v>121</v>
       </c>
       <c r="X144" s="3" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="145" spans="2:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="145" spans="2:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B145" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>122</v>
@@ -6766,12 +6828,12 @@
         <v>123</v>
       </c>
       <c r="X145" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="146" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="146" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B146" s="5" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>124</v>
@@ -6804,10 +6866,10 @@
         <v>126</v>
       </c>
       <c r="X146" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="147" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="147" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="R147" s="15"/>
       <c r="S147" s="5" t="s">
         <v>70</v>
@@ -6819,12 +6881,12 @@
         <v>127</v>
       </c>
       <c r="X147" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="148" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="148" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B148" s="5" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>124</v>
@@ -6857,10 +6919,10 @@
         <v>128</v>
       </c>
       <c r="X148" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="149" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="149" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="R149" s="15"/>
       <c r="S149" s="5" t="s">
         <v>70</v>
@@ -6872,12 +6934,12 @@
         <v>129</v>
       </c>
       <c r="X149" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="150" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="150" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B150" s="5" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>124</v>
@@ -6910,10 +6972,10 @@
         <v>130</v>
       </c>
       <c r="X150" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="151" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="151" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="R151" s="15"/>
       <c r="S151" s="5" t="s">
         <v>70</v>
@@ -6925,21 +6987,21 @@
         <v>131</v>
       </c>
       <c r="X151" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="152" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="152" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="R152" s="15"/>
     </row>
-    <row r="153" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B153" s="5" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="N153" s="5" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="O153" s="5">
         <v>1</v>
@@ -6960,27 +7022,27 @@
         <v>0</v>
       </c>
       <c r="U153" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="X153" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="154" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="154" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B154" s="5" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="L154" s="3" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="N154" s="5" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="O154" s="5">
         <v>1</v>
@@ -6995,12 +7057,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="R155" s="15"/>
     </row>
-    <row r="156" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B156" s="3" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C156" t="s">
         <v>132</v>
@@ -7034,15 +7096,15 @@
       <c r="V156" s="6"/>
       <c r="W156" s="6"/>
       <c r="X156" s="12" t="s">
-        <v>230</v>
+        <v>513</v>
       </c>
       <c r="Y156" s="6"/>
       <c r="Z156" s="6"/>
       <c r="AA156" s="6"/>
     </row>
-    <row r="157" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B157" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C157" t="s">
         <v>135</v>
@@ -7076,15 +7138,15 @@
       <c r="V157" s="6"/>
       <c r="W157" s="6"/>
       <c r="X157" s="12" t="s">
-        <v>230</v>
+        <v>513</v>
       </c>
       <c r="Y157" s="6"/>
       <c r="Z157" s="6"/>
       <c r="AA157" s="6"/>
     </row>
-    <row r="158" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B158" s="3" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C158" t="s">
         <v>137</v>
@@ -7118,15 +7180,15 @@
       <c r="V158" s="6"/>
       <c r="W158" s="6"/>
       <c r="X158" s="12" t="s">
-        <v>230</v>
+        <v>513</v>
       </c>
       <c r="Y158" s="6"/>
       <c r="Z158" s="6"/>
       <c r="AA158" s="6"/>
     </row>
-    <row r="159" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B159" s="3" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>139</v>
@@ -7138,7 +7200,7 @@
         <v>141</v>
       </c>
       <c r="L159" s="5" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="N159" s="4" t="s">
         <v>64</v>
@@ -7167,15 +7229,15 @@
       <c r="V159" s="3"/>
       <c r="W159" s="3"/>
       <c r="X159" s="3" t="s">
-        <v>225</v>
+        <v>501</v>
       </c>
       <c r="Y159" s="6"/>
       <c r="Z159" s="6"/>
       <c r="AA159" s="6"/>
     </row>
-    <row r="160" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B160" s="3" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>142</v>
@@ -7187,7 +7249,7 @@
         <v>141</v>
       </c>
       <c r="L160" s="5" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="N160" s="4" t="s">
         <v>64</v>
@@ -7216,15 +7278,15 @@
       <c r="V160" s="3"/>
       <c r="W160" s="3"/>
       <c r="X160" s="3" t="s">
-        <v>225</v>
+        <v>501</v>
       </c>
       <c r="Y160" s="6"/>
       <c r="Z160" s="6"/>
       <c r="AA160" s="6"/>
     </row>
-    <row r="161" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B161" s="3" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>143</v>
@@ -7236,7 +7298,7 @@
         <v>141</v>
       </c>
       <c r="L161" s="5" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="N161" s="3" t="s">
         <v>64</v>
@@ -7265,15 +7327,15 @@
       <c r="V161" s="3"/>
       <c r="W161" s="3"/>
       <c r="X161" s="3" t="s">
-        <v>225</v>
+        <v>501</v>
       </c>
       <c r="Y161" s="6"/>
       <c r="Z161" s="6"/>
       <c r="AA161" s="6"/>
     </row>
-    <row r="162" spans="2:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B162" s="6" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>144</v>
@@ -7304,10 +7366,10 @@
         <v>147</v>
       </c>
       <c r="X162" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="163" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="163" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="S163" s="12" t="s">
         <v>70</v>
       </c>
@@ -7320,12 +7382,12 @@
       <c r="V163" s="6"/>
       <c r="W163" s="6"/>
       <c r="X163" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="164" spans="2:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="164" spans="2:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B164" s="6" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>148</v>
@@ -7356,10 +7418,10 @@
         <v>149</v>
       </c>
       <c r="X164" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="165" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="165" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="S165" s="12" t="s">
         <v>70</v>
       </c>
@@ -7372,12 +7434,12 @@
       <c r="V165" s="6"/>
       <c r="W165" s="6"/>
       <c r="X165" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="166" spans="2:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="166" spans="2:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B166" s="6" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>150</v>
@@ -7408,10 +7470,10 @@
         <v>151</v>
       </c>
       <c r="X166" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="167" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="167" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="S167" s="12" t="s">
         <v>70</v>
       </c>
@@ -7424,12 +7486,12 @@
       <c r="V167" s="6"/>
       <c r="W167" s="6"/>
       <c r="X167" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="168" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="168" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B168" s="3" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>152</v>
@@ -7441,7 +7503,7 @@
         <v>154</v>
       </c>
       <c r="L168" s="5" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="N168" s="3" t="s">
         <v>64</v>
@@ -7468,12 +7530,12 @@
         <v>84</v>
       </c>
       <c r="X168" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="169" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="169" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B169" s="3" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>155</v>
@@ -7485,7 +7547,7 @@
         <v>154</v>
       </c>
       <c r="L169" s="5" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="N169" s="3" t="s">
         <v>64</v>
@@ -7512,12 +7574,12 @@
         <v>84</v>
       </c>
       <c r="X169" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="170" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="170" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B170" s="3" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>156</v>
@@ -7529,7 +7591,7 @@
         <v>154</v>
       </c>
       <c r="L170" s="5" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="N170" s="3" t="s">
         <v>64</v>
@@ -7556,12 +7618,12 @@
         <v>84</v>
       </c>
       <c r="X170" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="171" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="171" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B171" s="3" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>157</v>
@@ -7591,12 +7653,12 @@
         <v>159</v>
       </c>
       <c r="X171" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="172" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="172" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B172" s="3" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>160</v>
@@ -7626,12 +7688,12 @@
         <v>161</v>
       </c>
       <c r="X172" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="173" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="173" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B173" s="3" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>162</v>
@@ -7661,12 +7723,12 @@
         <v>163</v>
       </c>
       <c r="X173" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="174" spans="2:27" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="174" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B174" s="3" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>164</v>
@@ -7678,7 +7740,7 @@
         <v>166</v>
       </c>
       <c r="L174" s="5" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="N174" s="4" t="s">
         <v>64</v>
@@ -7707,12 +7769,12 @@
       <c r="V174" s="3"/>
       <c r="W174" s="3"/>
       <c r="X174" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="175" spans="2:27" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="175" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B175" s="3" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>167</v>
@@ -7724,7 +7786,7 @@
         <v>166</v>
       </c>
       <c r="L175" s="5" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="N175" s="4" t="s">
         <v>64</v>
@@ -7753,12 +7815,12 @@
       <c r="V175" s="3"/>
       <c r="W175" s="3"/>
       <c r="X175" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="176" spans="2:27" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="176" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B176" s="3" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>168</v>
@@ -7770,7 +7832,7 @@
         <v>166</v>
       </c>
       <c r="L176" s="5" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="N176" s="3" t="s">
         <v>64</v>
@@ -7799,12 +7861,12 @@
       <c r="V176" s="3"/>
       <c r="W176" s="3"/>
       <c r="X176" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="177" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="177" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B177" s="3" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C177" t="s">
         <v>169</v>
@@ -7841,10 +7903,10 @@
         <v>172</v>
       </c>
       <c r="X177" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="178" spans="2:24" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="178" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B178" s="3"/>
       <c r="L178" s="5"/>
       <c r="N178" s="4"/>
@@ -7862,12 +7924,12 @@
         <v>173</v>
       </c>
       <c r="X178" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="179" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="179" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B179" s="3" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C179" t="s">
         <v>174</v>
@@ -7904,10 +7966,10 @@
         <v>172</v>
       </c>
       <c r="X179" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="180" spans="2:24" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="180" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B180" s="3"/>
       <c r="L180" s="5"/>
       <c r="N180" s="4"/>
@@ -7925,12 +7987,12 @@
         <v>176</v>
       </c>
       <c r="X180" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="181" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="181" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B181" s="3" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C181" t="s">
         <v>177</v>
@@ -7967,10 +8029,10 @@
         <v>172</v>
       </c>
       <c r="X181" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="182" spans="2:24" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="182" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B182" s="3"/>
       <c r="L182" s="5"/>
       <c r="N182" s="3"/>
@@ -7988,12 +8050,12 @@
         <v>179</v>
       </c>
       <c r="X182" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="183" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="183" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B183" s="3" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>180</v>
@@ -8005,7 +8067,7 @@
         <v>182</v>
       </c>
       <c r="L183" s="5" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="N183" s="4" t="s">
         <v>64</v>
@@ -8033,10 +8095,10 @@
       </c>
       <c r="W183" s="3"/>
       <c r="X183" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="184" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="184" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B184" s="3"/>
       <c r="C184" s="6"/>
       <c r="E184" s="6"/>
@@ -8057,12 +8119,12 @@
       </c>
       <c r="W184" s="3"/>
       <c r="X184" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="185" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="185" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B185" s="3" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>184</v>
@@ -8074,7 +8136,7 @@
         <v>182</v>
       </c>
       <c r="L185" s="5" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="N185" s="4" t="s">
         <v>64</v>
@@ -8102,10 +8164,10 @@
       </c>
       <c r="W185" s="3"/>
       <c r="X185" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="186" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="186" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B186" s="3"/>
       <c r="C186" s="6"/>
       <c r="E186" s="6"/>
@@ -8126,12 +8188,12 @@
       </c>
       <c r="W186" s="3"/>
       <c r="X186" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="187" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="187" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B187" s="3" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>185</v>
@@ -8143,7 +8205,7 @@
         <v>182</v>
       </c>
       <c r="L187" s="5" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="N187" s="3" t="s">
         <v>64</v>
@@ -8171,10 +8233,10 @@
       </c>
       <c r="W187" s="3"/>
       <c r="X187" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="188" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="188" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B188" s="3"/>
       <c r="C188" s="6"/>
       <c r="E188" s="6"/>
@@ -8195,21 +8257,21 @@
       </c>
       <c r="W188" s="3"/>
       <c r="X188" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="189" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="189" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B189" s="3" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C189" t="s">
         <v>186</v>
       </c>
       <c r="E189" s="11" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="L189" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="N189" s="3" t="s">
         <v>75</v>
@@ -8237,21 +8299,21 @@
       </c>
       <c r="W189" s="3"/>
       <c r="X189" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="190" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="190" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B190" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C190" t="s">
         <v>187</v>
       </c>
       <c r="E190" s="11" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="L190" s="5" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="N190" s="3" t="s">
         <v>75</v>
@@ -8280,21 +8342,21 @@
       <c r="V190" s="3"/>
       <c r="W190" s="3"/>
       <c r="X190" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="191" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="191" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B191" s="3" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C191" t="s">
         <v>188</v>
       </c>
       <c r="E191" s="11" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="L191" s="5" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="N191" s="3" t="s">
         <v>75</v>
@@ -8323,12 +8385,12 @@
       <c r="V191" s="3"/>
       <c r="W191" s="3"/>
       <c r="X191" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="192" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="192" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B192" s="3" t="s">
-        <v>382</v>
+        <v>495</v>
       </c>
       <c r="C192" t="s">
         <v>189</v>
@@ -8336,8 +8398,11 @@
       <c r="E192" t="s">
         <v>88</v>
       </c>
+      <c r="G192" s="6" t="s">
+        <v>496</v>
+      </c>
       <c r="L192" s="5" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="N192" s="3" t="s">
         <v>75</v>
@@ -8352,7 +8417,7 @@
         <v>0</v>
       </c>
       <c r="R192" s="14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S192" t="s">
         <v>70</v>
@@ -8364,10 +8429,10 @@
         <v>190</v>
       </c>
       <c r="X192" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="193" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="193" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B193" s="3"/>
       <c r="E193" s="11"/>
       <c r="N193" s="3"/>
@@ -8387,12 +8452,12 @@
       <c r="V193" s="3"/>
       <c r="W193" s="3"/>
       <c r="X193" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="194" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="194" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B194" s="3" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C194" t="s">
         <v>191</v>
@@ -8400,8 +8465,11 @@
       <c r="E194" t="s">
         <v>88</v>
       </c>
+      <c r="G194" s="6" t="s">
+        <v>496</v>
+      </c>
       <c r="L194" s="5" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="N194" s="3" t="s">
         <v>75</v>
@@ -8416,7 +8484,7 @@
         <v>0</v>
       </c>
       <c r="R194" s="14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S194" t="s">
         <v>70</v>
@@ -8428,10 +8496,10 @@
         <v>192</v>
       </c>
       <c r="X194" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="195" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="195" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B195" s="3"/>
       <c r="E195" s="11"/>
       <c r="N195" s="3"/>
@@ -8451,12 +8519,12 @@
       <c r="V195" s="3"/>
       <c r="W195" s="3"/>
       <c r="X195" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="196" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="196" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B196" s="3" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C196" t="s">
         <v>193</v>
@@ -8464,8 +8532,11 @@
       <c r="E196" t="s">
         <v>88</v>
       </c>
+      <c r="G196" s="6" t="s">
+        <v>496</v>
+      </c>
       <c r="L196" s="5" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="N196" s="3" t="s">
         <v>75</v>
@@ -8480,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="R196" s="14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S196" t="s">
         <v>70</v>
@@ -8492,10 +8563,10 @@
         <v>194</v>
       </c>
       <c r="X196" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="197" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="197" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B197" s="3"/>
       <c r="E197" s="11"/>
       <c r="N197" s="3"/>
@@ -8515,12 +8586,12 @@
       <c r="V197" s="3"/>
       <c r="W197" s="3"/>
       <c r="X197" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="198" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="198" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B198" s="3" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C198" t="s">
         <v>195</v>
@@ -8529,7 +8600,7 @@
         <v>196</v>
       </c>
       <c r="L198" s="5" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="N198" s="3" t="s">
         <v>75</v>
@@ -8556,10 +8627,10 @@
         <v>197</v>
       </c>
       <c r="X198" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="199" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="199" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B199" s="3"/>
       <c r="E199" s="11"/>
       <c r="N199" s="3"/>
@@ -8579,12 +8650,12 @@
       <c r="V199" s="3"/>
       <c r="W199" s="3"/>
       <c r="X199" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="200" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="200" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B200" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C200" t="s">
         <v>198</v>
@@ -8593,7 +8664,7 @@
         <v>196</v>
       </c>
       <c r="L200" s="5" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="N200" s="3" t="s">
         <v>75</v>
@@ -8620,10 +8691,10 @@
         <v>199</v>
       </c>
       <c r="X200" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="201" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="201" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B201" s="3"/>
       <c r="E201" s="11"/>
       <c r="N201" s="3"/>
@@ -8643,12 +8714,12 @@
       <c r="V201" s="3"/>
       <c r="W201" s="3"/>
       <c r="X201" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="202" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="202" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B202" s="3" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C202" t="s">
         <v>200</v>
@@ -8657,7 +8728,7 @@
         <v>196</v>
       </c>
       <c r="L202" s="5" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="N202" s="3" t="s">
         <v>75</v>
@@ -8684,10 +8755,10 @@
         <v>201</v>
       </c>
       <c r="X202" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="203" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="203" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B203" s="3"/>
       <c r="E203" s="11"/>
       <c r="N203" s="3"/>
@@ -8707,12 +8778,12 @@
       <c r="V203" s="3"/>
       <c r="W203" s="3"/>
       <c r="X203" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="204" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="204" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B204" s="3" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>202</v>
@@ -8724,7 +8795,7 @@
         <v>204</v>
       </c>
       <c r="L204" s="5" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="N204" s="3" t="s">
         <v>75</v>
@@ -8753,12 +8824,12 @@
       <c r="V204" s="3"/>
       <c r="W204" s="3"/>
       <c r="X204" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="205" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="205" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B205" s="3" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C205" t="s">
         <v>205</v>
@@ -8770,7 +8841,7 @@
         <v>204</v>
       </c>
       <c r="L205" s="5" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="N205" s="3" t="s">
         <v>75</v>
@@ -8799,12 +8870,12 @@
       <c r="V205" s="3"/>
       <c r="W205" s="3"/>
       <c r="X205" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="206" spans="2:24" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="206" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B206" s="3" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C206" t="s">
         <v>206</v>
@@ -8816,7 +8887,7 @@
         <v>204</v>
       </c>
       <c r="L206" s="5" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="N206" s="3" t="s">
         <v>75</v>
@@ -8845,8 +8916,38 @@
       <c r="V206" s="3"/>
       <c r="W206" s="3"/>
       <c r="X206" s="3" t="s">
-        <v>225</v>
-      </c>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="207" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B207" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="L207" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="N207" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O207">
+        <v>1</v>
+      </c>
+      <c r="P207">
+        <v>1</v>
+      </c>
+      <c r="Q207" t="b">
+        <v>1</v>
+      </c>
+      <c r="R207">
+        <v>0</v>
+      </c>
+      <c r="X207" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8954,89 +9055,89 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>223</v>
       </c>

--- a/Unity/Assets/Config/Excel/AbilityConfig/BuffConfig/BuffCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/BuffConfig/BuffCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\BuffConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\BuffConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512E9425-871A-4FB6-89EA-321F9B6DF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9F6A01-CD71-4965-AC1B-26926960708D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2538,31 +2538,31 @@
   <dimension ref="A1:AL207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D178" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E188" sqref="E188"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="7.625" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="16" width="4.33203125" customWidth="1"/>
-    <col min="17" max="17" width="5.77734375" customWidth="1"/>
-    <col min="18" max="18" width="10.109375" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" customWidth="1"/>
-    <col min="20" max="20" width="3.6640625" customWidth="1"/>
-    <col min="21" max="21" width="40.33203125" customWidth="1"/>
-    <col min="22" max="23" width="4.33203125" customWidth="1"/>
-    <col min="24" max="24" width="30.33203125" customWidth="1"/>
+    <col min="7" max="16" width="4.375" customWidth="1"/>
+    <col min="17" max="17" width="5.75" customWidth="1"/>
+    <col min="18" max="18" width="10.125" customWidth="1"/>
+    <col min="19" max="19" width="13.625" customWidth="1"/>
+    <col min="20" max="20" width="3.625" customWidth="1"/>
+    <col min="21" max="21" width="40.375" customWidth="1"/>
+    <col min="22" max="23" width="4.375" customWidth="1"/>
+    <col min="24" max="24" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2640,7 +2640,7 @@
       <c r="AK1"/>
       <c r="AL1"/>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -2694,7 +2694,7 @@
       <c r="AK2"/>
       <c r="AL2"/>
     </row>
-    <row r="3" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -2732,7 +2732,7 @@
       <c r="AK3"/>
       <c r="AL3"/>
     </row>
-    <row r="4" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>25</v>
       </c>
@@ -2810,7 +2810,7 @@
       <c r="AK4"/>
       <c r="AL4"/>
     </row>
-    <row r="5" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>38</v>
       </c>
@@ -2850,7 +2850,7 @@
       <c r="AK5"/>
       <c r="AL5"/>
     </row>
-    <row r="6" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>40</v>
       </c>
@@ -2934,7 +2934,7 @@
       <c r="AK6"/>
       <c r="AL6"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>237</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="N8" s="3"/>
       <c r="S8" t="s">
         <v>70</v>
@@ -2984,7 +2984,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>238</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="N10" s="3"/>
       <c r="S10" t="s">
         <v>70</v>
@@ -3034,7 +3034,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>239</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="N12" s="3"/>
       <c r="S12" t="s">
         <v>70</v>
@@ -3084,7 +3084,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>240</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="N14" s="3"/>
       <c r="S14" t="s">
         <v>70</v>
@@ -3134,7 +3134,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>241</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="N16" s="3"/>
       <c r="S16" t="s">
         <v>70</v>
@@ -3184,7 +3184,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>242</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>243</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>244</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>245</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N21" s="3"/>
       <c r="S21" t="s">
         <v>70</v>
@@ -3339,7 +3339,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>246</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>247</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N24" s="3"/>
       <c r="S24" t="s">
         <v>70</v>
@@ -3424,7 +3424,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>248</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N26" s="3"/>
       <c r="S26" t="s">
         <v>70</v>
@@ -3474,7 +3474,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>300</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N28" s="3"/>
       <c r="S28" t="s">
         <v>70</v>
@@ -3524,7 +3524,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>249</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N30" s="3"/>
       <c r="S30" t="s">
         <v>70</v>
@@ -3574,7 +3574,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>250</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N32" s="3"/>
       <c r="S32" t="s">
         <v>70</v>
@@ -3624,7 +3624,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>251</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>252</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="N35" s="3"/>
       <c r="S35" t="s">
         <v>70</v>
@@ -3709,7 +3709,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>253</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="N37" s="3"/>
       <c r="S37" t="s">
         <v>70</v>
@@ -3759,7 +3759,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>282</v>
       </c>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="X38" s="3"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" t="s">
         <v>283</v>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="X39" s="3"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>284</v>
       </c>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="X40" s="3"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>285</v>
       </c>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="X41" s="3"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>286</v>
       </c>
@@ -3910,7 +3910,7 @@
       </c>
       <c r="X42" s="3"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
         <v>291</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>292</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>303</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>293</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>294</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B49" s="18" t="s">
         <v>391</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N50" s="3"/>
       <c r="S50" t="s">
         <v>70</v>
@@ -4165,7 +4165,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B51" s="18" t="s">
         <v>392</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N52" s="3"/>
       <c r="S52" t="s">
         <v>70</v>
@@ -4215,7 +4215,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B53" s="18" t="s">
         <v>393</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N54" s="3"/>
       <c r="S54" t="s">
         <v>70</v>
@@ -4265,7 +4265,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B55" s="18" t="s">
         <v>394</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N56" s="3"/>
       <c r="S56" t="s">
         <v>70</v>
@@ -4315,7 +4315,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B57" s="18" t="s">
         <v>395</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N58" s="3"/>
       <c r="S58" t="s">
         <v>70</v>
@@ -4365,7 +4365,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B59" s="18" t="s">
         <v>396</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N60" s="3"/>
       <c r="S60" t="s">
         <v>70</v>
@@ -4415,7 +4415,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B61" s="18" t="s">
         <v>397</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N62" s="3"/>
       <c r="S62" t="s">
         <v>70</v>
@@ -4465,7 +4465,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B63" s="18" t="s">
         <v>460</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B64" s="18" t="s">
         <v>461</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B65" s="18" t="s">
         <v>462</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B66" s="18" t="s">
         <v>463</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B67" s="18" t="s">
         <v>464</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B68" s="18" t="s">
         <v>465</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B69" s="18" t="s">
         <v>466</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B70" s="18" t="s">
         <v>467</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B71" s="18" t="s">
         <v>468</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B72" s="18"/>
       <c r="E72" s="19"/>
       <c r="N72" s="3"/>
@@ -4797,7 +4797,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B73" s="18" t="s">
         <v>469</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B74" s="18"/>
       <c r="E74" s="19"/>
       <c r="N74" s="3"/>
@@ -4849,7 +4849,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B75" s="18" t="s">
         <v>470</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B76" s="18"/>
       <c r="E76" s="19"/>
       <c r="N76" s="3"/>
@@ -4901,7 +4901,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B77" s="18" t="s">
         <v>471</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B78" s="18"/>
       <c r="E78" s="19"/>
       <c r="N78" s="3"/>
@@ -4953,7 +4953,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="18" t="s">
         <v>472</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B80" s="18"/>
       <c r="E80" s="19"/>
       <c r="N80" s="3"/>
@@ -5005,7 +5005,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="81" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B81" s="18" t="s">
         <v>473</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="82" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N82" s="3"/>
       <c r="S82" t="s">
         <v>70</v>
@@ -5055,7 +5055,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="83" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B83" s="18" t="s">
         <v>474</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="84" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N84" s="3"/>
       <c r="S84" t="s">
         <v>70</v>
@@ -5105,7 +5105,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="85" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B85" s="18" t="s">
         <v>485</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="86" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N86" s="3"/>
       <c r="S86" t="s">
         <v>70</v>
@@ -5155,7 +5155,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="87" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B87" s="18" t="s">
         <v>486</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="88" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N88" s="3"/>
       <c r="S88" t="s">
         <v>70</v>
@@ -5205,12 +5205,12 @@
         <v>504</v>
       </c>
     </row>
-    <row r="89" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N89" s="3"/>
       <c r="U89" s="18"/>
       <c r="X89" s="3"/>
     </row>
-    <row r="90" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B90" s="18" t="s">
         <v>436</v>
       </c>
@@ -5240,7 +5240,7 @@
       </c>
       <c r="X90" s="3"/>
     </row>
-    <row r="91" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B91" s="18" t="s">
         <v>437</v>
       </c>
@@ -5270,7 +5270,7 @@
       </c>
       <c r="X91" s="3"/>
     </row>
-    <row r="92" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B92" s="18" t="s">
         <v>438</v>
       </c>
@@ -5300,7 +5300,7 @@
       </c>
       <c r="X92" s="3"/>
     </row>
-    <row r="93" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B93" s="18" t="s">
         <v>439</v>
       </c>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="X93" s="3"/>
     </row>
-    <row r="94" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B94" s="18" t="s">
         <v>440</v>
       </c>
@@ -5360,7 +5360,7 @@
       </c>
       <c r="X94" s="3"/>
     </row>
-    <row r="95" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B95" s="18" t="s">
         <v>441</v>
       </c>
@@ -5390,7 +5390,7 @@
       </c>
       <c r="X95" s="3"/>
     </row>
-    <row r="96" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B96" s="18" t="s">
         <v>442</v>
       </c>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="X96" s="3"/>
     </row>
-    <row r="97" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B97" s="18" t="s">
         <v>443</v>
       </c>
@@ -5450,7 +5450,7 @@
       </c>
       <c r="X97" s="3"/>
     </row>
-    <row r="98" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B98" s="18" t="s">
         <v>453</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="99" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B99" s="18" t="s">
         <v>454</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="100" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B100" s="18" t="s">
         <v>455</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="101" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B101" s="18" t="s">
         <v>456</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="102" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B102" s="18" t="s">
         <v>457</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="103" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B103" s="18" t="s">
         <v>458</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="104" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B104" s="18" t="s">
         <v>483</v>
       </c>
@@ -5732,14 +5732,14 @@
         <v>501</v>
       </c>
     </row>
-    <row r="105" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B105" s="18"/>
       <c r="E105" s="6"/>
       <c r="L105" s="6"/>
       <c r="N105" s="3"/>
       <c r="X105" s="3"/>
     </row>
-    <row r="106" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
         <v>309</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="107" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R107" s="14"/>
       <c r="S107" s="3" t="s">
         <v>70</v>
@@ -5795,7 +5795,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="108" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B108" s="3" t="s">
         <v>310</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="109" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R109" s="14"/>
       <c r="S109" s="3" t="s">
         <v>70</v>
@@ -5851,7 +5851,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="110" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B110" s="3" t="s">
         <v>311</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="111" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R111" s="14"/>
       <c r="S111" s="3" t="s">
         <v>70</v>
@@ -5907,7 +5907,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="112" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B112" s="3" t="s">
         <v>491</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="113" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E113" s="11"/>
       <c r="F113"/>
       <c r="G113"/>
@@ -5979,7 +5979,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="114" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B114" s="3" t="s">
         <v>312</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="115" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="S115" s="3" t="s">
         <v>70</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="116" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B116" s="3" t="s">
         <v>313</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="117" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="S117" s="3" t="s">
         <v>70</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="118" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B118" s="3" t="s">
         <v>314</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="119" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="S119" s="3" t="s">
         <v>70</v>
       </c>
@@ -6144,10 +6144,10 @@
         <v>505</v>
       </c>
     </row>
-    <row r="120" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="X120" s="14"/>
     </row>
-    <row r="121" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B121" s="18" t="s">
         <v>487</v>
       </c>
@@ -6172,7 +6172,7 @@
       </c>
       <c r="X121" s="3"/>
     </row>
-    <row r="122" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B122" s="18" t="s">
         <v>488</v>
       </c>
@@ -6197,12 +6197,12 @@
       </c>
       <c r="X122" s="3"/>
     </row>
-    <row r="123" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N123" s="3"/>
       <c r="U123" s="18"/>
       <c r="X123" s="3"/>
     </row>
-    <row r="124" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B124" s="3" t="s">
         <v>306</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="125" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="R125" s="14"/>
@@ -6264,7 +6264,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="126" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="R126" s="14"/>
@@ -6281,7 +6281,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="127" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B127" s="3" t="s">
         <v>307</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="128" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="R128" s="14"/>
@@ -6335,7 +6335,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="129" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B129" s="3" t="s">
         <v>308</v>
       </c>
@@ -6369,10 +6369,10 @@
         <v>509</v>
       </c>
     </row>
-    <row r="130" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R130" s="14"/>
     </row>
-    <row r="131" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B131" s="3" t="s">
         <v>315</v>
       </c>
@@ -6407,10 +6407,10 @@
         <v>501</v>
       </c>
     </row>
-    <row r="132" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R132" s="14"/>
     </row>
-    <row r="133" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B133" s="3" t="s">
         <v>316</v>
       </c>
@@ -6445,8 +6445,8 @@
         <v>501</v>
       </c>
     </row>
-    <row r="134" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B135" s="3" t="s">
         <v>317</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="136" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B136" s="3" t="s">
         <v>318</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B137" s="3" t="s">
         <v>319</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="138" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B138" s="3" t="s">
         <v>320</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="139" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B139" s="3" t="s">
         <v>321</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="140" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B140" s="3" t="s">
         <v>322</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="141" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B141" s="3" t="s">
         <v>323</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="142" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="S142" s="3" t="s">
         <v>115</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="143" spans="2:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B143" s="3" t="s">
         <v>324</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="144" spans="2:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B144" s="3" t="s">
         <v>325</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="145" spans="2:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B145" s="3" t="s">
         <v>326</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="146" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B146" s="5" t="s">
         <v>327</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="147" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R147" s="15"/>
       <c r="S147" s="5" t="s">
         <v>70</v>
@@ -6884,7 +6884,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="148" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B148" s="5" t="s">
         <v>328</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="149" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R149" s="15"/>
       <c r="S149" s="5" t="s">
         <v>70</v>
@@ -6937,7 +6937,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="150" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B150" s="5" t="s">
         <v>329</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="151" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R151" s="15"/>
       <c r="S151" s="5" t="s">
         <v>70</v>
@@ -6990,10 +6990,10 @@
         <v>501</v>
       </c>
     </row>
-    <row r="152" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R152" s="15"/>
     </row>
-    <row r="153" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B153" s="5" t="s">
         <v>330</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="154" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B154" s="5" t="s">
         <v>331</v>
       </c>
@@ -7057,10 +7057,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R155" s="15"/>
     </row>
-    <row r="156" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B156" s="3" t="s">
         <v>332</v>
       </c>
@@ -7102,7 +7102,7 @@
       <c r="Z156" s="6"/>
       <c r="AA156" s="6"/>
     </row>
-    <row r="157" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B157" s="3" t="s">
         <v>333</v>
       </c>
@@ -7144,7 +7144,7 @@
       <c r="Z157" s="6"/>
       <c r="AA157" s="6"/>
     </row>
-    <row r="158" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B158" s="3" t="s">
         <v>334</v>
       </c>
@@ -7186,7 +7186,7 @@
       <c r="Z158" s="6"/>
       <c r="AA158" s="6"/>
     </row>
-    <row r="159" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B159" s="3" t="s">
         <v>335</v>
       </c>
@@ -7235,7 +7235,7 @@
       <c r="Z159" s="6"/>
       <c r="AA159" s="6"/>
     </row>
-    <row r="160" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B160" s="3" t="s">
         <v>337</v>
       </c>
@@ -7284,7 +7284,7 @@
       <c r="Z160" s="6"/>
       <c r="AA160" s="6"/>
     </row>
-    <row r="161" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B161" s="3" t="s">
         <v>339</v>
       </c>
@@ -7333,7 +7333,7 @@
       <c r="Z161" s="6"/>
       <c r="AA161" s="6"/>
     </row>
-    <row r="162" spans="2:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B162" s="6" t="s">
         <v>341</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="163" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="S163" s="12" t="s">
         <v>70</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="164" spans="2:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B164" s="6" t="s">
         <v>342</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="165" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="S165" s="12" t="s">
         <v>70</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="166" spans="2:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B166" s="6" t="s">
         <v>343</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="167" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="S167" s="12" t="s">
         <v>70</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="168" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B168" s="3" t="s">
         <v>344</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="169" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B169" s="3" t="s">
         <v>346</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="170" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B170" s="3" t="s">
         <v>348</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="171" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B171" s="3" t="s">
         <v>350</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="172" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B172" s="3" t="s">
         <v>351</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="173" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B173" s="3" t="s">
         <v>352</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="174" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B174" s="3" t="s">
         <v>353</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="175" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B175" s="3" t="s">
         <v>355</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="176" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B176" s="3" t="s">
         <v>357</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="177" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B177" s="3" t="s">
         <v>359</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="178" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B178" s="3"/>
       <c r="L178" s="5"/>
       <c r="N178" s="4"/>
@@ -7927,7 +7927,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="179" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B179" s="3" t="s">
         <v>360</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="180" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B180" s="3"/>
       <c r="L180" s="5"/>
       <c r="N180" s="4"/>
@@ -7990,7 +7990,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="181" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B181" s="3" t="s">
         <v>361</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="182" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B182" s="3"/>
       <c r="L182" s="5"/>
       <c r="N182" s="3"/>
@@ -8053,7 +8053,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="183" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B183" s="3" t="s">
         <v>362</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="184" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B184" s="3"/>
       <c r="C184" s="6"/>
       <c r="E184" s="6"/>
@@ -8122,7 +8122,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="185" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B185" s="3" t="s">
         <v>364</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="186" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B186" s="3"/>
       <c r="C186" s="6"/>
       <c r="E186" s="6"/>
@@ -8191,7 +8191,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="187" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B187" s="3" t="s">
         <v>366</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="188" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B188" s="3"/>
       <c r="C188" s="6"/>
       <c r="E188" s="6"/>
@@ -8260,7 +8260,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="189" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B189" s="3" t="s">
         <v>368</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="190" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B190" s="3" t="s">
         <v>370</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="191" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B191" s="3" t="s">
         <v>372</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="192" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B192" s="3" t="s">
         <v>495</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="193" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B193" s="3"/>
       <c r="E193" s="11"/>
       <c r="N193" s="3"/>
@@ -8455,7 +8455,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="194" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B194" s="3" t="s">
         <v>375</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="195" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B195" s="3"/>
       <c r="E195" s="11"/>
       <c r="N195" s="3"/>
@@ -8522,7 +8522,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="196" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B196" s="3" t="s">
         <v>377</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="197" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B197" s="3"/>
       <c r="E197" s="11"/>
       <c r="N197" s="3"/>
@@ -8589,7 +8589,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="198" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B198" s="3" t="s">
         <v>379</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="199" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B199" s="3"/>
       <c r="E199" s="11"/>
       <c r="N199" s="3"/>
@@ -8653,7 +8653,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="200" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B200" s="3" t="s">
         <v>381</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="201" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B201" s="3"/>
       <c r="E201" s="11"/>
       <c r="N201" s="3"/>
@@ -8717,7 +8717,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="202" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B202" s="3" t="s">
         <v>383</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="203" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B203" s="3"/>
       <c r="E203" s="11"/>
       <c r="N203" s="3"/>
@@ -8781,7 +8781,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="204" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B204" s="3" t="s">
         <v>385</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="205" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B205" s="3" t="s">
         <v>387</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="206" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B206" s="3" t="s">
         <v>389</v>
       </c>
@@ -8919,7 +8919,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="207" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B207" s="6" t="s">
         <v>497</v>
       </c>
@@ -8956,91 +8956,91 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="B71:B74">
-    <cfRule type="duplicateValues" dxfId="28" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B76">
-    <cfRule type="duplicateValues" dxfId="27" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77:B78">
-    <cfRule type="duplicateValues" dxfId="26" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79:B80">
-    <cfRule type="duplicateValues" dxfId="25" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="24" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="duplicateValues" dxfId="23" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="duplicateValues" dxfId="22" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="duplicateValues" dxfId="21" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98">
-    <cfRule type="duplicateValues" dxfId="20" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="18" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102">
-    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103">
-    <cfRule type="duplicateValues" dxfId="15" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:B122 B104:B105">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U71:U72">
-    <cfRule type="duplicateValues" dxfId="13" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U73">
-    <cfRule type="duplicateValues" dxfId="12" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U74">
-    <cfRule type="duplicateValues" dxfId="11" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U75">
-    <cfRule type="duplicateValues" dxfId="10" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U76">
-    <cfRule type="duplicateValues" dxfId="9" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U77">
-    <cfRule type="duplicateValues" dxfId="8" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U78">
-    <cfRule type="duplicateValues" dxfId="7" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U79">
-    <cfRule type="duplicateValues" dxfId="6" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U80">
-    <cfRule type="duplicateValues" dxfId="5" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U81">
-    <cfRule type="duplicateValues" dxfId="4" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U123 U82:U89">
-    <cfRule type="duplicateValues" dxfId="3" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X84">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X86">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X88">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9055,89 +9055,89 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>223</v>
       </c>

--- a/Unity/Assets/Config/Excel/AbilityConfig/BuffConfig/BuffCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/BuffConfig/BuffCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\BuffConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\BuffConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA3CAF6-D81A-4CBE-8E37-D82261B5FC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82D656C-CAFB-4210-A926-D4480118C2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="防御塔" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="695">
   <si>
     <t>##var</t>
   </si>
@@ -730,43 +730,43 @@
   </si>
   <si>
     <t>AttackArea_Line2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AttackArea_Line3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AttackArea_Circle2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AttackArea_Circle3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Buff</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>隐身技能</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>BuffAdd_Invisible</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Invisible</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>隐身</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>EffectCreate_Placed</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>无限模式怪物技能_恢复</t>
@@ -899,7 +899,7 @@
   </si>
   <si>
     <t>BuffAdd_Invisible_Infinite_13_1_Gui</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>BuffAdd_Invisible_Infinite_14_1_Gui</t>
@@ -951,7 +951,7 @@
   </si>
   <si>
     <t>Debuff</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -968,7 +968,7 @@
       </rPr>
       <t>_Stun</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>NoSkillCastInput</t>
@@ -993,11 +993,11 @@
   </si>
   <si>
     <t>无限模式怪物技能效果_隐身</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>无限模式怪物技能效果_弱化</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Buff_1</t>
@@ -1277,7 +1277,7 @@
   </si>
   <si>
     <t>EffectCreate_Infinite_9_2_ZhongZi</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>EffectCreate_Monster_Challenge3_1_1</t>
@@ -1302,7 +1302,7 @@
   </si>
   <si>
     <t>AttackArea_Infinite_20_3_ZhongZi</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AttackArea_Monster_Challenge3_1_1</t>
@@ -1327,11 +1327,11 @@
   </si>
   <si>
     <t>挑战关卡怪物技能_隐身</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>挑战关卡怪物技能_弱化</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>挑战关卡怪物技能_恢复</t>
@@ -1509,90 +1509,90 @@
   </si>
   <si>
     <t>Buff_Monster_Challenge_Niao1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>挑战关卡怪物技能_加速</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>EffectCreate_Monster_Challenge5_5_4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>EffectCreate_Monster_Challenge_Niao1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>BuffAdd_Monster_Niao1_SpeedUp</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>EffectCreate_Monster_Challenge_Niao2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>BuffAdd_Monster_Niao2_SpeedUp</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>EffectCreate_Monster_Challenge_Niao3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>BuffAdd_Monster_Niao3_SpeedUp</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Buff_SpeedUp</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>挑战关卡怪物技能效果_加速</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Buff_Monster_Challenge_Niao2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Buff_Monster_Challenge_Niao3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Buff_WaveHpUp</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Buff_WaveSpeedUp</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>循环刷怪加血</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>循环刷怪加速</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Buff_Line3_Fire</t>
   </si>
   <si>
     <t>火焰塔3灼烧buff</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AttackArea_Buff_Line3_Fire</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>EffectCreate_Buff_Line3_Fire</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Buff_TowerScorpio1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1609,7 +1609,7 @@
       </rPr>
       <t>TowerScorpio</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1626,15 +1626,15 @@
       </rPr>
       <t>_TowerBomb3</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>炸弹塔3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>眩晕</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1662,7 +1662,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SelectObject_Self</t>
@@ -1765,27 +1765,27 @@
   </si>
   <si>
     <t>AttackArea_Infinite_18_1_Dan</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Buff_Monster_Invisible_Buff</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>怪物通用技能-隐身-隐身效果buff</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>EffectCreate_Monster_Invisible_Buff</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Buff_Monster_Weaken_Buff</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>怪物通用技能-弱化-弱化效果buff</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Buff_TowerGolem1</t>
@@ -1831,7 +1831,7 @@
   </si>
   <si>
     <t>友军加速</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>怪物技能-鸟2</t>
@@ -1844,7 +1844,7 @@
   </si>
   <si>
     <t>自身生命降低</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>怪物技能-雪人2</t>
@@ -1857,7 +1857,7 @@
   </si>
   <si>
     <t>自身停止并增加受伤率</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>怪物技能-乌龟2</t>
@@ -1900,7 +1900,7 @@
   </si>
   <si>
     <t>BuffAdd_Monster_Niao1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SelectObject_Monster_Niao1</t>
@@ -1925,7 +1925,7 @@
   </si>
   <si>
     <t>BuffAdd_Monster_XueRen1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>BuffAdd_Monster_XueRen2</t>
@@ -1941,7 +1941,7 @@
   </si>
   <si>
     <t>BuffTagGroupNiao</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>EffectCreate_Monster_WeakenSmall</t>
@@ -1961,7 +1961,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1978,50 +1978,46 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>BuffAdd_Monster_WuGui3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectCreate_Monster_WeakenSmall</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Buff_Default_Monster_ZhongZi1</t>
   </si>
   <si>
     <t>Buff_Default_Monster_ZhongZi2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Buff_Default_Monster_ZhongZi3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>EffectCreate_Monster_ZhongZi1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AttackArea_Monster_ZhongZi1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>EffectCreate_Monster_ZhongZi2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AttackArea_Monster_ZhongZi2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>EffectCreate_Monster_ZhongZi3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AttackArea_Monster_ZhongZi3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2038,7 +2034,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2055,11 +2051,11 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>怪物技能-种子1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>怪物技能-种子2</t>
@@ -2069,7 +2065,7 @@
   </si>
   <si>
     <t>怪物技能-鬼1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>怪物技能-鬼2</t>
@@ -2079,7 +2075,7 @@
   </si>
   <si>
     <t>怪物技能-蛋2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Buff_Default_Monster_Dan2</t>
@@ -2099,31 +2095,27 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>怪物技能-蛋3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>EffectCreate_Monster_Dan2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AttackArea_Monster_Dan2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectCreate_Monster_Dan3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>AttackArea_Monster_Dan3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>赛季养成伤害0</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>赛季养成伤害1</t>
@@ -2136,7 +2128,7 @@
   </si>
   <si>
     <t>赛季养成攻击范围0</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>赛季养成攻击范围1</t>
@@ -2149,7 +2141,7 @@
   </si>
   <si>
     <t>赛季养成攻速0</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>赛季养成攻速1</t>
@@ -2162,11 +2154,11 @@
   </si>
   <si>
     <t>Buff_Default_Monster_Gui1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>BuffAdd_Monster_Gui1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>BuffAdd_Monster_Gui2</t>
@@ -2179,7 +2171,7 @@
   </si>
   <si>
     <t>Buff_Default_Monster_Long1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Buff_Default_Monster_Long2</t>
@@ -2189,19 +2181,422 @@
   </si>
   <si>
     <t>提升攻击</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_Default_Monster_MiFeng3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-蜜蜂3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CallActor_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MiFeng3</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_Monster_Actor_HpFix</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤怪物通用技能-生命调节</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayAnimator_Attack1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageAfterOnBeKilled</t>
+  </si>
+  <si>
+    <t>Buff_Default_Monster_Dan1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-蛋1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_Monster_Dan3_Skill</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_Monster_Stun_Buff</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物通用技能-弱化-眩晕</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_TowerStun</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoNormalAttack;NoMoveInput;NoSkillCastInput;NoFaceChgInput;StopBuffTick</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Monster_Gui2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>EffectCreate_Monster_Gui</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_Monster_Niao3_Buff</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FullBati</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>友军霸体加速</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>怪物技能-蛋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-鬼3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-鬼2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-种子3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-种子2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>怪物技能-龙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>怪物技能-龙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>怪物技能-龙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>怪物技能buff-隐身</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能buff-弱化</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能buff-鸟1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能buff-鸟2</t>
+  </si>
+  <si>
+    <t>怪物技能buff-鸟3</t>
+  </si>
+  <si>
+    <t>怪物技能buff-雪人1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能buff-乌龟11</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物buff-波次加血</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物buff-波次加速</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物buff-召唤物初始生命</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物buff-眩晕</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_Monster_Long2</t>
+  </si>
+  <si>
+    <t>BuffAdd_Monster_Long2</t>
+  </si>
+  <si>
+    <t>SelectObject_Monster_Long2</t>
+  </si>
+  <si>
+    <t>Buff_Monster_Long2</t>
+  </si>
+  <si>
+    <t>怪物技能buff-龙2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>加攻击</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_Monster_Long2_Buff</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-雪人2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_Default_Monster_XueRen2_Shield</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_Default_Monster_XueRen2_Shield</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_Monster_XueRen3_Buff</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能buff-雪人3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速降低</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_Monster_XueRen3_Buff</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能buff-雪人2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能buff-乌龟12</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能buff-乌龟13</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_MonsterShow</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_Default_Monster_WuGui2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PlayAnimator_Attack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体护盾</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身停止+护盾</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Monster_WuGui3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_Monster_WuGui3</t>
+  </si>
+  <si>
+    <t>EffectCreate_Buff_Monster_WuGui3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffTypeCondition;eq;Debuff</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwerCountCondition;le;true;false;false;8</t>
+  </si>
+  <si>
+    <t>BuffOnStart</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffOnRemoved</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameObjectDeal_Transparent</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameObjectDeal_NotTransparent</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_FireSea</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>火海</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_FireSea</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Attack_FireSea</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2262,6 +2657,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -2349,113 +2751,113 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2466,7 +2868,127 @@
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="解释性文本" xfId="4" builtinId="53"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="41">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3028,21 +3550,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA983496-F732-447E-A64B-8FBCE6F943B2}">
-  <dimension ref="A1:AL45"/>
+  <dimension ref="A1:AL49"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="U38" sqref="U38"/>
+      <selection pane="bottomRight" activeCell="X49" sqref="X49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="18"/>
+    <col min="1" max="18" width="9" style="18"/>
+    <col min="19" max="19" width="10.77734375" style="18" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -3120,7 +3644,7 @@
       <c r="AK1" s="18"/>
       <c r="AL1" s="18"/>
     </row>
-    <row r="2" spans="1:38" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -3174,7 +3698,7 @@
       <c r="AK2" s="18"/>
       <c r="AL2" s="18"/>
     </row>
-    <row r="3" spans="1:38" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
@@ -3212,7 +3736,7 @@
       <c r="AK3" s="18"/>
       <c r="AL3" s="18"/>
     </row>
-    <row r="4" spans="1:38" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>25</v>
       </c>
@@ -3290,7 +3814,7 @@
       <c r="AK4" s="18"/>
       <c r="AL4" s="18"/>
     </row>
-    <row r="5" spans="1:38" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>38</v>
       </c>
@@ -3330,7 +3854,7 @@
       <c r="AK5" s="18"/>
       <c r="AL5" s="18"/>
     </row>
-    <row r="6" spans="1:38" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>40</v>
       </c>
@@ -3414,7 +3938,7 @@
       <c r="AK6" s="18"/>
       <c r="AL6" s="18"/>
     </row>
-    <row r="7" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="30" t="s">
         <v>291</v>
       </c>
@@ -3455,7 +3979,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="8" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="R8" s="31"/>
       <c r="S8" s="30" t="s">
         <v>70</v>
@@ -3470,7 +3994,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="9" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
         <v>292</v>
       </c>
@@ -3511,7 +4035,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="10" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="R10" s="31"/>
       <c r="S10" s="30" t="s">
         <v>70</v>
@@ -3526,7 +4050,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="11" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="30" t="s">
         <v>293</v>
       </c>
@@ -3567,7 +4091,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="R12" s="31"/>
       <c r="S12" s="30" t="s">
         <v>70</v>
@@ -3582,7 +4106,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="13" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="30" t="s">
         <v>473</v>
       </c>
@@ -3630,7 +4154,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="14" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E14" s="21"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
@@ -3654,7 +4178,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="15" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="30" t="s">
         <v>294</v>
       </c>
@@ -3695,7 +4219,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="16" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="S16" s="30" t="s">
         <v>70</v>
       </c>
@@ -3709,7 +4233,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="17" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="30" t="s">
         <v>295</v>
       </c>
@@ -3750,7 +4274,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="18" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="S18" s="30" t="s">
         <v>70</v>
       </c>
@@ -3764,7 +4288,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="19" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="30" t="s">
         <v>296</v>
       </c>
@@ -3805,7 +4329,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="20" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="S20" s="30" t="s">
         <v>70</v>
       </c>
@@ -3819,7 +4343,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="21" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="30" t="s">
         <v>297</v>
       </c>
@@ -3854,7 +4378,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="22" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="30" t="s">
         <v>301</v>
       </c>
@@ -3892,7 +4416,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="23" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="30" t="s">
         <v>302</v>
       </c>
@@ -3936,7 +4460,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="24" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30" t="s">
         <v>303</v>
       </c>
@@ -3980,7 +4504,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="25" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="30" t="s">
         <v>304</v>
       </c>
@@ -4024,7 +4548,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="26" spans="2:24" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:24" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="30" t="s">
         <v>306</v>
       </c>
@@ -4059,7 +4583,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="27" spans="2:24" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:24" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="30" t="s">
         <v>307</v>
       </c>
@@ -4094,7 +4618,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="28" spans="2:24" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:24" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="30" t="s">
         <v>308</v>
       </c>
@@ -4129,7 +4653,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="29" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="20" t="s">
         <v>522</v>
       </c>
@@ -4152,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="20" t="s">
         <v>523</v>
       </c>
@@ -4175,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="20" t="s">
         <v>524</v>
       </c>
@@ -4198,7 +4722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" s="20" t="s">
         <v>525</v>
       </c>
@@ -4227,18 +4751,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="G33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="22"/>
       <c r="K33" s="23"/>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B34" s="20" t="s">
         <v>501</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G34" s="20" t="s">
         <v>513</v>
@@ -4260,12 +4784,12 @@
       </c>
       <c r="X34" s="32"/>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
         <v>502</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G35" s="18" t="s">
         <v>513</v>
@@ -4287,12 +4811,12 @@
       </c>
       <c r="X35" s="32"/>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="s">
         <v>503</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>513</v>
@@ -4314,12 +4838,12 @@
       </c>
       <c r="X36" s="32"/>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="s">
         <v>504</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G37" s="18" t="s">
         <v>513</v>
@@ -4341,12 +4865,12 @@
       </c>
       <c r="X37" s="32"/>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="s">
         <v>505</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G38" s="18" t="s">
         <v>514</v>
@@ -4368,12 +4892,12 @@
       </c>
       <c r="X38" s="32"/>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
         <v>506</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G39" s="18" t="s">
         <v>514</v>
@@ -4395,12 +4919,12 @@
       </c>
       <c r="X39" s="32"/>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="s">
         <v>507</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G40" s="18" t="s">
         <v>514</v>
@@ -4422,12 +4946,12 @@
       </c>
       <c r="X40" s="32"/>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="s">
         <v>508</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G41" s="18" t="s">
         <v>514</v>
@@ -4449,12 +4973,12 @@
       </c>
       <c r="X41" s="32"/>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
         <v>509</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G42" s="18" t="s">
         <v>515</v>
@@ -4476,12 +5000,12 @@
       </c>
       <c r="X42" s="32"/>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="s">
         <v>510</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="G43" s="18" t="s">
         <v>515</v>
@@ -4503,12 +5027,12 @@
       </c>
       <c r="X43" s="32"/>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
         <v>511</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G44" s="18" t="s">
         <v>515</v>
@@ -4530,12 +5054,12 @@
       </c>
       <c r="X44" s="32"/>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
         <v>512</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G45" s="18" t="s">
         <v>515</v>
@@ -4556,13 +5080,62 @@
         <v>0</v>
       </c>
       <c r="X45" s="32"/>
+    </row>
+    <row r="48" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="30" t="s">
+        <v>691</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>692</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>692</v>
+      </c>
+      <c r="N48" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="O48" s="30">
+        <v>1</v>
+      </c>
+      <c r="P48" s="30">
+        <v>1</v>
+      </c>
+      <c r="R48" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="S48" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="T48" s="30">
+        <v>0</v>
+      </c>
+      <c r="U48" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="X48" s="30" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="49" spans="19:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S49" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="T49" s="30">
+        <v>0</v>
+      </c>
+      <c r="U49" s="30" t="s">
+        <v>693</v>
+      </c>
+      <c r="X49" s="20" t="s">
+        <v>694</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="S1:X1"/>
     <mergeCell ref="S4:X4"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="O34:O45" numberStoredAsText="1"/>
@@ -4572,18 +5145,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B784ACC2-22F5-4F61-899D-AD29919B526B}">
-  <dimension ref="A1:AL73"/>
+  <dimension ref="A1:AL97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="P7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="O47" sqref="O47"/>
+      <selection pane="bottomRight" activeCell="V77" sqref="V77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="37.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4661,7 +5242,7 @@
       <c r="AK1"/>
       <c r="AL1"/>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -4715,7 +5296,7 @@
       <c r="AK2"/>
       <c r="AL2"/>
     </row>
-    <row r="3" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -4753,7 +5334,7 @@
       <c r="AK3"/>
       <c r="AL3"/>
     </row>
-    <row r="4" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>25</v>
       </c>
@@ -4831,7 +5412,7 @@
       <c r="AK4"/>
       <c r="AL4"/>
     </row>
-    <row r="5" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>38</v>
       </c>
@@ -4871,7 +5452,7 @@
       <c r="AK5"/>
       <c r="AL5"/>
     </row>
-    <row r="6" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>40</v>
       </c>
@@ -4955,14 +5536,16 @@
       <c r="AK6"/>
       <c r="AL6"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
-        <v>577</v>
-      </c>
-      <c r="C7" s="21"/>
+        <v>621</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>622</v>
+      </c>
       <c r="D7" s="21"/>
       <c r="E7" s="20" t="s">
-        <v>588</v>
+        <v>622</v>
       </c>
       <c r="G7" s="21"/>
       <c r="I7" s="21"/>
@@ -4983,7 +5566,7 @@
         <v>1</v>
       </c>
       <c r="R7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S7" t="s">
         <v>70</v>
@@ -4992,104 +5575,96 @@
         <v>0</v>
       </c>
       <c r="U7" s="21" t="s">
-        <v>580</v>
+        <v>626</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>686</v>
       </c>
       <c r="X7" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="20"/>
       <c r="G8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="22"/>
       <c r="K8" s="23"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
       <c r="N8" s="3"/>
       <c r="S8" t="s">
         <v>70</v>
       </c>
       <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8" s="21" t="s">
-        <v>581</v>
+        <v>0.5</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>686</v>
       </c>
       <c r="X8" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B9" s="21"/>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B9" s="20"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
+      <c r="E9" s="20"/>
       <c r="G9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="22"/>
       <c r="K9" s="23"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="7" t="s">
-        <v>146</v>
+      <c r="N9" s="3"/>
+      <c r="S9" t="s">
+        <v>70</v>
       </c>
       <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9" s="21" t="s">
-        <v>580</v>
-      </c>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
+        <v>0.5</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>686</v>
+      </c>
       <c r="X9" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="20"/>
       <c r="G10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="22"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="3"/>
+      <c r="U10" s="21"/>
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B11" s="20" t="s">
-        <v>578</v>
-      </c>
-      <c r="C11" s="21"/>
+        <v>576</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>587</v>
+      </c>
       <c r="D11" s="21"/>
       <c r="E11" s="20" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G11" s="21"/>
       <c r="I11" s="21"/>
@@ -5110,7 +5685,7 @@
         <v>1</v>
       </c>
       <c r="R11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S11" t="s">
         <v>70</v>
@@ -5119,13 +5694,13 @@
         <v>0</v>
       </c>
       <c r="U11" s="21" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="X11" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -5143,14 +5718,13 @@
         <v>0</v>
       </c>
       <c r="U12" s="21" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="X12" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B13" s="21"/>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="G13" s="21"/>
@@ -5171,7 +5745,7 @@
         <v>0</v>
       </c>
       <c r="U13" s="21" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -5179,7 +5753,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -5201,7 +5775,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="21" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
@@ -5209,14 +5783,16 @@
         <v>483</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
-        <v>579</v>
-      </c>
-      <c r="C15" s="21"/>
+        <v>577</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>644</v>
+      </c>
       <c r="D15" s="21"/>
       <c r="E15" s="20" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G15" s="21"/>
       <c r="I15" s="21"/>
@@ -5246,13 +5822,13 @@
         <v>0</v>
       </c>
       <c r="U15" s="21" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -5270,13 +5846,13 @@
         <v>0</v>
       </c>
       <c r="U16" s="21" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="X16" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -5298,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="21" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="V17" s="21"/>
       <c r="W17" s="21"/>
@@ -5306,7 +5882,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -5328,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="U18" s="21" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="V18" s="21"/>
       <c r="W18" s="21"/>
@@ -5336,19 +5912,23 @@
         <v>483</v>
       </c>
     </row>
-    <row r="19" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="20" t="s">
-        <v>614</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>643</v>
+      </c>
+      <c r="D19" s="21"/>
       <c r="E19" s="20" t="s">
-        <v>591</v>
-      </c>
-      <c r="F19"/>
+        <v>589</v>
+      </c>
       <c r="G19" s="21"/>
-      <c r="H19"/>
       <c r="I19" s="21"/>
       <c r="J19" s="22"/>
       <c r="K19" s="23"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
       <c r="N19" s="3" t="s">
         <v>64</v>
       </c>
@@ -5362,7 +5942,7 @@
         <v>1</v>
       </c>
       <c r="R19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S19" t="s">
         <v>70</v>
@@ -5371,86 +5951,81 @@
         <v>0</v>
       </c>
       <c r="U19" s="21" t="s">
-        <v>615</v>
-      </c>
-      <c r="V19"/>
-      <c r="W19"/>
+        <v>583</v>
+      </c>
       <c r="X19" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="20" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="21"/>
-      <c r="F20"/>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
       <c r="G20" s="21"/>
-      <c r="H20"/>
       <c r="I20" s="21"/>
       <c r="J20" s="22"/>
       <c r="K20" s="23"/>
-      <c r="S20" s="7" t="s">
-        <v>146</v>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="3"/>
+      <c r="S20" t="s">
+        <v>70</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
       <c r="U20" s="21" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
       <c r="X20" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="21" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="20" t="s">
-        <v>586</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>592</v>
-      </c>
-      <c r="F21"/>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
       <c r="G21" s="21"/>
-      <c r="H21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="22"/>
       <c r="K21" s="23"/>
-      <c r="N21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="Q21" t="b">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>8</v>
-      </c>
-      <c r="S21" t="s">
-        <v>70</v>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="T21">
         <v>0</v>
       </c>
       <c r="U21" s="21" t="s">
-        <v>616</v>
-      </c>
-      <c r="V21"/>
-      <c r="W21"/>
+        <v>583</v>
+      </c>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
       <c r="X21" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="22" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="21"/>
-      <c r="F22"/>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
       <c r="G22" s="21"/>
-      <c r="H22"/>
       <c r="I22" s="21"/>
       <c r="J22" s="22"/>
       <c r="K22" s="23"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
       <c r="S22" s="7" t="s">
         <v>146</v>
       </c>
@@ -5458,18 +6033,23 @@
         <v>0</v>
       </c>
       <c r="U22" s="21" t="s">
-        <v>616</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
       <c r="X22" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="23" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="20" t="s">
-        <v>587</v>
+        <v>612</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>590</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F23"/>
       <c r="G23" s="21"/>
@@ -5490,7 +6070,7 @@
         <v>1</v>
       </c>
       <c r="R23">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="S23" t="s">
         <v>70</v>
@@ -5499,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="21" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="V23"/>
       <c r="W23"/>
@@ -5507,7 +6087,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="24" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="21"/>
       <c r="F24"/>
       <c r="G24" s="21"/>
@@ -5522,25 +6102,27 @@
         <v>0</v>
       </c>
       <c r="U24" s="21" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="X24" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="25" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="18" t="s">
-        <v>595</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+    <row r="25" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>642</v>
+      </c>
       <c r="E25" s="20" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F25"/>
       <c r="G25" s="21"/>
       <c r="H25"/>
       <c r="I25" s="21"/>
+      <c r="J25" s="22"/>
       <c r="K25" s="23"/>
       <c r="N25" s="3" t="s">
         <v>64</v>
@@ -5555,7 +6137,7 @@
         <v>1</v>
       </c>
       <c r="R25">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="S25" t="s">
         <v>70</v>
@@ -5564,23 +6146,22 @@
         <v>0</v>
       </c>
       <c r="U25" s="21" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
       <c r="V25"/>
       <c r="W25"/>
       <c r="X25" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="26" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
+        <v>635</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="20"/>
+      <c r="E26" s="20"/>
       <c r="F26"/>
       <c r="G26" s="21"/>
       <c r="H26"/>
       <c r="I26" s="21"/>
+      <c r="J26" s="22"/>
       <c r="K26" s="23"/>
       <c r="N26" s="3"/>
       <c r="O26"/>
@@ -5593,8 +6174,8 @@
       <c r="T26">
         <v>0</v>
       </c>
-      <c r="U26" s="21" t="s">
-        <v>599</v>
+      <c r="U26" s="20" t="s">
+        <v>636</v>
       </c>
       <c r="V26"/>
       <c r="W26"/>
@@ -5602,15 +6183,13 @@
         <v>483</v>
       </c>
     </row>
-    <row r="27" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
       <c r="F27"/>
       <c r="G27" s="21"/>
       <c r="H27"/>
       <c r="I27" s="21"/>
+      <c r="J27" s="22"/>
       <c r="K27" s="23"/>
       <c r="S27" s="7" t="s">
         <v>146</v>
@@ -5619,21 +6198,19 @@
         <v>0</v>
       </c>
       <c r="U27" s="21" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="28" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
       <c r="F28"/>
       <c r="G28" s="21"/>
       <c r="H28"/>
       <c r="I28" s="21"/>
+      <c r="J28" s="22"/>
       <c r="K28" s="23"/>
       <c r="S28" s="7" t="s">
         <v>146</v>
@@ -5641,26 +6218,28 @@
       <c r="T28">
         <v>0</v>
       </c>
-      <c r="U28" s="21" t="s">
-        <v>599</v>
+      <c r="U28" s="20" t="s">
+        <v>636</v>
       </c>
       <c r="X28" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="29" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="20" t="s">
-        <v>596</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
+        <v>586</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>641</v>
+      </c>
       <c r="E29" s="20" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F29"/>
       <c r="G29" s="21"/>
       <c r="H29"/>
       <c r="I29" s="21"/>
+      <c r="J29" s="22"/>
       <c r="K29" s="23"/>
       <c r="N29" s="3" t="s">
         <v>64</v>
@@ -5675,7 +6254,7 @@
         <v>1</v>
       </c>
       <c r="R29">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="S29" t="s">
         <v>70</v>
@@ -5684,7 +6263,7 @@
         <v>0</v>
       </c>
       <c r="U29" s="21" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="V29"/>
       <c r="W29"/>
@@ -5692,60 +6271,72 @@
         <v>483</v>
       </c>
     </row>
-    <row r="30" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
       <c r="F30"/>
       <c r="G30" s="21"/>
       <c r="H30"/>
       <c r="I30" s="21"/>
+      <c r="J30" s="22"/>
       <c r="K30" s="23"/>
-      <c r="N30" s="3"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30" t="s">
-        <v>70</v>
+      <c r="S30" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="T30">
         <v>0</v>
       </c>
       <c r="U30" s="21" t="s">
-        <v>601</v>
-      </c>
-      <c r="V30"/>
-      <c r="W30"/>
+        <v>615</v>
+      </c>
       <c r="X30" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="31" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
+    <row r="31" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="18" t="s">
+        <v>628</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>629</v>
+      </c>
       <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
+      <c r="E31" s="20" t="s">
+        <v>629</v>
+      </c>
       <c r="F31"/>
       <c r="G31" s="21"/>
       <c r="H31"/>
       <c r="I31" s="21"/>
       <c r="K31" s="23"/>
+      <c r="N31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="b">
+        <v>1</v>
+      </c>
+      <c r="R31" s="18">
+        <v>1</v>
+      </c>
       <c r="S31" s="7" t="s">
-        <v>146</v>
+        <v>627</v>
       </c>
       <c r="T31">
         <v>0</v>
       </c>
       <c r="U31" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="X31" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="32" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
@@ -5755,36 +6346,35 @@
       <c r="H32"/>
       <c r="I32" s="21"/>
       <c r="K32" s="23"/>
+      <c r="O32" s="7"/>
       <c r="S32" s="7" t="s">
-        <v>146</v>
+        <v>627</v>
       </c>
       <c r="T32">
         <v>0</v>
       </c>
       <c r="U32" s="21" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="X32" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="33" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
-        <v>548</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>536</v>
+        <v>594</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="20" t="s">
+        <v>593</v>
       </c>
       <c r="F33"/>
-      <c r="G33" s="3" t="s">
-        <v>571</v>
-      </c>
+      <c r="G33" s="21"/>
       <c r="H33"/>
       <c r="I33" s="21"/>
-      <c r="J33" s="22"/>
       <c r="K33" s="23"/>
       <c r="N33" s="3" t="s">
         <v>64</v>
@@ -5799,130 +6389,120 @@
         <v>1</v>
       </c>
       <c r="R33">
-        <v>3</v>
-      </c>
-      <c r="S33" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="T33" s="18">
-        <v>0</v>
-      </c>
-      <c r="U33" s="18" t="s">
-        <v>557</v>
-      </c>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E34" s="11"/>
+        <v>4.5</v>
+      </c>
+      <c r="S33" t="s">
+        <v>70</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
       <c r="F34"/>
       <c r="G34" s="21"/>
       <c r="H34"/>
       <c r="I34" s="21"/>
-      <c r="J34" s="22"/>
       <c r="K34" s="23"/>
       <c r="N34" s="3"/>
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34"/>
-      <c r="S34" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="T34" s="18">
-        <v>0</v>
-      </c>
-      <c r="U34" s="20" t="s">
-        <v>558</v>
-      </c>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="18" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="35" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E35" s="11"/>
+      <c r="S34" t="s">
+        <v>70</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
       <c r="F35"/>
       <c r="G35" s="21"/>
       <c r="H35"/>
       <c r="I35" s="21"/>
-      <c r="J35" s="22"/>
       <c r="K35" s="23"/>
-      <c r="N35" s="3"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35" t="s">
-        <v>70</v>
-      </c>
-      <c r="T35" s="18">
-        <v>0</v>
-      </c>
-      <c r="U35" s="18" t="s">
-        <v>557</v>
-      </c>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
-      <c r="X35" s="7" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="36" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E36" s="11"/>
+      <c r="S35" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
       <c r="F36"/>
       <c r="G36" s="21"/>
       <c r="H36"/>
       <c r="I36" s="21"/>
-      <c r="J36" s="22"/>
       <c r="K36" s="23"/>
-      <c r="N36" s="3"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36" t="s">
-        <v>70</v>
-      </c>
-      <c r="T36" s="18">
-        <v>0</v>
-      </c>
-      <c r="U36" s="20" t="s">
-        <v>558</v>
-      </c>
-      <c r="V36" s="7"/>
-      <c r="W36" s="7"/>
-      <c r="X36" s="18" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="18" t="s">
-        <v>549</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>537</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>536</v>
+      <c r="S36" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="X36" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>640</v>
+      </c>
+      <c r="D37" s="21"/>
+      <c r="E37" s="20" t="s">
+        <v>596</v>
       </c>
       <c r="F37"/>
-      <c r="G37" s="3" t="s">
-        <v>571</v>
-      </c>
+      <c r="G37" s="21"/>
       <c r="H37"/>
       <c r="I37" s="21"/>
-      <c r="J37" s="22"/>
       <c r="K37" s="23"/>
       <c r="N37" s="3" t="s">
         <v>64</v>
       </c>
       <c r="O37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P37">
         <v>1</v>
@@ -5933,56 +6513,60 @@
       <c r="R37">
         <v>3</v>
       </c>
-      <c r="S37" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="T37" s="18">
-        <v>0</v>
-      </c>
-      <c r="U37" s="18" t="s">
-        <v>560</v>
-      </c>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7"/>
-      <c r="X37" s="7" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="38" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E38" s="11"/>
+      <c r="S37" t="s">
+        <v>70</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37" s="21" t="s">
+        <v>626</v>
+      </c>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="20"/>
       <c r="F38"/>
       <c r="G38" s="21"/>
       <c r="H38"/>
       <c r="I38" s="21"/>
-      <c r="J38" s="22"/>
       <c r="K38" s="23"/>
       <c r="N38" s="3"/>
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38"/>
       <c r="R38"/>
-      <c r="S38" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="T38" s="18">
-        <v>0</v>
-      </c>
-      <c r="U38" s="20" t="s">
-        <v>561</v>
-      </c>
-      <c r="V38" s="7"/>
-      <c r="W38" s="7"/>
-      <c r="X38" s="18" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E39" s="11"/>
+      <c r="S38" t="s">
+        <v>70</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38" s="21" t="s">
+        <v>630</v>
+      </c>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
       <c r="F39"/>
       <c r="G39" s="21"/>
       <c r="H39"/>
       <c r="I39" s="21"/>
-      <c r="J39" s="22"/>
       <c r="K39" s="23"/>
       <c r="N39" s="3"/>
       <c r="O39"/>
@@ -5992,95 +6576,95 @@
       <c r="S39" t="s">
         <v>70</v>
       </c>
-      <c r="T39" s="18">
-        <v>0</v>
-      </c>
-      <c r="U39" s="18" t="s">
-        <v>560</v>
-      </c>
-      <c r="V39" s="7"/>
-      <c r="W39" s="7"/>
-      <c r="X39" s="7" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="40" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E40" s="11"/>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>536</v>
+      </c>
       <c r="F40"/>
-      <c r="G40" s="21"/>
+      <c r="G40" s="3" t="s">
+        <v>571</v>
+      </c>
       <c r="H40"/>
       <c r="I40" s="21"/>
       <c r="J40" s="22"/>
       <c r="K40" s="23"/>
-      <c r="N40" s="3"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40" t="s">
-        <v>70</v>
+      <c r="N40" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="b">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>3</v>
+      </c>
+      <c r="S40" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="T40" s="18">
         <v>0</v>
       </c>
-      <c r="U40" s="20" t="s">
-        <v>561</v>
+      <c r="U40" s="18" t="s">
+        <v>557</v>
       </c>
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
-      <c r="X40" s="18" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="41" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="18" t="s">
-        <v>550</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>538</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>536</v>
-      </c>
+      <c r="X40" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="11"/>
       <c r="F41"/>
-      <c r="G41" s="3" t="s">
-        <v>571</v>
-      </c>
+      <c r="G41" s="21"/>
       <c r="H41"/>
       <c r="I41" s="21"/>
       <c r="J41" s="22"/>
       <c r="K41" s="23"/>
-      <c r="N41" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O41">
-        <v>3</v>
-      </c>
-      <c r="P41">
-        <v>1</v>
-      </c>
-      <c r="Q41" t="b">
-        <v>1</v>
-      </c>
-      <c r="R41">
-        <v>3</v>
-      </c>
+      <c r="N41" s="3"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
       <c r="S41" s="7" t="s">
         <v>146</v>
       </c>
       <c r="T41" s="18">
         <v>0</v>
       </c>
-      <c r="U41" s="18" t="s">
-        <v>563</v>
+      <c r="U41" s="20" t="s">
+        <v>558</v>
       </c>
       <c r="V41" s="7"/>
       <c r="W41" s="7"/>
-      <c r="X41" s="7" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X41" s="18" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E42" s="11"/>
       <c r="F42"/>
       <c r="G42" s="21"/>
@@ -6093,22 +6677,22 @@
       <c r="P42"/>
       <c r="Q42"/>
       <c r="R42"/>
-      <c r="S42" s="7" t="s">
-        <v>146</v>
+      <c r="S42" t="s">
+        <v>70</v>
       </c>
       <c r="T42" s="18">
         <v>0</v>
       </c>
-      <c r="U42" s="20" t="s">
-        <v>564</v>
+      <c r="U42" s="18" t="s">
+        <v>557</v>
       </c>
       <c r="V42" s="7"/>
       <c r="W42" s="7"/>
-      <c r="X42" s="18" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X42" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E43" s="11"/>
       <c r="F43"/>
       <c r="G43" s="21"/>
@@ -6127,157 +6711,161 @@
       <c r="T43" s="18">
         <v>0</v>
       </c>
-      <c r="U43" s="18" t="s">
-        <v>563</v>
+      <c r="U43" s="20" t="s">
+        <v>558</v>
       </c>
       <c r="V43" s="7"/>
       <c r="W43" s="7"/>
-      <c r="X43" s="7" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E44" s="11"/>
+      <c r="X43" s="18" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>536</v>
+      </c>
       <c r="F44"/>
-      <c r="G44" s="21"/>
+      <c r="G44" s="3" t="s">
+        <v>571</v>
+      </c>
       <c r="H44"/>
       <c r="I44" s="21"/>
       <c r="J44" s="22"/>
       <c r="K44" s="23"/>
-      <c r="N44" s="3"/>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
-      <c r="R44"/>
-      <c r="S44" t="s">
-        <v>70</v>
+      <c r="N44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O44">
+        <v>2</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="b">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>3</v>
+      </c>
+      <c r="S44" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="T44" s="18">
         <v>0</v>
       </c>
-      <c r="U44" s="20" t="s">
-        <v>564</v>
+      <c r="U44" s="18" t="s">
+        <v>560</v>
       </c>
       <c r="V44" s="7"/>
       <c r="W44" s="7"/>
-      <c r="X44" s="18" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="20" t="s">
-        <v>619</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>622</v>
-      </c>
+      <c r="X44" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="11"/>
       <c r="F45"/>
       <c r="G45" s="21"/>
       <c r="H45"/>
       <c r="I45" s="21"/>
       <c r="J45" s="22"/>
       <c r="K45" s="23"/>
-      <c r="N45" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="O45">
-        <v>1</v>
-      </c>
-      <c r="P45">
-        <v>1</v>
-      </c>
-      <c r="Q45" t="b">
-        <v>1</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45"/>
-      <c r="T45"/>
-      <c r="V45"/>
-      <c r="W45"/>
-      <c r="X45" s="3"/>
-    </row>
-    <row r="46" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="20" t="s">
-        <v>620</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>622</v>
-      </c>
+      <c r="N45" s="3"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="T45" s="18">
+        <v>0</v>
+      </c>
+      <c r="U45" s="20" t="s">
+        <v>561</v>
+      </c>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="18" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E46" s="11"/>
       <c r="F46"/>
       <c r="G46" s="21"/>
       <c r="H46"/>
       <c r="I46" s="21"/>
       <c r="J46" s="22"/>
       <c r="K46" s="23"/>
-      <c r="N46" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="O46">
-        <v>1</v>
-      </c>
-      <c r="P46">
-        <v>1</v>
-      </c>
-      <c r="Q46" t="b">
-        <v>1</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46"/>
-      <c r="T46"/>
-      <c r="V46"/>
-      <c r="W46"/>
-      <c r="X46" s="3"/>
-    </row>
-    <row r="47" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="20" t="s">
-        <v>621</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>622</v>
-      </c>
+      <c r="N46" s="3"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46" t="s">
+        <v>70</v>
+      </c>
+      <c r="T46" s="18">
+        <v>0</v>
+      </c>
+      <c r="U46" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E47" s="11"/>
       <c r="F47"/>
       <c r="G47" s="21"/>
       <c r="H47"/>
       <c r="I47" s="21"/>
       <c r="J47" s="22"/>
       <c r="K47" s="23"/>
-      <c r="N47" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="O47">
-        <v>1</v>
-      </c>
-      <c r="P47">
-        <v>1</v>
-      </c>
-      <c r="Q47" t="b">
-        <v>1</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47"/>
-      <c r="T47"/>
-      <c r="V47"/>
-      <c r="W47"/>
-      <c r="X47" s="3"/>
-    </row>
-    <row r="48" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47" t="s">
+        <v>70</v>
+      </c>
+      <c r="T47" s="18">
+        <v>0</v>
+      </c>
+      <c r="U47" s="20" t="s">
+        <v>561</v>
+      </c>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="18" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F48"/>
-      <c r="G48" s="21"/>
+      <c r="G48" s="3" t="s">
+        <v>571</v>
+      </c>
       <c r="H48"/>
       <c r="I48" s="21"/>
       <c r="J48" s="22"/>
@@ -6286,7 +6874,7 @@
         <v>64</v>
       </c>
       <c r="O48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P48">
         <v>1</v>
@@ -6295,16 +6883,16 @@
         <v>1</v>
       </c>
       <c r="R48">
-        <v>1.5</v>
-      </c>
-      <c r="S48" t="s">
-        <v>70</v>
+        <v>3</v>
+      </c>
+      <c r="S48" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="T48" s="18">
         <v>0</v>
       </c>
-      <c r="U48" s="21" t="s">
-        <v>572</v>
+      <c r="U48" s="18" t="s">
+        <v>563</v>
       </c>
       <c r="V48" s="7"/>
       <c r="W48" s="7"/>
@@ -6312,7 +6900,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="49" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E49" s="11"/>
       <c r="F49"/>
       <c r="G49" s="21"/>
@@ -6325,60 +6913,42 @@
       <c r="P49"/>
       <c r="Q49"/>
       <c r="R49"/>
-      <c r="S49" t="s">
-        <v>70</v>
+      <c r="S49" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="T49" s="18">
         <v>0</v>
       </c>
       <c r="U49" s="20" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="V49" s="7"/>
       <c r="W49" s="7"/>
-      <c r="X49" s="7" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="50" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="18" t="s">
-        <v>552</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>541</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>540</v>
-      </c>
+      <c r="X49" s="18" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E50" s="11"/>
       <c r="F50"/>
       <c r="G50" s="21"/>
       <c r="H50"/>
       <c r="I50" s="21"/>
       <c r="J50" s="22"/>
       <c r="K50" s="23"/>
-      <c r="N50" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O50">
-        <v>1</v>
-      </c>
-      <c r="P50">
-        <v>1</v>
-      </c>
-      <c r="Q50" t="b">
-        <v>1</v>
-      </c>
-      <c r="R50">
-        <v>2</v>
-      </c>
+      <c r="N50" s="3"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
       <c r="S50" t="s">
         <v>70</v>
       </c>
       <c r="T50" s="18">
         <v>0</v>
       </c>
-      <c r="U50" s="21" t="s">
-        <v>572</v>
+      <c r="U50" s="18" t="s">
+        <v>563</v>
       </c>
       <c r="V50" s="7"/>
       <c r="W50" s="7"/>
@@ -6386,7 +6956,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="51" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E51" s="11"/>
       <c r="F51"/>
       <c r="G51" s="21"/>
@@ -6406,23 +6976,23 @@
         <v>0</v>
       </c>
       <c r="U51" s="20" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="V51" s="7"/>
       <c r="W51" s="7"/>
-      <c r="X51" s="7" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="52" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="18" t="s">
-        <v>553</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>542</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>540</v>
+      <c r="X51" s="18" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="20" t="s">
+        <v>617</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>645</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>620</v>
       </c>
       <c r="F52"/>
       <c r="G52" s="21"/>
@@ -6431,7 +7001,7 @@
       <c r="J52" s="22"/>
       <c r="K52" s="23"/>
       <c r="N52" s="3" t="s">
-        <v>64</v>
+        <v>211</v>
       </c>
       <c r="O52">
         <v>1</v>
@@ -6443,44 +7013,53 @@
         <v>1</v>
       </c>
       <c r="R52">
-        <v>3</v>
-      </c>
-      <c r="S52" t="s">
-        <v>70</v>
-      </c>
-      <c r="T52" s="18">
-        <v>0</v>
-      </c>
-      <c r="U52" s="21" t="s">
-        <v>572</v>
-      </c>
-      <c r="V52" s="7"/>
-      <c r="W52" s="7"/>
-      <c r="X52" s="7" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="53" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E53" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52" s="3"/>
+    </row>
+    <row r="53" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>646</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>620</v>
+      </c>
       <c r="F53"/>
       <c r="G53" s="21"/>
       <c r="H53"/>
       <c r="I53" s="21"/>
       <c r="J53" s="22"/>
       <c r="K53" s="23"/>
-      <c r="N53" s="3"/>
-      <c r="O53"/>
-      <c r="P53"/>
-      <c r="Q53"/>
-      <c r="R53"/>
-      <c r="S53" t="s">
-        <v>70</v>
+      <c r="N53" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="b">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>3</v>
+      </c>
+      <c r="S53" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="T53" s="18">
         <v>0</v>
       </c>
-      <c r="U53" s="20" t="s">
-        <v>568</v>
+      <c r="U53" s="18" t="s">
+        <v>659</v>
       </c>
       <c r="V53" s="7"/>
       <c r="W53" s="7"/>
@@ -6488,55 +7067,40 @@
         <v>483</v>
       </c>
     </row>
-    <row r="54" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>543</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>544</v>
-      </c>
+    <row r="54" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="E54" s="6"/>
       <c r="F54"/>
       <c r="G54" s="21"/>
       <c r="H54"/>
       <c r="I54" s="21"/>
       <c r="J54" s="22"/>
       <c r="K54" s="23"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O54">
-        <v>1</v>
-      </c>
-      <c r="P54">
-        <v>1</v>
-      </c>
-      <c r="Q54" t="b">
-        <v>1</v>
-      </c>
-      <c r="R54">
-        <v>10</v>
-      </c>
-      <c r="S54" t="s">
-        <v>70</v>
+      <c r="N54" s="3"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="T54" s="18">
-        <v>6</v>
-      </c>
-      <c r="U54" s="18" t="s">
-        <v>569</v>
+        <v>0</v>
+      </c>
+      <c r="U54" s="20" t="s">
+        <v>660</v>
       </c>
       <c r="V54" s="7"/>
       <c r="W54" s="7"/>
-      <c r="X54" s="7" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="55" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E55" s="11"/>
+      <c r="X54" s="18" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="E55" s="6"/>
       <c r="F55"/>
       <c r="G55" s="21"/>
       <c r="H55"/>
@@ -6548,14 +7112,14 @@
       <c r="P55"/>
       <c r="Q55"/>
       <c r="R55"/>
-      <c r="S55" s="7" t="s">
-        <v>146</v>
+      <c r="S55" t="s">
+        <v>70</v>
       </c>
       <c r="T55" s="18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U55" s="18" t="s">
-        <v>569</v>
+        <v>659</v>
       </c>
       <c r="V55" s="7"/>
       <c r="W55" s="7"/>
@@ -6563,90 +7127,82 @@
         <v>483</v>
       </c>
     </row>
-    <row r="56" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="18" t="s">
-        <v>555</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>545</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>544</v>
-      </c>
+    <row r="56" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="E56" s="6"/>
       <c r="F56"/>
       <c r="G56" s="21"/>
       <c r="H56"/>
       <c r="I56" s="21"/>
       <c r="J56" s="22"/>
       <c r="K56" s="23"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O56">
-        <v>1</v>
-      </c>
-      <c r="P56">
-        <v>1</v>
-      </c>
-      <c r="Q56" t="b">
-        <v>1</v>
-      </c>
-      <c r="R56">
-        <v>12</v>
-      </c>
+      <c r="N56" s="3"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
       <c r="S56" t="s">
         <v>70</v>
       </c>
       <c r="T56" s="18">
-        <v>8</v>
-      </c>
-      <c r="U56" s="18" t="s">
-        <v>570</v>
+        <v>0</v>
+      </c>
+      <c r="U56" s="20" t="s">
+        <v>660</v>
       </c>
       <c r="V56" s="7"/>
       <c r="W56" s="7"/>
-      <c r="X56" s="7" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="57" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E57" s="11"/>
+      <c r="X56" s="18" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="20" t="s">
+        <v>619</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>647</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>620</v>
+      </c>
       <c r="F57"/>
       <c r="G57" s="21"/>
       <c r="H57"/>
       <c r="I57" s="21"/>
       <c r="J57" s="22"/>
       <c r="K57" s="23"/>
-      <c r="N57" s="3"/>
-      <c r="O57"/>
-      <c r="P57"/>
-      <c r="Q57"/>
-      <c r="R57"/>
-      <c r="S57" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="T57" s="18">
-        <v>8</v>
-      </c>
-      <c r="U57" s="20" t="s">
-        <v>573</v>
-      </c>
-      <c r="V57" s="7"/>
-      <c r="W57" s="7"/>
-      <c r="X57" s="7" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="58" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="b">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57" s="3"/>
+    </row>
+    <row r="58" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F58"/>
       <c r="G58" s="21"/>
@@ -6667,16 +7223,16 @@
         <v>1</v>
       </c>
       <c r="R58">
-        <v>14</v>
+        <v>1.5</v>
       </c>
       <c r="S58" t="s">
         <v>70</v>
       </c>
       <c r="T58" s="18">
-        <v>10</v>
-      </c>
-      <c r="U58" s="20" t="s">
-        <v>575</v>
+        <v>0</v>
+      </c>
+      <c r="U58" s="21" t="s">
+        <v>572</v>
       </c>
       <c r="V58" s="7"/>
       <c r="W58" s="7"/>
@@ -6684,7 +7240,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="59" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E59" s="11"/>
       <c r="F59"/>
       <c r="G59" s="21"/>
@@ -6697,14 +7253,14 @@
       <c r="P59"/>
       <c r="Q59"/>
       <c r="R59"/>
-      <c r="S59" s="7" t="s">
-        <v>146</v>
+      <c r="S59" t="s">
+        <v>70</v>
       </c>
       <c r="T59" s="18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U59" s="20" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="V59" s="7"/>
       <c r="W59" s="7"/>
@@ -6712,84 +7268,101 @@
         <v>483</v>
       </c>
     </row>
-    <row r="60" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E60" s="11"/>
+    <row r="60" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>540</v>
+      </c>
       <c r="F60"/>
       <c r="G60" s="21"/>
       <c r="H60"/>
       <c r="I60" s="21"/>
       <c r="J60" s="22"/>
       <c r="K60" s="23"/>
-      <c r="N60" s="3"/>
-      <c r="O60"/>
-      <c r="P60"/>
-      <c r="Q60"/>
-      <c r="R60"/>
-      <c r="S60" s="7"/>
-      <c r="U60" s="20"/>
+      <c r="N60" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="b">
+        <v>1</v>
+      </c>
+      <c r="R60">
+        <v>2</v>
+      </c>
+      <c r="S60" t="s">
+        <v>70</v>
+      </c>
+      <c r="T60" s="18">
+        <v>0</v>
+      </c>
+      <c r="U60" s="21" t="s">
+        <v>572</v>
+      </c>
       <c r="V60" s="7"/>
       <c r="W60" s="7"/>
-      <c r="X60" s="7"/>
-    </row>
-    <row r="61" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="21" t="s">
-        <v>517</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>518</v>
-      </c>
-      <c r="F61" t="s">
-        <v>219</v>
-      </c>
-      <c r="G61"/>
+      <c r="X60" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E61" s="11"/>
+      <c r="F61"/>
+      <c r="G61" s="21"/>
       <c r="H61"/>
-      <c r="I61"/>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61" s="21" t="s">
-        <v>519</v>
-      </c>
-      <c r="M61"/>
-      <c r="N61" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O61">
-        <v>1</v>
-      </c>
-      <c r="P61">
-        <v>1</v>
-      </c>
-      <c r="Q61" t="b">
-        <v>1</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61"/>
-      <c r="T61"/>
-      <c r="U61"/>
-    </row>
-    <row r="62" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="21" t="s">
-        <v>520</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>521</v>
-      </c>
-      <c r="F62" t="s">
-        <v>279</v>
-      </c>
-      <c r="G62"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="23"/>
+      <c r="N61" s="3"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61" t="s">
+        <v>70</v>
+      </c>
+      <c r="T61" s="18">
+        <v>0</v>
+      </c>
+      <c r="U61" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="20" t="s">
+        <v>667</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>666</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="F62"/>
+      <c r="G62" s="21"/>
       <c r="H62"/>
-      <c r="I62"/>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="L62" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="M62"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="20" t="s">
+        <v>668</v>
+      </c>
       <c r="N62" s="3" t="s">
-        <v>277</v>
+        <v>211</v>
       </c>
       <c r="O62">
         <v>1</v>
@@ -6803,35 +7376,30 @@
       <c r="R62">
         <v>0</v>
       </c>
-      <c r="S62" t="s">
-        <v>72</v>
-      </c>
-      <c r="T62">
-        <v>0</v>
-      </c>
-      <c r="U62" t="s">
-        <v>84</v>
-      </c>
-      <c r="V62"/>
-      <c r="W62"/>
-      <c r="X62" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="63" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="20" t="s">
-        <v>526</v>
+      <c r="S62"/>
+      <c r="U62" s="20"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+      <c r="X62" s="7"/>
+    </row>
+    <row r="63" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>542</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="F63"/>
+      <c r="G63" s="21"/>
       <c r="H63"/>
       <c r="I63" s="21"/>
       <c r="J63" s="22"/>
       <c r="K63" s="23"/>
       <c r="N63" s="3" t="s">
-        <v>211</v>
+        <v>64</v>
       </c>
       <c r="O63">
         <v>1</v>
@@ -6843,54 +7411,60 @@
         <v>1</v>
       </c>
       <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63"/>
-      <c r="T63"/>
-      <c r="V63"/>
-      <c r="W63"/>
-      <c r="X63" s="3"/>
-    </row>
-    <row r="64" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>536</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S63" t="s">
+        <v>70</v>
+      </c>
+      <c r="T63" s="18">
+        <v>0</v>
+      </c>
+      <c r="U63" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E64" s="11"/>
       <c r="F64"/>
       <c r="G64" s="21"/>
       <c r="H64"/>
       <c r="I64" s="21"/>
       <c r="J64" s="22"/>
       <c r="K64" s="23"/>
-      <c r="N64" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="O64">
-        <v>1</v>
-      </c>
-      <c r="P64">
-        <v>1</v>
-      </c>
-      <c r="Q64" t="b">
-        <v>1</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-      <c r="S64"/>
-      <c r="T64"/>
-      <c r="V64"/>
-      <c r="W64"/>
-      <c r="X64" s="3"/>
-    </row>
-    <row r="65" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="20" t="s">
-        <v>528</v>
+      <c r="N64" s="3"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64" t="s">
+        <v>70</v>
+      </c>
+      <c r="T64" s="18">
+        <v>0</v>
+      </c>
+      <c r="U64" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>543</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>536</v>
+        <v>681</v>
       </c>
       <c r="F65"/>
       <c r="G65" s="21"/>
@@ -6898,8 +7472,9 @@
       <c r="I65" s="21"/>
       <c r="J65" s="22"/>
       <c r="K65" s="23"/>
+      <c r="M65" s="20"/>
       <c r="N65" s="3" t="s">
-        <v>211</v>
+        <v>64</v>
       </c>
       <c r="O65">
         <v>1</v>
@@ -6911,54 +7486,60 @@
         <v>1</v>
       </c>
       <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65"/>
-      <c r="T65"/>
-      <c r="V65"/>
-      <c r="W65"/>
-      <c r="X65" s="3"/>
-    </row>
-    <row r="66" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="20" t="s">
-        <v>529</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>540</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="S65" t="s">
+        <v>70</v>
+      </c>
+      <c r="T65" s="18">
+        <v>6</v>
+      </c>
+      <c r="U65" s="18" t="s">
+        <v>569</v>
+      </c>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E66" s="11"/>
       <c r="F66"/>
       <c r="G66" s="21"/>
       <c r="H66"/>
       <c r="I66" s="21"/>
       <c r="J66" s="22"/>
       <c r="K66" s="23"/>
-      <c r="N66" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="O66">
-        <v>1</v>
-      </c>
-      <c r="P66">
-        <v>10</v>
-      </c>
-      <c r="Q66" t="b">
-        <v>1</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66"/>
-      <c r="T66"/>
-      <c r="V66"/>
-      <c r="W66"/>
-      <c r="X66" s="3"/>
-    </row>
-    <row r="67" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="20" t="s">
-        <v>530</v>
+      <c r="N66" s="3"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="T66" s="18">
+        <v>6</v>
+      </c>
+      <c r="U66" s="18" t="s">
+        <v>569</v>
+      </c>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>545</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="F67"/>
       <c r="G67" s="21"/>
@@ -6966,262 +7547,1085 @@
       <c r="I67" s="21"/>
       <c r="J67" s="22"/>
       <c r="K67" s="23"/>
+      <c r="M67" s="20"/>
       <c r="N67" s="3" t="s">
-        <v>211</v>
+        <v>64</v>
       </c>
       <c r="O67">
         <v>1</v>
       </c>
       <c r="P67">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q67" t="b">
         <v>1</v>
       </c>
       <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="S67"/>
-      <c r="T67"/>
-      <c r="V67"/>
-      <c r="W67"/>
-      <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="20" t="s">
-        <v>531</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>540</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="S67" t="s">
+        <v>70</v>
+      </c>
+      <c r="T67" s="18">
+        <v>4</v>
+      </c>
+      <c r="U67" s="18" t="s">
+        <v>570</v>
+      </c>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E68" s="11"/>
       <c r="F68"/>
       <c r="G68" s="21"/>
       <c r="H68"/>
       <c r="I68" s="21"/>
       <c r="J68" s="22"/>
       <c r="K68" s="23"/>
-      <c r="N68" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="O68">
-        <v>1</v>
-      </c>
-      <c r="P68">
-        <v>10</v>
-      </c>
-      <c r="Q68" t="b">
-        <v>1</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-      <c r="S68"/>
-      <c r="T68"/>
-      <c r="V68"/>
-      <c r="W68"/>
-      <c r="X68" s="3"/>
-    </row>
-    <row r="69" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="18" t="s">
-        <v>532</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="F69" t="s">
-        <v>547</v>
-      </c>
+      <c r="M68" s="20"/>
+      <c r="N68" s="3"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68" t="s">
+        <v>70</v>
+      </c>
+      <c r="T68" s="18">
+        <v>0</v>
+      </c>
+      <c r="U68" s="20" t="s">
+        <v>678</v>
+      </c>
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E69" s="11"/>
+      <c r="F69"/>
       <c r="G69" s="21"/>
       <c r="H69"/>
       <c r="I69" s="21"/>
       <c r="J69" s="22"/>
       <c r="K69" s="23"/>
-      <c r="L69" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="M69" t="s">
-        <v>618</v>
-      </c>
-      <c r="N69" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="O69">
-        <v>1</v>
-      </c>
-      <c r="P69">
-        <v>1</v>
-      </c>
-      <c r="Q69" t="b">
-        <v>1</v>
-      </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-      <c r="S69"/>
-      <c r="T69"/>
-      <c r="V69"/>
-      <c r="W69"/>
-      <c r="X69" s="3"/>
-    </row>
-    <row r="70" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="18" t="s">
-        <v>533</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="F70" t="s">
-        <v>547</v>
-      </c>
+      <c r="N69" s="3"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="T69" s="18">
+        <v>4</v>
+      </c>
+      <c r="U69" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E70" s="11"/>
+      <c r="F70"/>
       <c r="G70" s="21"/>
       <c r="H70"/>
       <c r="I70" s="21"/>
       <c r="J70" s="22"/>
       <c r="K70" s="23"/>
-      <c r="L70" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="M70" t="s">
-        <v>618</v>
-      </c>
-      <c r="N70" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="O70">
-        <v>1</v>
-      </c>
-      <c r="P70">
-        <v>1</v>
-      </c>
-      <c r="Q70" t="b">
-        <v>1</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N70" s="3"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="T70" s="18">
+        <v>0</v>
+      </c>
+      <c r="U70" s="20" t="s">
+        <v>678</v>
+      </c>
+      <c r="V70" s="7"/>
+      <c r="W70" s="7"/>
+      <c r="X70" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="18" t="s">
-        <v>534</v>
+        <v>556</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>546</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="F71" t="s">
-        <v>547</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="F71"/>
       <c r="G71" s="21"/>
       <c r="H71"/>
       <c r="I71" s="21"/>
       <c r="J71" s="22"/>
       <c r="K71" s="23"/>
-      <c r="L71" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="M71" t="s">
-        <v>618</v>
-      </c>
       <c r="N71" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="b">
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <v>6</v>
+      </c>
+      <c r="S71" t="s">
+        <v>70</v>
+      </c>
+      <c r="T71" s="18">
+        <v>0</v>
+      </c>
+      <c r="U71" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="20" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E72" s="11"/>
+      <c r="F72"/>
+      <c r="G72" s="21"/>
+      <c r="H72"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="23"/>
+      <c r="N72" s="3"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72" t="s">
+        <v>70</v>
+      </c>
+      <c r="T72" s="18">
+        <v>0</v>
+      </c>
+      <c r="U72" s="18" t="s">
+        <v>683</v>
+      </c>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E73" s="11"/>
+      <c r="F73"/>
+      <c r="G73" s="21"/>
+      <c r="H73"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="23"/>
+      <c r="N73" s="3"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="T73" s="18">
+        <v>0</v>
+      </c>
+      <c r="U73" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="20" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E74" s="11"/>
+      <c r="F74"/>
+      <c r="G74" s="21"/>
+      <c r="H74"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="23"/>
+      <c r="N74" s="3"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="T74" s="18">
+        <v>0</v>
+      </c>
+      <c r="U74" s="18" t="s">
+        <v>683</v>
+      </c>
+      <c r="V74" s="7"/>
+      <c r="W74" s="7"/>
+      <c r="X74" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E75" s="11"/>
+      <c r="F75"/>
+      <c r="G75" s="21"/>
+      <c r="H75"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="23"/>
+      <c r="N75" s="3"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75" s="7"/>
+      <c r="U75" s="20"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+    </row>
+    <row r="76" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>648</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="F76" t="s">
+        <v>219</v>
+      </c>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76" s="21" t="s">
+        <v>519</v>
+      </c>
+      <c r="M76"/>
+      <c r="N76" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="P76">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="b">
+        <v>1</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="T76"/>
+      <c r="U76" s="20" t="s">
+        <v>689</v>
+      </c>
+      <c r="X76" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="21"/>
+      <c r="C77" s="20"/>
+      <c r="E77" s="21"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77" s="21"/>
+      <c r="M77"/>
+      <c r="N77" s="3"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="T77"/>
+      <c r="U77" s="20" t="s">
+        <v>690</v>
+      </c>
+      <c r="X77" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="78" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>649</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="F78" t="s">
+        <v>279</v>
+      </c>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="M78"/>
+      <c r="N78" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="b">
+        <v>1</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78" t="s">
+        <v>72</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78" t="s">
+        <v>84</v>
+      </c>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>650</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="F79"/>
+      <c r="H79"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="23"/>
+      <c r="N79" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="O71">
-        <v>1</v>
-      </c>
-      <c r="P71">
-        <v>1</v>
-      </c>
-      <c r="Q71" t="b">
-        <v>1</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B72" s="18" t="s">
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="b">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="V79"/>
+      <c r="W79"/>
+      <c r="X79" s="3"/>
+    </row>
+    <row r="80" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="F80"/>
+      <c r="G80" s="21"/>
+      <c r="H80"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="23"/>
+      <c r="N80" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="b">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80" s="3"/>
+    </row>
+    <row r="81" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>652</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="G81" s="21"/>
+      <c r="H81"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="21" t="s">
+        <v>637</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81" t="b">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81"/>
+      <c r="T81"/>
+      <c r="V81"/>
+      <c r="W81"/>
+      <c r="X81" s="3"/>
+    </row>
+    <row r="82" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="20" t="s">
+        <v>662</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>663</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="F82" s="7"/>
+      <c r="G82" s="21"/>
+      <c r="H82"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="21" t="s">
+        <v>665</v>
+      </c>
+      <c r="N82" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="b">
+        <v>1</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82"/>
+      <c r="T82"/>
+      <c r="V82"/>
+      <c r="W82"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>653</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="F83"/>
+      <c r="G83" s="21"/>
+      <c r="H83"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="23"/>
+      <c r="N83" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="P83">
+        <v>10</v>
+      </c>
+      <c r="Q83" t="b">
+        <v>1</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83" s="3"/>
+    </row>
+    <row r="84" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="F84" s="7"/>
+      <c r="G84" s="21"/>
+      <c r="H84"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="21"/>
+      <c r="N84" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="O84">
+        <v>1</v>
+      </c>
+      <c r="P84">
+        <v>10</v>
+      </c>
+      <c r="Q84" t="b">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+      <c r="X84" s="3"/>
+    </row>
+    <row r="85" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="F85" s="7"/>
+      <c r="G85" s="21"/>
+      <c r="H85"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="21"/>
+      <c r="N85" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="O85">
+        <v>1</v>
+      </c>
+      <c r="P85">
+        <v>10</v>
+      </c>
+      <c r="Q85" t="b">
+        <v>1</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85" s="3"/>
+    </row>
+    <row r="86" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="20" t="s">
+        <v>669</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="F86" s="7"/>
+      <c r="G86" s="21"/>
+      <c r="H86"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="21" t="s">
+        <v>672</v>
+      </c>
+      <c r="N86" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="b">
+        <v>1</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86" t="s">
+        <v>72</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="87" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>654</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="G87" s="21"/>
+      <c r="H87"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="23"/>
+      <c r="L87" s="20" t="s">
+        <v>668</v>
+      </c>
+      <c r="M87" s="20" t="s">
+        <v>679</v>
+      </c>
+      <c r="N87" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="P87">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="b">
+        <v>1</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87"/>
+      <c r="T87"/>
+      <c r="V87"/>
+      <c r="W87"/>
+      <c r="X87" s="3"/>
+    </row>
+    <row r="88" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>674</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="G88" s="21"/>
+      <c r="H88"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="23"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="18" t="s">
+        <v>616</v>
+      </c>
+      <c r="N88" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
+      <c r="P88">
+        <v>1</v>
+      </c>
+      <c r="Q88" t="b">
+        <v>1</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88"/>
+      <c r="T88"/>
+      <c r="V88"/>
+      <c r="W88"/>
+      <c r="X88" s="3"/>
+    </row>
+    <row r="89" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>675</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="F89" s="7"/>
+      <c r="G89" s="21"/>
+      <c r="H89"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="23"/>
+      <c r="L89" s="20" t="s">
+        <v>684</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="b">
+        <v>1</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89"/>
+      <c r="T89"/>
+      <c r="V89"/>
+      <c r="W89"/>
+      <c r="X89" s="3"/>
+    </row>
+    <row r="90" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="20" t="s">
         <v>469</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="C90" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="E90" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="L72" s="6"/>
-      <c r="N72" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O72">
-        <v>1</v>
-      </c>
-      <c r="P72">
-        <v>1</v>
-      </c>
-      <c r="Q72" t="b">
-        <v>1</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="X72" s="3"/>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B73" s="18" t="s">
+      <c r="F90" s="7"/>
+      <c r="G90" s="21"/>
+      <c r="H90"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="23"/>
+      <c r="L90" s="21"/>
+      <c r="N90" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90">
+        <v>1</v>
+      </c>
+      <c r="Q90" t="b">
+        <v>1</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90"/>
+      <c r="T90"/>
+      <c r="V90"/>
+      <c r="W90"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="C91" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="E91" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="L73" s="6"/>
-      <c r="N73" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O73">
-        <v>1</v>
-      </c>
-      <c r="P73">
-        <v>1</v>
-      </c>
-      <c r="Q73" t="b">
-        <v>1</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="X73" s="3"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="21"/>
+      <c r="H91"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="21"/>
+      <c r="N91" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="P91">
+        <v>1</v>
+      </c>
+      <c r="Q91" t="b">
+        <v>1</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91"/>
+      <c r="T91"/>
+      <c r="V91"/>
+      <c r="W91"/>
+      <c r="X91" s="3"/>
+    </row>
+    <row r="92" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="20" t="s">
+        <v>624</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>657</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="F92" s="7"/>
+      <c r="G92" s="21"/>
+      <c r="H92"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="23"/>
+      <c r="L92" s="21" t="s">
+        <v>676</v>
+      </c>
+      <c r="N92" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+      <c r="P92">
+        <v>1</v>
+      </c>
+      <c r="Q92" t="b">
+        <v>1</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92"/>
+      <c r="T92"/>
+      <c r="V92"/>
+      <c r="W92"/>
+      <c r="X92" s="3"/>
+    </row>
+    <row r="93" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="20" t="s">
+        <v>631</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>658</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="G93" s="21"/>
+      <c r="H93"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="23"/>
+      <c r="L93" s="21" t="s">
+        <v>633</v>
+      </c>
+      <c r="N93" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="O93">
+        <v>1</v>
+      </c>
+      <c r="P93">
+        <v>1</v>
+      </c>
+      <c r="Q93" t="b">
+        <v>1</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93"/>
+      <c r="T93"/>
+      <c r="V93"/>
+      <c r="W93"/>
+      <c r="X93" s="3"/>
+    </row>
+    <row r="95" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="F95" s="7"/>
+    </row>
+    <row r="96" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="F96" s="7"/>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="S1:X1"/>
     <mergeCell ref="S4:X4"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="B33:B44 B48:B60">
-    <cfRule type="duplicateValues" dxfId="28" priority="11"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="B40:B51 B58:B61 B63:B75">
+    <cfRule type="duplicateValues" dxfId="40" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63:B71">
-    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
+  <conditionalFormatting sqref="B52:B57">
+    <cfRule type="duplicateValues" dxfId="39" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72:B73">
-    <cfRule type="duplicateValues" dxfId="26" priority="3"/>
+  <conditionalFormatting sqref="B62">
+    <cfRule type="duplicateValues" dxfId="38" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X34">
-    <cfRule type="duplicateValues" dxfId="25" priority="10"/>
+  <conditionalFormatting sqref="B79:B81 B83">
+    <cfRule type="duplicateValues" dxfId="37" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X36">
-    <cfRule type="duplicateValues" dxfId="24" priority="9"/>
+  <conditionalFormatting sqref="B82">
+    <cfRule type="duplicateValues" dxfId="36" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X38">
-    <cfRule type="duplicateValues" dxfId="23" priority="8"/>
+  <conditionalFormatting sqref="B84:B93">
+    <cfRule type="duplicateValues" dxfId="35" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X40">
-    <cfRule type="duplicateValues" dxfId="22" priority="7"/>
+  <conditionalFormatting sqref="L62">
+    <cfRule type="duplicateValues" dxfId="34" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X42">
-    <cfRule type="duplicateValues" dxfId="21" priority="6"/>
+  <conditionalFormatting sqref="L87">
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X44">
-    <cfRule type="duplicateValues" dxfId="20" priority="5"/>
+  <conditionalFormatting sqref="L89">
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45:B47">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="U26">
+    <cfRule type="duplicateValues" dxfId="31" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U28">
+    <cfRule type="duplicateValues" dxfId="30" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U68">
+    <cfRule type="duplicateValues" dxfId="29" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U70">
+    <cfRule type="duplicateValues" dxfId="28" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X41">
+    <cfRule type="duplicateValues" dxfId="27" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X43">
+    <cfRule type="duplicateValues" dxfId="26" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X45">
+    <cfRule type="duplicateValues" dxfId="25" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X47">
+    <cfRule type="duplicateValues" dxfId="24" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X49">
+    <cfRule type="duplicateValues" dxfId="23" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X51">
+    <cfRule type="duplicateValues" dxfId="22" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X54">
+    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X56">
+    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X71">
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X73">
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7232,33 +8636,33 @@
   <dimension ref="A1:AL182"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D148" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A183" sqref="A183:XFD195"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="12" width="4.375" customWidth="1"/>
-    <col min="13" max="13" width="9.625" customWidth="1"/>
-    <col min="14" max="16" width="8.875" customWidth="1"/>
-    <col min="17" max="17" width="5.75" customWidth="1"/>
-    <col min="18" max="18" width="10.125" customWidth="1"/>
-    <col min="19" max="19" width="13.625" customWidth="1"/>
-    <col min="20" max="20" width="3.625" customWidth="1"/>
-    <col min="21" max="21" width="40.375" customWidth="1"/>
-    <col min="22" max="23" width="4.375" customWidth="1"/>
-    <col min="24" max="24" width="30.375" customWidth="1"/>
+    <col min="7" max="12" width="4.33203125" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" customWidth="1"/>
+    <col min="14" max="16" width="8.88671875" customWidth="1"/>
+    <col min="17" max="17" width="5.77734375" customWidth="1"/>
+    <col min="18" max="18" width="10.109375" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" customWidth="1"/>
+    <col min="20" max="20" width="3.6640625" customWidth="1"/>
+    <col min="21" max="21" width="40.33203125" customWidth="1"/>
+    <col min="22" max="23" width="4.33203125" customWidth="1"/>
+    <col min="24" max="24" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -7336,7 +8740,7 @@
       <c r="AK1"/>
       <c r="AL1"/>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -7390,7 +8794,7 @@
       <c r="AK2"/>
       <c r="AL2"/>
     </row>
-    <row r="3" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -7428,7 +8832,7 @@
       <c r="AK3"/>
       <c r="AL3"/>
     </row>
-    <row r="4" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>25</v>
       </c>
@@ -7506,7 +8910,7 @@
       <c r="AK4"/>
       <c r="AL4"/>
     </row>
-    <row r="5" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>38</v>
       </c>
@@ -7546,7 +8950,7 @@
       <c r="AK5"/>
       <c r="AL5"/>
     </row>
-    <row r="6" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>40</v>
       </c>
@@ -7630,7 +9034,7 @@
       <c r="AK6"/>
       <c r="AL6"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>220</v>
       </c>
@@ -7665,7 +9069,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="N8" s="3"/>
       <c r="S8" t="s">
         <v>70</v>
@@ -7680,7 +9084,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>221</v>
       </c>
@@ -7715,7 +9119,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="N10" s="3"/>
       <c r="S10" t="s">
         <v>70</v>
@@ -7730,7 +9134,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>222</v>
       </c>
@@ -7765,7 +9169,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="N12" s="3"/>
       <c r="S12" t="s">
         <v>70</v>
@@ -7780,7 +9184,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>223</v>
       </c>
@@ -7815,7 +9219,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="N14" s="3"/>
       <c r="S14" t="s">
         <v>70</v>
@@ -7830,7 +9234,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>224</v>
       </c>
@@ -7865,7 +9269,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="N16" s="3"/>
       <c r="S16" t="s">
         <v>70</v>
@@ -7880,7 +9284,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>225</v>
       </c>
@@ -7915,7 +9319,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>226</v>
       </c>
@@ -7950,7 +9354,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>227</v>
       </c>
@@ -7985,7 +9389,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>228</v>
       </c>
@@ -8020,7 +9424,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N21" s="3"/>
       <c r="S21" t="s">
         <v>70</v>
@@ -8035,7 +9439,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>229</v>
       </c>
@@ -8070,7 +9474,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>230</v>
       </c>
@@ -8105,7 +9509,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N24" s="3"/>
       <c r="S24" t="s">
         <v>70</v>
@@ -8120,7 +9524,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>231</v>
       </c>
@@ -8155,7 +9559,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N26" s="3"/>
       <c r="S26" t="s">
         <v>70</v>
@@ -8170,7 +9574,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>282</v>
       </c>
@@ -8205,7 +9609,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N28" s="3"/>
       <c r="S28" t="s">
         <v>70</v>
@@ -8220,7 +9624,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>232</v>
       </c>
@@ -8255,7 +9659,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N30" s="3"/>
       <c r="S30" t="s">
         <v>70</v>
@@ -8270,7 +9674,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>233</v>
       </c>
@@ -8305,7 +9709,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N32" s="3"/>
       <c r="S32" t="s">
         <v>70</v>
@@ -8320,7 +9724,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>234</v>
       </c>
@@ -8355,7 +9759,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>235</v>
       </c>
@@ -8390,7 +9794,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="N35" s="3"/>
       <c r="S35" t="s">
         <v>70</v>
@@ -8405,7 +9809,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>236</v>
       </c>
@@ -8440,7 +9844,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="N37" s="3"/>
       <c r="S37" t="s">
         <v>70</v>
@@ -8455,7 +9859,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>265</v>
       </c>
@@ -8485,7 +9889,7 @@
       </c>
       <c r="X38" s="3"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" t="s">
         <v>266</v>
@@ -8516,7 +9920,7 @@
       </c>
       <c r="X39" s="3"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>267</v>
       </c>
@@ -8546,7 +9950,7 @@
       </c>
       <c r="X40" s="3"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>268</v>
       </c>
@@ -8576,7 +9980,7 @@
       </c>
       <c r="X41" s="3"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>269</v>
       </c>
@@ -8606,7 +10010,7 @@
       </c>
       <c r="X42" s="3"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
         <v>273</v>
       </c>
@@ -8647,7 +10051,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>274</v>
       </c>
@@ -8688,7 +10092,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>285</v>
       </c>
@@ -8729,7 +10133,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>275</v>
       </c>
@@ -8770,7 +10174,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>276</v>
       </c>
@@ -8811,7 +10215,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="s">
         <v>373</v>
       </c>
@@ -8846,7 +10250,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N50" s="3"/>
       <c r="S50" t="s">
         <v>70</v>
@@ -8861,7 +10265,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="s">
         <v>374</v>
       </c>
@@ -8896,7 +10300,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N52" s="3"/>
       <c r="S52" t="s">
         <v>70</v>
@@ -8911,7 +10315,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B53" s="18" t="s">
         <v>375</v>
       </c>
@@ -8946,7 +10350,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N54" s="3"/>
       <c r="S54" t="s">
         <v>70</v>
@@ -8961,7 +10365,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" s="18" t="s">
         <v>376</v>
       </c>
@@ -8996,7 +10400,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N56" s="3"/>
       <c r="S56" t="s">
         <v>70</v>
@@ -9011,7 +10415,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B57" s="18" t="s">
         <v>377</v>
       </c>
@@ -9046,7 +10450,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N58" s="3"/>
       <c r="S58" t="s">
         <v>70</v>
@@ -9061,7 +10465,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B59" s="18" t="s">
         <v>378</v>
       </c>
@@ -9096,7 +10500,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N60" s="3"/>
       <c r="S60" t="s">
         <v>70</v>
@@ -9111,7 +10515,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B61" s="18" t="s">
         <v>379</v>
       </c>
@@ -9146,7 +10550,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N62" s="3"/>
       <c r="S62" t="s">
         <v>70</v>
@@ -9161,7 +10565,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B63" s="18" t="s">
         <v>442</v>
       </c>
@@ -9196,7 +10600,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B64" s="18" t="s">
         <v>443</v>
       </c>
@@ -9231,7 +10635,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B65" s="18" t="s">
         <v>444</v>
       </c>
@@ -9266,7 +10670,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B66" s="18" t="s">
         <v>445</v>
       </c>
@@ -9301,7 +10705,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B67" s="18" t="s">
         <v>446</v>
       </c>
@@ -9336,7 +10740,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B68" s="18" t="s">
         <v>447</v>
       </c>
@@ -9371,7 +10775,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B69" s="18" t="s">
         <v>448</v>
       </c>
@@ -9406,7 +10810,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B70" s="18" t="s">
         <v>449</v>
       </c>
@@ -9441,7 +10845,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B71" s="18" t="s">
         <v>450</v>
       </c>
@@ -9476,7 +10880,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B72" s="18"/>
       <c r="E72" s="19"/>
       <c r="N72" s="3"/>
@@ -9493,7 +10897,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B73" s="18" t="s">
         <v>451</v>
       </c>
@@ -9528,7 +10932,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B74" s="18"/>
       <c r="E74" s="19"/>
       <c r="N74" s="3"/>
@@ -9545,7 +10949,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B75" s="18" t="s">
         <v>452</v>
       </c>
@@ -9580,7 +10984,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B76" s="18"/>
       <c r="E76" s="19"/>
       <c r="N76" s="3"/>
@@ -9597,7 +11001,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B77" s="18" t="s">
         <v>453</v>
       </c>
@@ -9632,7 +11036,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B78" s="18"/>
       <c r="E78" s="19"/>
       <c r="N78" s="3"/>
@@ -9649,7 +11053,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B79" s="18" t="s">
         <v>454</v>
       </c>
@@ -9684,7 +11088,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B80" s="18"/>
       <c r="E80" s="19"/>
       <c r="N80" s="3"/>
@@ -9701,7 +11105,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="81" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B81" s="18" t="s">
         <v>455</v>
       </c>
@@ -9736,7 +11140,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="82" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N82" s="3"/>
       <c r="S82" t="s">
         <v>70</v>
@@ -9751,7 +11155,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="83" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B83" s="18" t="s">
         <v>456</v>
       </c>
@@ -9786,7 +11190,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="84" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N84" s="3"/>
       <c r="S84" t="s">
         <v>70</v>
@@ -9801,7 +11205,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="85" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B85" s="18" t="s">
         <v>467</v>
       </c>
@@ -9836,7 +11240,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="86" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N86" s="3"/>
       <c r="S86" t="s">
         <v>70</v>
@@ -9851,7 +11255,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="87" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B87" s="18" t="s">
         <v>468</v>
       </c>
@@ -9886,7 +11290,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="88" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N88" s="3"/>
       <c r="S88" t="s">
         <v>70</v>
@@ -9901,12 +11305,12 @@
         <v>486</v>
       </c>
     </row>
-    <row r="89" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N89" s="3"/>
       <c r="U89" s="18"/>
       <c r="X89" s="3"/>
     </row>
-    <row r="90" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B90" s="18" t="s">
         <v>418</v>
       </c>
@@ -9936,7 +11340,7 @@
       </c>
       <c r="X90" s="3"/>
     </row>
-    <row r="91" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B91" s="18" t="s">
         <v>419</v>
       </c>
@@ -9966,7 +11370,7 @@
       </c>
       <c r="X91" s="3"/>
     </row>
-    <row r="92" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B92" s="18" t="s">
         <v>420</v>
       </c>
@@ -9996,7 +11400,7 @@
       </c>
       <c r="X92" s="3"/>
     </row>
-    <row r="93" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B93" s="18" t="s">
         <v>421</v>
       </c>
@@ -10026,7 +11430,7 @@
       </c>
       <c r="X93" s="3"/>
     </row>
-    <row r="94" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B94" s="18" t="s">
         <v>422</v>
       </c>
@@ -10056,7 +11460,7 @@
       </c>
       <c r="X94" s="3"/>
     </row>
-    <row r="95" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B95" s="18" t="s">
         <v>423</v>
       </c>
@@ -10086,7 +11490,7 @@
       </c>
       <c r="X95" s="3"/>
     </row>
-    <row r="96" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B96" s="18" t="s">
         <v>424</v>
       </c>
@@ -10116,7 +11520,7 @@
       </c>
       <c r="X96" s="3"/>
     </row>
-    <row r="97" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B97" s="18" t="s">
         <v>425</v>
       </c>
@@ -10146,7 +11550,7 @@
       </c>
       <c r="X97" s="3"/>
     </row>
-    <row r="98" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B98" s="18" t="s">
         <v>435</v>
       </c>
@@ -10187,7 +11591,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="99" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B99" s="18" t="s">
         <v>436</v>
       </c>
@@ -10228,7 +11632,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="100" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B100" s="18" t="s">
         <v>437</v>
       </c>
@@ -10269,7 +11673,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="101" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B101" s="18" t="s">
         <v>438</v>
       </c>
@@ -10310,7 +11714,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="102" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B102" s="18" t="s">
         <v>439</v>
       </c>
@@ -10351,7 +11755,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="103" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B103" s="18" t="s">
         <v>440</v>
       </c>
@@ -10392,7 +11796,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="104" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B104" s="18" t="s">
         <v>465</v>
       </c>
@@ -10428,22 +11832,22 @@
         <v>483</v>
       </c>
     </row>
-    <row r="105" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B105" s="18"/>
       <c r="E105" s="6"/>
       <c r="L105" s="6"/>
       <c r="N105" s="3"/>
       <c r="X105" s="3"/>
     </row>
-    <row r="106" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X106" s="14"/>
     </row>
-    <row r="107" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:24" x14ac:dyDescent="0.25">
       <c r="N107" s="3"/>
       <c r="U107" s="18"/>
       <c r="X107" s="3"/>
     </row>
-    <row r="108" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B108" s="3" t="s">
         <v>288</v>
       </c>
@@ -10488,7 +11892,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="109" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="R109" s="14"/>
@@ -10505,7 +11909,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="110" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="R110" s="14"/>
@@ -10522,7 +11926,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="111" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B111" s="3" t="s">
         <v>289</v>
       </c>
@@ -10559,7 +11963,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="112" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="R112" s="14"/>
@@ -10576,7 +11980,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="113" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B113" s="3" t="s">
         <v>290</v>
       </c>
@@ -10610,10 +12014,10 @@
         <v>491</v>
       </c>
     </row>
-    <row r="114" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="R114" s="14"/>
     </row>
-    <row r="115" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B115" s="3" t="s">
         <v>298</v>
       </c>
@@ -10648,8 +12052,8 @@
         <v>483</v>
       </c>
     </row>
-    <row r="116" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B117" s="3" t="s">
         <v>299</v>
       </c>
@@ -10684,7 +12088,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="118" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B118" s="3" t="s">
         <v>300</v>
       </c>
@@ -10707,7 +12111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B119" s="3" t="s">
         <v>305</v>
       </c>
@@ -10745,7 +12149,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="120" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="S120" s="3" t="s">
         <v>115</v>
       </c>
@@ -10759,7 +12163,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="121" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B121" s="5" t="s">
         <v>309</v>
       </c>
@@ -10797,7 +12201,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="122" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="R122" s="15"/>
       <c r="S122" s="5" t="s">
         <v>70</v>
@@ -10812,7 +12216,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="123" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B123" s="5" t="s">
         <v>310</v>
       </c>
@@ -10850,7 +12254,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="124" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="R124" s="15"/>
       <c r="S124" s="5" t="s">
         <v>70</v>
@@ -10865,7 +12269,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="125" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" s="5" t="s">
         <v>311</v>
       </c>
@@ -10903,7 +12307,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="126" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="R126" s="15"/>
       <c r="S126" s="5" t="s">
         <v>70</v>
@@ -10918,10 +12322,10 @@
         <v>483</v>
       </c>
     </row>
-    <row r="127" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="R127" s="15"/>
     </row>
-    <row r="128" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="5" t="s">
         <v>312</v>
       </c>
@@ -10956,7 +12360,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="129" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B129" s="5" t="s">
         <v>313</v>
       </c>
@@ -10985,10 +12389,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="R130" s="15"/>
     </row>
-    <row r="131" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B131" s="3" t="s">
         <v>314</v>
       </c>
@@ -11030,7 +12434,7 @@
       <c r="Z131" s="6"/>
       <c r="AA131" s="6"/>
     </row>
-    <row r="132" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B132" s="3" t="s">
         <v>315</v>
       </c>
@@ -11072,7 +12476,7 @@
       <c r="Z132" s="6"/>
       <c r="AA132" s="6"/>
     </row>
-    <row r="133" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B133" s="3" t="s">
         <v>316</v>
       </c>
@@ -11114,7 +12518,7 @@
       <c r="Z133" s="6"/>
       <c r="AA133" s="6"/>
     </row>
-    <row r="134" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B134" s="3" t="s">
         <v>317</v>
       </c>
@@ -11163,7 +12567,7 @@
       <c r="Z134" s="6"/>
       <c r="AA134" s="6"/>
     </row>
-    <row r="135" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B135" s="3" t="s">
         <v>319</v>
       </c>
@@ -11212,7 +12616,7 @@
       <c r="Z135" s="6"/>
       <c r="AA135" s="6"/>
     </row>
-    <row r="136" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B136" s="3" t="s">
         <v>321</v>
       </c>
@@ -11261,7 +12665,7 @@
       <c r="Z136" s="6"/>
       <c r="AA136" s="6"/>
     </row>
-    <row r="137" spans="2:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B137" s="6" t="s">
         <v>323</v>
       </c>
@@ -11297,7 +12701,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="138" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="S138" s="12" t="s">
         <v>70</v>
       </c>
@@ -11313,7 +12717,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="139" spans="2:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B139" s="6" t="s">
         <v>324</v>
       </c>
@@ -11349,7 +12753,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="140" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="S140" s="12" t="s">
         <v>70</v>
       </c>
@@ -11365,7 +12769,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="141" spans="2:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B141" s="6" t="s">
         <v>325</v>
       </c>
@@ -11401,7 +12805,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="142" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="S142" s="12" t="s">
         <v>70</v>
       </c>
@@ -11417,7 +12821,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="143" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B143" s="3" t="s">
         <v>326</v>
       </c>
@@ -11461,7 +12865,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="144" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B144" s="3" t="s">
         <v>328</v>
       </c>
@@ -11505,7 +12909,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="145" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B145" s="3" t="s">
         <v>330</v>
       </c>
@@ -11549,7 +12953,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="146" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B146" s="3" t="s">
         <v>332</v>
       </c>
@@ -11584,7 +12988,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="147" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B147" s="3" t="s">
         <v>333</v>
       </c>
@@ -11619,7 +13023,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="148" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B148" s="3" t="s">
         <v>334</v>
       </c>
@@ -11654,7 +13058,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="149" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B149" s="3" t="s">
         <v>335</v>
       </c>
@@ -11700,7 +13104,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="150" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B150" s="3" t="s">
         <v>337</v>
       </c>
@@ -11746,7 +13150,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="151" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B151" s="3" t="s">
         <v>339</v>
       </c>
@@ -11792,7 +13196,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="152" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B152" s="3" t="s">
         <v>341</v>
       </c>
@@ -11827,14 +13231,14 @@
       <c r="U152" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="V152" t="s">
-        <v>172</v>
+      <c r="V152" s="6" t="s">
+        <v>685</v>
       </c>
       <c r="X152" s="17" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="153" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B153" s="3"/>
       <c r="L153" s="5"/>
       <c r="N153" s="4"/>
@@ -11855,7 +13259,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="154" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B154" s="3" t="s">
         <v>342</v>
       </c>
@@ -11897,7 +13301,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="155" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B155" s="3"/>
       <c r="L155" s="5"/>
       <c r="N155" s="4"/>
@@ -11918,7 +13322,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="156" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B156" s="3" t="s">
         <v>343</v>
       </c>
@@ -11953,14 +13357,14 @@
       <c r="U156" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="V156" t="s">
-        <v>172</v>
+      <c r="V156" s="6" t="s">
+        <v>685</v>
       </c>
       <c r="X156" s="17" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="157" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B157" s="3"/>
       <c r="L157" s="5"/>
       <c r="N157" s="3"/>
@@ -11981,7 +13385,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="158" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B158" s="3" t="s">
         <v>344</v>
       </c>
@@ -12026,7 +13430,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="159" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B159" s="3"/>
       <c r="C159" s="6"/>
       <c r="E159" s="6"/>
@@ -12050,7 +13454,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="160" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B160" s="3" t="s">
         <v>346</v>
       </c>
@@ -12095,7 +13499,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="161" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B161" s="3"/>
       <c r="C161" s="6"/>
       <c r="E161" s="6"/>
@@ -12119,7 +13523,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="162" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B162" s="3" t="s">
         <v>348</v>
       </c>
@@ -12164,7 +13568,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="163" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B163" s="3"/>
       <c r="C163" s="6"/>
       <c r="E163" s="6"/>
@@ -12188,7 +13592,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="164" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B164" s="3" t="s">
         <v>350</v>
       </c>
@@ -12230,7 +13634,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="165" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B165" s="3" t="s">
         <v>352</v>
       </c>
@@ -12273,7 +13677,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="166" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B166" s="3" t="s">
         <v>354</v>
       </c>
@@ -12316,7 +13720,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="167" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B167" s="3" t="s">
         <v>477</v>
       </c>
@@ -12360,7 +13764,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="168" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B168" s="3"/>
       <c r="E168" s="11"/>
       <c r="N168" s="3"/>
@@ -12383,7 +13787,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="169" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B169" s="3" t="s">
         <v>357</v>
       </c>
@@ -12427,7 +13831,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="170" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B170" s="3"/>
       <c r="E170" s="11"/>
       <c r="N170" s="3"/>
@@ -12450,7 +13854,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="171" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B171" s="3" t="s">
         <v>359</v>
       </c>
@@ -12494,7 +13898,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="172" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B172" s="3"/>
       <c r="E172" s="11"/>
       <c r="N172" s="3"/>
@@ -12517,7 +13921,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="173" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B173" s="3" t="s">
         <v>361</v>
       </c>
@@ -12558,7 +13962,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="174" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B174" s="3"/>
       <c r="E174" s="11"/>
       <c r="N174" s="3"/>
@@ -12581,7 +13985,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="175" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B175" s="3" t="s">
         <v>363</v>
       </c>
@@ -12622,7 +14026,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="176" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B176" s="3"/>
       <c r="E176" s="11"/>
       <c r="N176" s="3"/>
@@ -12645,7 +14049,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="177" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B177" s="3" t="s">
         <v>365</v>
       </c>
@@ -12686,7 +14090,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="178" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B178" s="3"/>
       <c r="E178" s="11"/>
       <c r="N178" s="3"/>
@@ -12709,7 +14113,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="179" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B179" s="3" t="s">
         <v>367</v>
       </c>
@@ -12755,7 +14159,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="180" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B180" s="3" t="s">
         <v>369</v>
       </c>
@@ -12801,7 +14205,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="181" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B181" s="3" t="s">
         <v>371</v>
       </c>
@@ -12847,7 +14251,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="182" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B182" s="6" t="s">
         <v>479</v>
       </c>
@@ -12885,60 +14289,60 @@
     <mergeCell ref="S1:X1"/>
     <mergeCell ref="S4:X4"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B71:B74">
-    <cfRule type="duplicateValues" dxfId="19" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B76">
-    <cfRule type="duplicateValues" dxfId="18" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77:B78">
-    <cfRule type="duplicateValues" dxfId="17" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79:B80">
-    <cfRule type="duplicateValues" dxfId="16" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="15" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="duplicateValues" dxfId="14" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="duplicateValues" dxfId="13" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="duplicateValues" dxfId="12" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98">
-    <cfRule type="duplicateValues" dxfId="11" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="10" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="9" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="8" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102">
-    <cfRule type="duplicateValues" dxfId="7" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103">
-    <cfRule type="duplicateValues" dxfId="6" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B105">
-    <cfRule type="duplicateValues" dxfId="5" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X84">
-    <cfRule type="duplicateValues" dxfId="4" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X86">
-    <cfRule type="duplicateValues" dxfId="3" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X88">
-    <cfRule type="duplicateValues" dxfId="2" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/BuffConfig/BuffCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/BuffConfig/BuffCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\BuffConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\BuffConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82D656C-CAFB-4210-A926-D4480118C2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BACCC91-8D54-4084-98C7-8D809208CB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="防御塔" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="713">
   <si>
     <t>##var</t>
   </si>
@@ -2572,12 +2572,82 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>破甲</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_BreakArmor</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_IceBind</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_Freeze</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoMoveInput</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>StopAnimator;NoNormalAttack;NoMoveInput;NoSkillCastInput;NoFaceChgInput;StopBuffTick</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_TimeBarrier</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间结界</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_TimeBarrier_SpeedUp</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAdd_TimeBarrier_SlowDown</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Buff_TimeBarrier_Friend</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Buff_TimeBarrier_Enemy</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_TimeBarrier_SpeedUp</t>
+  </si>
+  <si>
+    <t>Buff_TimeBarrier_SlowDown</t>
+  </si>
+  <si>
+    <t>施加结界增益buff</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>施加结界减益buff</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>AttackArea_FireSea</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SelectObject_Attack_FireSea</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffTagGroupSlow</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3550,23 +3620,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA983496-F732-447E-A64B-8FBCE6F943B2}">
-  <dimension ref="A1:AL49"/>
+  <dimension ref="A1:AL55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="X49" sqref="X49"/>
+      <selection pane="bottomRight" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="18" width="9" style="18"/>
-    <col min="19" max="19" width="10.77734375" style="18" customWidth="1"/>
+    <col min="19" max="19" width="15.625" style="18" customWidth="1"/>
     <col min="20" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -3644,7 +3714,7 @@
       <c r="AK1" s="18"/>
       <c r="AL1" s="18"/>
     </row>
-    <row r="2" spans="1:38" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -3698,7 +3768,7 @@
       <c r="AK2" s="18"/>
       <c r="AL2" s="18"/>
     </row>
-    <row r="3" spans="1:38" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
@@ -3736,7 +3806,7 @@
       <c r="AK3" s="18"/>
       <c r="AL3" s="18"/>
     </row>
-    <row r="4" spans="1:38" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>25</v>
       </c>
@@ -3814,7 +3884,7 @@
       <c r="AK4" s="18"/>
       <c r="AL4" s="18"/>
     </row>
-    <row r="5" spans="1:38" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>38</v>
       </c>
@@ -3854,7 +3924,7 @@
       <c r="AK5" s="18"/>
       <c r="AL5" s="18"/>
     </row>
-    <row r="6" spans="1:38" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
         <v>40</v>
       </c>
@@ -3938,7 +4008,7 @@
       <c r="AK6" s="18"/>
       <c r="AL6" s="18"/>
     </row>
-    <row r="7" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="30" t="s">
         <v>291</v>
       </c>
@@ -3979,7 +4049,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="8" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R8" s="31"/>
       <c r="S8" s="30" t="s">
         <v>70</v>
@@ -3994,7 +4064,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="9" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="30" t="s">
         <v>292</v>
       </c>
@@ -4035,7 +4105,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="10" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R10" s="31"/>
       <c r="S10" s="30" t="s">
         <v>70</v>
@@ -4050,7 +4120,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="11" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="30" t="s">
         <v>293</v>
       </c>
@@ -4091,7 +4161,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R12" s="31"/>
       <c r="S12" s="30" t="s">
         <v>70</v>
@@ -4106,7 +4176,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="13" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="30" t="s">
         <v>473</v>
       </c>
@@ -4154,7 +4224,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="14" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E14" s="21"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
@@ -4178,7 +4248,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="15" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="30" t="s">
         <v>294</v>
       </c>
@@ -4219,7 +4289,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="16" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="S16" s="30" t="s">
         <v>70</v>
       </c>
@@ -4233,7 +4303,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="17" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="30" t="s">
         <v>295</v>
       </c>
@@ -4274,7 +4344,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="18" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="S18" s="30" t="s">
         <v>70</v>
       </c>
@@ -4288,7 +4358,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="19" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="30" t="s">
         <v>296</v>
       </c>
@@ -4329,7 +4399,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="20" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="S20" s="30" t="s">
         <v>70</v>
       </c>
@@ -4343,7 +4413,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="21" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="30" t="s">
         <v>297</v>
       </c>
@@ -4378,7 +4448,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="22" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="30" t="s">
         <v>301</v>
       </c>
@@ -4388,6 +4458,9 @@
       <c r="E22" s="30" t="s">
         <v>105</v>
       </c>
+      <c r="G22" s="7" t="s">
+        <v>712</v>
+      </c>
       <c r="N22" s="30" t="s">
         <v>75</v>
       </c>
@@ -4416,7 +4489,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="23" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="30" t="s">
         <v>302</v>
       </c>
@@ -4460,7 +4533,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="24" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="30" t="s">
         <v>303</v>
       </c>
@@ -4504,7 +4577,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="25" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="30" t="s">
         <v>304</v>
       </c>
@@ -4548,7 +4621,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="26" spans="2:24" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="30" t="s">
         <v>306</v>
       </c>
@@ -4583,7 +4656,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="27" spans="2:24" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="30" t="s">
         <v>307</v>
       </c>
@@ -4618,7 +4691,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="28" spans="2:24" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="30" t="s">
         <v>308</v>
       </c>
@@ -4653,7 +4726,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="29" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="20" t="s">
         <v>522</v>
       </c>
@@ -4676,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="20" t="s">
         <v>523</v>
       </c>
@@ -4699,7 +4772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="20" t="s">
         <v>524</v>
       </c>
@@ -4722,15 +4795,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B32" s="20" t="s">
         <v>525</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="F32" s="18" t="s">
-        <v>547</v>
+      <c r="F32" s="20" t="s">
+        <v>698</v>
       </c>
       <c r="L32" s="20" t="s">
         <v>482</v>
@@ -4751,13 +4824,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="G33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="22"/>
       <c r="K33" s="23"/>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B34" s="20" t="s">
         <v>501</v>
       </c>
@@ -4784,7 +4857,7 @@
       </c>
       <c r="X34" s="32"/>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B35" s="18" t="s">
         <v>502</v>
       </c>
@@ -4811,7 +4884,7 @@
       </c>
       <c r="X35" s="32"/>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B36" s="18" t="s">
         <v>503</v>
       </c>
@@ -4838,7 +4911,7 @@
       </c>
       <c r="X36" s="32"/>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="18" t="s">
         <v>504</v>
       </c>
@@ -4865,7 +4938,7 @@
       </c>
       <c r="X37" s="32"/>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B38" s="18" t="s">
         <v>505</v>
       </c>
@@ -4892,7 +4965,7 @@
       </c>
       <c r="X38" s="32"/>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B39" s="18" t="s">
         <v>506</v>
       </c>
@@ -4919,7 +4992,7 @@
       </c>
       <c r="X39" s="32"/>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B40" s="18" t="s">
         <v>507</v>
       </c>
@@ -4946,7 +5019,7 @@
       </c>
       <c r="X40" s="32"/>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B41" s="18" t="s">
         <v>508</v>
       </c>
@@ -4973,7 +5046,7 @@
       </c>
       <c r="X41" s="32"/>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B42" s="18" t="s">
         <v>509</v>
       </c>
@@ -5000,7 +5073,7 @@
       </c>
       <c r="X42" s="32"/>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B43" s="18" t="s">
         <v>510</v>
       </c>
@@ -5027,7 +5100,7 @@
       </c>
       <c r="X43" s="32"/>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B44" s="18" t="s">
         <v>511</v>
       </c>
@@ -5054,7 +5127,7 @@
       </c>
       <c r="X44" s="32"/>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B45" s="18" t="s">
         <v>512</v>
       </c>
@@ -5081,7 +5154,7 @@
       </c>
       <c r="X45" s="32"/>
     </row>
-    <row r="48" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="30" t="s">
         <v>691</v>
       </c>
@@ -5116,19 +5189,226 @@
         <v>483</v>
       </c>
     </row>
-    <row r="49" spans="19:24" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="S49" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="T49" s="30">
-        <v>0</v>
-      </c>
-      <c r="U49" s="30" t="s">
+    <row r="49" spans="2:25" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R49" s="31"/>
+      <c r="S49" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="T49" s="32">
+        <v>0</v>
+      </c>
+      <c r="U49" s="32" t="s">
+        <v>710</v>
+      </c>
+      <c r="V49" s="18"/>
+      <c r="W49" s="18"/>
+      <c r="X49" s="30" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="50" spans="2:25" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="E50" s="30" t="s">
         <v>693</v>
       </c>
-      <c r="X49" s="20" t="s">
-        <v>694</v>
-      </c>
+      <c r="L50" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="N50" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="O50" s="30">
+        <v>1</v>
+      </c>
+      <c r="P50" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="R50" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B51" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>696</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="N51" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="O51" s="30">
+        <v>1</v>
+      </c>
+      <c r="P51" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="R51" s="31">
+        <v>0</v>
+      </c>
+      <c r="S51" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="T51" s="30">
+        <v>0</v>
+      </c>
+      <c r="U51" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="V51" s="30"/>
+      <c r="W51" s="30"/>
+      <c r="X51" s="30" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="52" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>701</v>
+      </c>
+      <c r="N52" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="O52" s="18">
+        <v>1</v>
+      </c>
+      <c r="P52" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="R52" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="S52" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="T52" s="32">
+        <v>0</v>
+      </c>
+      <c r="U52" s="32" t="s">
+        <v>702</v>
+      </c>
+      <c r="X52" s="30" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="53" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B53" s="3"/>
+      <c r="E53" s="20"/>
+      <c r="N53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="S53" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="T53" s="32">
+        <v>0</v>
+      </c>
+      <c r="U53" s="32" t="s">
+        <v>703</v>
+      </c>
+      <c r="X53" s="30" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="54" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B54" s="32" t="s">
+        <v>706</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="G54" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="N54" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="O54" s="30">
+        <v>1</v>
+      </c>
+      <c r="P54" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="R54" s="31">
+        <v>0</v>
+      </c>
+      <c r="S54" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="T54" s="30">
+        <v>0</v>
+      </c>
+      <c r="U54" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="V54" s="30"/>
+      <c r="W54" s="30"/>
+      <c r="X54" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y54" s="30"/>
+    </row>
+    <row r="55" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B55" s="32" t="s">
+        <v>707</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="N55" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="O55" s="30">
+        <v>1</v>
+      </c>
+      <c r="P55" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="R55" s="31">
+        <v>0</v>
+      </c>
+      <c r="S55" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="T55" s="30">
+        <v>0</v>
+      </c>
+      <c r="U55" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="V55" s="30"/>
+      <c r="W55" s="30"/>
+      <c r="X55" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y55" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5148,23 +5428,23 @@
   <dimension ref="A1:AL97"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="P7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="V77" sqref="V77"/>
+      <selection pane="bottomRight" activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="37.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5242,7 +5522,7 @@
       <c r="AK1"/>
       <c r="AL1"/>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -5296,7 +5576,7 @@
       <c r="AK2"/>
       <c r="AL2"/>
     </row>
-    <row r="3" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -5334,7 +5614,7 @@
       <c r="AK3"/>
       <c r="AL3"/>
     </row>
-    <row r="4" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>25</v>
       </c>
@@ -5412,7 +5692,7 @@
       <c r="AK4"/>
       <c r="AL4"/>
     </row>
-    <row r="5" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>38</v>
       </c>
@@ -5452,7 +5732,7 @@
       <c r="AK5"/>
       <c r="AL5"/>
     </row>
-    <row r="6" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>40</v>
       </c>
@@ -5536,7 +5816,7 @@
       <c r="AK6"/>
       <c r="AL6"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B7" s="20" t="s">
         <v>621</v>
       </c>
@@ -5584,7 +5864,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
@@ -5612,7 +5892,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B9" s="20"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -5640,7 +5920,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B10" s="20"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
@@ -5655,7 +5935,7 @@
       <c r="U10" s="21"/>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B11" s="20" t="s">
         <v>576</v>
       </c>
@@ -5700,7 +5980,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -5724,7 +6004,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="G13" s="21"/>
@@ -5753,7 +6033,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -5783,7 +6063,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B15" s="20" t="s">
         <v>577</v>
       </c>
@@ -5828,7 +6108,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -5852,7 +6132,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -5882,7 +6162,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -5912,7 +6192,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B19" s="20" t="s">
         <v>578</v>
       </c>
@@ -5957,7 +6237,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -5981,7 +6261,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -6011,7 +6291,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -6041,7 +6321,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="23" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
         <v>612</v>
       </c>
@@ -6087,7 +6367,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="24" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="21"/>
       <c r="F24"/>
       <c r="G24" s="21"/>
@@ -6108,7 +6388,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="25" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
         <v>585</v>
       </c>
@@ -6154,7 +6434,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="26" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26"/>
@@ -6183,7 +6463,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="27" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="21"/>
       <c r="F27"/>
       <c r="G27" s="21"/>
@@ -6204,7 +6484,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="28" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="21"/>
       <c r="F28"/>
       <c r="G28" s="21"/>
@@ -6225,7 +6505,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="29" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="20" t="s">
         <v>586</v>
       </c>
@@ -6271,7 +6551,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="30" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="21"/>
       <c r="F30"/>
       <c r="G30" s="21"/>
@@ -6292,7 +6572,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="31" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="18" t="s">
         <v>628</v>
       </c>
@@ -6336,7 +6616,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="32" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
@@ -6360,7 +6640,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="33" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="18" t="s">
         <v>594</v>
       </c>
@@ -6406,7 +6686,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="34" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
@@ -6436,7 +6716,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="35" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
@@ -6459,7 +6739,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="36" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
@@ -6482,7 +6762,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="37" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="20" t="s">
         <v>595</v>
       </c>
@@ -6528,7 +6808,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="38" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
@@ -6558,7 +6838,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="39" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
@@ -6588,7 +6868,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="40" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="18" t="s">
         <v>548</v>
       </c>
@@ -6636,7 +6916,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="41" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E41" s="11"/>
       <c r="F41"/>
       <c r="G41" s="21"/>
@@ -6664,7 +6944,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="42" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E42" s="11"/>
       <c r="F42"/>
       <c r="G42" s="21"/>
@@ -6692,7 +6972,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="43" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E43" s="11"/>
       <c r="F43"/>
       <c r="G43" s="21"/>
@@ -6720,7 +7000,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="44" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="18" t="s">
         <v>549</v>
       </c>
@@ -6768,7 +7048,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="45" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E45" s="11"/>
       <c r="F45"/>
       <c r="G45" s="21"/>
@@ -6796,7 +7076,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="46" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E46" s="11"/>
       <c r="F46"/>
       <c r="G46" s="21"/>
@@ -6824,7 +7104,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="47" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E47" s="11"/>
       <c r="F47"/>
       <c r="G47" s="21"/>
@@ -6852,7 +7132,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="48" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="18" t="s">
         <v>550</v>
       </c>
@@ -6900,7 +7180,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="49" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E49" s="11"/>
       <c r="F49"/>
       <c r="G49" s="21"/>
@@ -6928,7 +7208,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="50" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E50" s="11"/>
       <c r="F50"/>
       <c r="G50" s="21"/>
@@ -6956,7 +7236,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="51" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E51" s="11"/>
       <c r="F51"/>
       <c r="G51" s="21"/>
@@ -6984,7 +7264,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="52" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="20" t="s">
         <v>617</v>
       </c>
@@ -7021,7 +7301,7 @@
       <c r="W52"/>
       <c r="X52" s="3"/>
     </row>
-    <row r="53" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="20" t="s">
         <v>618</v>
       </c>
@@ -7067,7 +7347,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="54" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="E54" s="6"/>
@@ -7097,7 +7377,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="55" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
       <c r="E55" s="6"/>
@@ -7127,7 +7407,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="56" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
       <c r="E56" s="6"/>
@@ -7157,7 +7437,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="57" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="20" t="s">
         <v>619</v>
       </c>
@@ -7194,7 +7474,7 @@
       <c r="W57"/>
       <c r="X57" s="3"/>
     </row>
-    <row r="58" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="18" t="s">
         <v>551</v>
       </c>
@@ -7240,7 +7520,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="59" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E59" s="11"/>
       <c r="F59"/>
       <c r="G59" s="21"/>
@@ -7268,7 +7548,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="60" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="18" t="s">
         <v>552</v>
       </c>
@@ -7314,7 +7594,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="61" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E61" s="11"/>
       <c r="F61"/>
       <c r="G61" s="21"/>
@@ -7342,7 +7622,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="62" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="20" t="s">
         <v>667</v>
       </c>
@@ -7382,7 +7662,7 @@
       <c r="W62" s="7"/>
       <c r="X62" s="7"/>
     </row>
-    <row r="63" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="18" t="s">
         <v>553</v>
       </c>
@@ -7428,7 +7708,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="64" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E64" s="11"/>
       <c r="F64"/>
       <c r="G64" s="21"/>
@@ -7456,7 +7736,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="65" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="18" t="s">
         <v>554</v>
       </c>
@@ -7503,7 +7783,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="66" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E66" s="11"/>
       <c r="F66"/>
       <c r="G66" s="21"/>
@@ -7531,7 +7811,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="67" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="18" t="s">
         <v>555</v>
       </c>
@@ -7578,7 +7858,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="68" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E68" s="11"/>
       <c r="F68"/>
       <c r="G68" s="21"/>
@@ -7607,7 +7887,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="69" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E69" s="11"/>
       <c r="F69"/>
       <c r="G69" s="21"/>
@@ -7635,7 +7915,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="70" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E70" s="11"/>
       <c r="F70"/>
       <c r="G70" s="21"/>
@@ -7663,7 +7943,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="71" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="18" t="s">
         <v>556</v>
       </c>
@@ -7709,7 +7989,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="72" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E72" s="11"/>
       <c r="F72"/>
       <c r="G72" s="21"/>
@@ -7737,7 +8017,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="73" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E73" s="11"/>
       <c r="F73"/>
       <c r="G73" s="21"/>
@@ -7765,7 +8045,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="74" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E74" s="11"/>
       <c r="F74"/>
       <c r="G74" s="21"/>
@@ -7793,7 +8073,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="75" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E75" s="11"/>
       <c r="F75"/>
       <c r="G75" s="21"/>
@@ -7812,7 +8092,7 @@
       <c r="W75" s="7"/>
       <c r="X75" s="7"/>
     </row>
-    <row r="76" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="21" t="s">
         <v>517</v>
       </c>
@@ -7860,7 +8140,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="77" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="21"/>
       <c r="C77" s="20"/>
       <c r="E77" s="21"/>
@@ -7888,7 +8168,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="78" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="21" t="s">
         <v>520</v>
       </c>
@@ -7940,7 +8220,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="79" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="20" t="s">
         <v>526</v>
       </c>
@@ -7976,7 +8256,7 @@
       <c r="W79"/>
       <c r="X79" s="3"/>
     </row>
-    <row r="80" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="20" t="s">
         <v>527</v>
       </c>
@@ -8013,7 +8293,7 @@
       <c r="W80"/>
       <c r="X80" s="3"/>
     </row>
-    <row r="81" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="20" t="s">
         <v>528</v>
       </c>
@@ -8055,7 +8335,7 @@
       <c r="W81"/>
       <c r="X81" s="3"/>
     </row>
-    <row r="82" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="20" t="s">
         <v>662</v>
       </c>
@@ -8095,7 +8375,7 @@
       <c r="W82"/>
       <c r="X82" s="3"/>
     </row>
-    <row r="83" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="20" t="s">
         <v>529</v>
       </c>
@@ -8132,7 +8412,7 @@
       <c r="W83"/>
       <c r="X83" s="3"/>
     </row>
-    <row r="84" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="20" t="s">
         <v>530</v>
       </c>
@@ -8170,7 +8450,7 @@
       <c r="W84"/>
       <c r="X84" s="3"/>
     </row>
-    <row r="85" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="20" t="s">
         <v>531</v>
       </c>
@@ -8208,7 +8488,7 @@
       <c r="W85"/>
       <c r="X85" s="3"/>
     </row>
-    <row r="86" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="20" t="s">
         <v>669</v>
       </c>
@@ -8257,7 +8537,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="87" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="20" t="s">
         <v>532</v>
       </c>
@@ -8302,7 +8582,7 @@
       <c r="W87"/>
       <c r="X87" s="3"/>
     </row>
-    <row r="88" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="20" t="s">
         <v>533</v>
       </c>
@@ -8345,7 +8625,7 @@
       <c r="W88"/>
       <c r="X88" s="3"/>
     </row>
-    <row r="89" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="20" t="s">
         <v>534</v>
       </c>
@@ -8385,7 +8665,7 @@
       <c r="W89"/>
       <c r="X89" s="3"/>
     </row>
-    <row r="90" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="20" t="s">
         <v>469</v>
       </c>
@@ -8423,7 +8703,7 @@
       <c r="W90"/>
       <c r="X90" s="3"/>
     </row>
-    <row r="91" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="20" t="s">
         <v>470</v>
       </c>
@@ -8461,7 +8741,7 @@
       <c r="W91"/>
       <c r="X91" s="3"/>
     </row>
-    <row r="92" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="20" t="s">
         <v>624</v>
       </c>
@@ -8501,7 +8781,7 @@
       <c r="W92"/>
       <c r="X92" s="3"/>
     </row>
-    <row r="93" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="20" t="s">
         <v>631</v>
       </c>
@@ -8511,7 +8791,7 @@
       <c r="E93" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F93" s="11" t="s">
         <v>634</v>
       </c>
       <c r="G93" s="21"/>
@@ -8543,13 +8823,13 @@
       <c r="W93"/>
       <c r="X93" s="3"/>
     </row>
-    <row r="95" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:24" x14ac:dyDescent="0.2">
       <c r="F95" s="7"/>
     </row>
-    <row r="96" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:24" x14ac:dyDescent="0.2">
       <c r="F96" s="7"/>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F97" s="7"/>
     </row>
   </sheetData>
@@ -8636,33 +8916,33 @@
   <dimension ref="A1:AL182"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D148" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D151" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="7.625" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="12" width="4.33203125" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" customWidth="1"/>
-    <col min="14" max="16" width="8.88671875" customWidth="1"/>
-    <col min="17" max="17" width="5.77734375" customWidth="1"/>
-    <col min="18" max="18" width="10.109375" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" customWidth="1"/>
-    <col min="20" max="20" width="3.6640625" customWidth="1"/>
-    <col min="21" max="21" width="40.33203125" customWidth="1"/>
-    <col min="22" max="23" width="4.33203125" customWidth="1"/>
-    <col min="24" max="24" width="30.33203125" customWidth="1"/>
+    <col min="7" max="12" width="4.375" customWidth="1"/>
+    <col min="13" max="13" width="9.625" customWidth="1"/>
+    <col min="14" max="16" width="8.875" customWidth="1"/>
+    <col min="17" max="17" width="5.75" customWidth="1"/>
+    <col min="18" max="18" width="10.125" customWidth="1"/>
+    <col min="19" max="19" width="13.625" customWidth="1"/>
+    <col min="20" max="20" width="3.625" customWidth="1"/>
+    <col min="21" max="21" width="40.375" customWidth="1"/>
+    <col min="22" max="23" width="4.375" customWidth="1"/>
+    <col min="24" max="24" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -8740,7 +9020,7 @@
       <c r="AK1"/>
       <c r="AL1"/>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -8794,7 +9074,7 @@
       <c r="AK2"/>
       <c r="AL2"/>
     </row>
-    <row r="3" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -8832,7 +9112,7 @@
       <c r="AK3"/>
       <c r="AL3"/>
     </row>
-    <row r="4" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>25</v>
       </c>
@@ -8910,7 +9190,7 @@
       <c r="AK4"/>
       <c r="AL4"/>
     </row>
-    <row r="5" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>38</v>
       </c>
@@ -8950,7 +9230,7 @@
       <c r="AK5"/>
       <c r="AL5"/>
     </row>
-    <row r="6" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>40</v>
       </c>
@@ -9034,7 +9314,7 @@
       <c r="AK6"/>
       <c r="AL6"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>220</v>
       </c>
@@ -9069,7 +9349,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="N8" s="3"/>
       <c r="S8" t="s">
         <v>70</v>
@@ -9084,7 +9364,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>221</v>
       </c>
@@ -9119,7 +9399,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="N10" s="3"/>
       <c r="S10" t="s">
         <v>70</v>
@@ -9134,7 +9414,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>222</v>
       </c>
@@ -9169,7 +9449,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="N12" s="3"/>
       <c r="S12" t="s">
         <v>70</v>
@@ -9184,7 +9464,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>223</v>
       </c>
@@ -9219,7 +9499,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="N14" s="3"/>
       <c r="S14" t="s">
         <v>70</v>
@@ -9234,7 +9514,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>224</v>
       </c>
@@ -9269,7 +9549,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="N16" s="3"/>
       <c r="S16" t="s">
         <v>70</v>
@@ -9284,7 +9564,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>225</v>
       </c>
@@ -9319,7 +9599,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>226</v>
       </c>
@@ -9354,7 +9634,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>227</v>
       </c>
@@ -9389,7 +9669,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>228</v>
       </c>
@@ -9424,7 +9704,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N21" s="3"/>
       <c r="S21" t="s">
         <v>70</v>
@@ -9439,7 +9719,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>229</v>
       </c>
@@ -9474,7 +9754,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>230</v>
       </c>
@@ -9509,7 +9789,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N24" s="3"/>
       <c r="S24" t="s">
         <v>70</v>
@@ -9524,7 +9804,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>231</v>
       </c>
@@ -9559,7 +9839,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N26" s="3"/>
       <c r="S26" t="s">
         <v>70</v>
@@ -9574,7 +9854,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>282</v>
       </c>
@@ -9609,7 +9889,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N28" s="3"/>
       <c r="S28" t="s">
         <v>70</v>
@@ -9624,7 +9904,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>232</v>
       </c>
@@ -9659,7 +9939,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N30" s="3"/>
       <c r="S30" t="s">
         <v>70</v>
@@ -9674,7 +9954,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>233</v>
       </c>
@@ -9709,7 +9989,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N32" s="3"/>
       <c r="S32" t="s">
         <v>70</v>
@@ -9724,7 +10004,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>234</v>
       </c>
@@ -9759,7 +10039,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>235</v>
       </c>
@@ -9794,7 +10074,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="N35" s="3"/>
       <c r="S35" t="s">
         <v>70</v>
@@ -9809,7 +10089,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>236</v>
       </c>
@@ -9844,7 +10124,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="N37" s="3"/>
       <c r="S37" t="s">
         <v>70</v>
@@ -9859,7 +10139,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>265</v>
       </c>
@@ -9889,7 +10169,7 @@
       </c>
       <c r="X38" s="3"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" t="s">
         <v>266</v>
@@ -9920,7 +10200,7 @@
       </c>
       <c r="X39" s="3"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>267</v>
       </c>
@@ -9950,7 +10230,7 @@
       </c>
       <c r="X40" s="3"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>268</v>
       </c>
@@ -9980,7 +10260,7 @@
       </c>
       <c r="X41" s="3"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>269</v>
       </c>
@@ -10010,7 +10290,7 @@
       </c>
       <c r="X42" s="3"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
         <v>273</v>
       </c>
@@ -10051,7 +10331,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>274</v>
       </c>
@@ -10092,7 +10372,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>285</v>
       </c>
@@ -10133,7 +10413,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>275</v>
       </c>
@@ -10174,7 +10454,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>276</v>
       </c>
@@ -10215,7 +10495,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B49" s="18" t="s">
         <v>373</v>
       </c>
@@ -10250,7 +10530,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N50" s="3"/>
       <c r="S50" t="s">
         <v>70</v>
@@ -10265,7 +10545,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B51" s="18" t="s">
         <v>374</v>
       </c>
@@ -10300,7 +10580,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N52" s="3"/>
       <c r="S52" t="s">
         <v>70</v>
@@ -10315,7 +10595,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B53" s="18" t="s">
         <v>375</v>
       </c>
@@ -10350,7 +10630,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N54" s="3"/>
       <c r="S54" t="s">
         <v>70</v>
@@ -10365,7 +10645,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B55" s="18" t="s">
         <v>376</v>
       </c>
@@ -10400,7 +10680,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N56" s="3"/>
       <c r="S56" t="s">
         <v>70</v>
@@ -10415,7 +10695,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B57" s="18" t="s">
         <v>377</v>
       </c>
@@ -10450,7 +10730,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N58" s="3"/>
       <c r="S58" t="s">
         <v>70</v>
@@ -10465,7 +10745,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B59" s="18" t="s">
         <v>378</v>
       </c>
@@ -10500,7 +10780,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N60" s="3"/>
       <c r="S60" t="s">
         <v>70</v>
@@ -10515,7 +10795,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B61" s="18" t="s">
         <v>379</v>
       </c>
@@ -10550,7 +10830,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N62" s="3"/>
       <c r="S62" t="s">
         <v>70</v>
@@ -10565,7 +10845,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B63" s="18" t="s">
         <v>442</v>
       </c>
@@ -10600,7 +10880,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B64" s="18" t="s">
         <v>443</v>
       </c>
@@ -10635,7 +10915,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B65" s="18" t="s">
         <v>444</v>
       </c>
@@ -10670,7 +10950,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B66" s="18" t="s">
         <v>445</v>
       </c>
@@ -10705,7 +10985,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B67" s="18" t="s">
         <v>446</v>
       </c>
@@ -10740,7 +11020,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B68" s="18" t="s">
         <v>447</v>
       </c>
@@ -10775,7 +11055,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B69" s="18" t="s">
         <v>448</v>
       </c>
@@ -10810,7 +11090,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B70" s="18" t="s">
         <v>449</v>
       </c>
@@ -10845,7 +11125,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B71" s="18" t="s">
         <v>450</v>
       </c>
@@ -10880,7 +11160,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B72" s="18"/>
       <c r="E72" s="19"/>
       <c r="N72" s="3"/>
@@ -10897,7 +11177,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B73" s="18" t="s">
         <v>451</v>
       </c>
@@ -10932,7 +11212,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B74" s="18"/>
       <c r="E74" s="19"/>
       <c r="N74" s="3"/>
@@ -10949,7 +11229,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B75" s="18" t="s">
         <v>452</v>
       </c>
@@ -10984,7 +11264,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B76" s="18"/>
       <c r="E76" s="19"/>
       <c r="N76" s="3"/>
@@ -11001,7 +11281,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B77" s="18" t="s">
         <v>453</v>
       </c>
@@ -11036,7 +11316,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B78" s="18"/>
       <c r="E78" s="19"/>
       <c r="N78" s="3"/>
@@ -11053,7 +11333,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="18" t="s">
         <v>454</v>
       </c>
@@ -11088,7 +11368,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B80" s="18"/>
       <c r="E80" s="19"/>
       <c r="N80" s="3"/>
@@ -11105,7 +11385,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="81" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B81" s="18" t="s">
         <v>455</v>
       </c>
@@ -11140,7 +11420,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="82" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N82" s="3"/>
       <c r="S82" t="s">
         <v>70</v>
@@ -11155,7 +11435,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="83" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B83" s="18" t="s">
         <v>456</v>
       </c>
@@ -11190,7 +11470,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="84" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N84" s="3"/>
       <c r="S84" t="s">
         <v>70</v>
@@ -11205,7 +11485,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="85" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B85" s="18" t="s">
         <v>467</v>
       </c>
@@ -11240,7 +11520,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="86" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N86" s="3"/>
       <c r="S86" t="s">
         <v>70</v>
@@ -11255,7 +11535,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="87" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B87" s="18" t="s">
         <v>468</v>
       </c>
@@ -11290,7 +11570,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="88" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N88" s="3"/>
       <c r="S88" t="s">
         <v>70</v>
@@ -11305,12 +11585,12 @@
         <v>486</v>
       </c>
     </row>
-    <row r="89" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N89" s="3"/>
       <c r="U89" s="18"/>
       <c r="X89" s="3"/>
     </row>
-    <row r="90" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B90" s="18" t="s">
         <v>418</v>
       </c>
@@ -11340,7 +11620,7 @@
       </c>
       <c r="X90" s="3"/>
     </row>
-    <row r="91" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B91" s="18" t="s">
         <v>419</v>
       </c>
@@ -11370,7 +11650,7 @@
       </c>
       <c r="X91" s="3"/>
     </row>
-    <row r="92" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B92" s="18" t="s">
         <v>420</v>
       </c>
@@ -11400,7 +11680,7 @@
       </c>
       <c r="X92" s="3"/>
     </row>
-    <row r="93" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B93" s="18" t="s">
         <v>421</v>
       </c>
@@ -11430,7 +11710,7 @@
       </c>
       <c r="X93" s="3"/>
     </row>
-    <row r="94" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B94" s="18" t="s">
         <v>422</v>
       </c>
@@ -11460,7 +11740,7 @@
       </c>
       <c r="X94" s="3"/>
     </row>
-    <row r="95" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B95" s="18" t="s">
         <v>423</v>
       </c>
@@ -11490,7 +11770,7 @@
       </c>
       <c r="X95" s="3"/>
     </row>
-    <row r="96" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B96" s="18" t="s">
         <v>424</v>
       </c>
@@ -11520,7 +11800,7 @@
       </c>
       <c r="X96" s="3"/>
     </row>
-    <row r="97" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B97" s="18" t="s">
         <v>425</v>
       </c>
@@ -11550,7 +11830,7 @@
       </c>
       <c r="X97" s="3"/>
     </row>
-    <row r="98" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B98" s="18" t="s">
         <v>435</v>
       </c>
@@ -11591,7 +11871,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="99" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B99" s="18" t="s">
         <v>436</v>
       </c>
@@ -11632,7 +11912,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="100" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B100" s="18" t="s">
         <v>437</v>
       </c>
@@ -11673,7 +11953,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="101" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B101" s="18" t="s">
         <v>438</v>
       </c>
@@ -11714,7 +11994,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="102" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B102" s="18" t="s">
         <v>439</v>
       </c>
@@ -11755,7 +12035,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="103" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B103" s="18" t="s">
         <v>440</v>
       </c>
@@ -11796,7 +12076,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="104" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B104" s="18" t="s">
         <v>465</v>
       </c>
@@ -11832,22 +12112,22 @@
         <v>483</v>
       </c>
     </row>
-    <row r="105" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B105" s="18"/>
       <c r="E105" s="6"/>
       <c r="L105" s="6"/>
       <c r="N105" s="3"/>
       <c r="X105" s="3"/>
     </row>
-    <row r="106" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="X106" s="14"/>
     </row>
-    <row r="107" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N107" s="3"/>
       <c r="U107" s="18"/>
       <c r="X107" s="3"/>
     </row>
-    <row r="108" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B108" s="3" t="s">
         <v>288</v>
       </c>
@@ -11892,7 +12172,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="109" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="R109" s="14"/>
@@ -11909,7 +12189,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="110" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="R110" s="14"/>
@@ -11926,7 +12206,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="111" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B111" s="3" t="s">
         <v>289</v>
       </c>
@@ -11963,7 +12243,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="112" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="R112" s="14"/>
@@ -11980,7 +12260,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="113" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B113" s="3" t="s">
         <v>290</v>
       </c>
@@ -12014,10 +12294,10 @@
         <v>491</v>
       </c>
     </row>
-    <row r="114" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R114" s="14"/>
     </row>
-    <row r="115" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B115" s="3" t="s">
         <v>298</v>
       </c>
@@ -12052,8 +12332,8 @@
         <v>483</v>
       </c>
     </row>
-    <row r="116" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B117" s="3" t="s">
         <v>299</v>
       </c>
@@ -12088,7 +12368,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="118" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B118" s="3" t="s">
         <v>300</v>
       </c>
@@ -12111,7 +12391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B119" s="3" t="s">
         <v>305</v>
       </c>
@@ -12149,7 +12429,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="120" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="S120" s="3" t="s">
         <v>115</v>
       </c>
@@ -12163,7 +12443,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="121" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B121" s="5" t="s">
         <v>309</v>
       </c>
@@ -12201,7 +12481,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="122" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R122" s="15"/>
       <c r="S122" s="5" t="s">
         <v>70</v>
@@ -12216,7 +12496,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="123" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B123" s="5" t="s">
         <v>310</v>
       </c>
@@ -12254,7 +12534,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="124" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R124" s="15"/>
       <c r="S124" s="5" t="s">
         <v>70</v>
@@ -12269,7 +12549,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="125" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B125" s="5" t="s">
         <v>311</v>
       </c>
@@ -12307,7 +12587,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="126" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R126" s="15"/>
       <c r="S126" s="5" t="s">
         <v>70</v>
@@ -12322,10 +12602,10 @@
         <v>483</v>
       </c>
     </row>
-    <row r="127" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R127" s="15"/>
     </row>
-    <row r="128" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B128" s="5" t="s">
         <v>312</v>
       </c>
@@ -12360,7 +12640,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="129" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B129" s="5" t="s">
         <v>313</v>
       </c>
@@ -12389,10 +12669,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R130" s="15"/>
     </row>
-    <row r="131" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B131" s="3" t="s">
         <v>314</v>
       </c>
@@ -12434,7 +12714,7 @@
       <c r="Z131" s="6"/>
       <c r="AA131" s="6"/>
     </row>
-    <row r="132" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B132" s="3" t="s">
         <v>315</v>
       </c>
@@ -12476,7 +12756,7 @@
       <c r="Z132" s="6"/>
       <c r="AA132" s="6"/>
     </row>
-    <row r="133" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B133" s="3" t="s">
         <v>316</v>
       </c>
@@ -12518,7 +12798,7 @@
       <c r="Z133" s="6"/>
       <c r="AA133" s="6"/>
     </row>
-    <row r="134" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B134" s="3" t="s">
         <v>317</v>
       </c>
@@ -12567,7 +12847,7 @@
       <c r="Z134" s="6"/>
       <c r="AA134" s="6"/>
     </row>
-    <row r="135" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B135" s="3" t="s">
         <v>319</v>
       </c>
@@ -12616,7 +12896,7 @@
       <c r="Z135" s="6"/>
       <c r="AA135" s="6"/>
     </row>
-    <row r="136" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B136" s="3" t="s">
         <v>321</v>
       </c>
@@ -12665,7 +12945,7 @@
       <c r="Z136" s="6"/>
       <c r="AA136" s="6"/>
     </row>
-    <row r="137" spans="2:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B137" s="6" t="s">
         <v>323</v>
       </c>
@@ -12701,7 +12981,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="138" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="S138" s="12" t="s">
         <v>70</v>
       </c>
@@ -12717,7 +12997,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="139" spans="2:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B139" s="6" t="s">
         <v>324</v>
       </c>
@@ -12753,7 +13033,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="140" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="S140" s="12" t="s">
         <v>70</v>
       </c>
@@ -12769,7 +13049,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="141" spans="2:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B141" s="6" t="s">
         <v>325</v>
       </c>
@@ -12805,7 +13085,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="142" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="S142" s="12" t="s">
         <v>70</v>
       </c>
@@ -12821,7 +13101,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="143" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B143" s="3" t="s">
         <v>326</v>
       </c>
@@ -12865,7 +13145,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="144" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B144" s="3" t="s">
         <v>328</v>
       </c>
@@ -12909,7 +13189,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="145" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B145" s="3" t="s">
         <v>330</v>
       </c>
@@ -12953,7 +13233,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="146" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B146" s="3" t="s">
         <v>332</v>
       </c>
@@ -12988,7 +13268,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="147" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B147" s="3" t="s">
         <v>333</v>
       </c>
@@ -13023,7 +13303,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="148" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B148" s="3" t="s">
         <v>334</v>
       </c>
@@ -13058,7 +13338,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="149" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B149" s="3" t="s">
         <v>335</v>
       </c>
@@ -13104,7 +13384,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="150" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B150" s="3" t="s">
         <v>337</v>
       </c>
@@ -13150,7 +13430,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="151" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B151" s="3" t="s">
         <v>339</v>
       </c>
@@ -13196,7 +13476,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="152" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B152" s="3" t="s">
         <v>341</v>
       </c>
@@ -13238,7 +13518,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="153" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B153" s="3"/>
       <c r="L153" s="5"/>
       <c r="N153" s="4"/>
@@ -13259,7 +13539,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="154" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B154" s="3" t="s">
         <v>342</v>
       </c>
@@ -13301,7 +13581,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="155" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B155" s="3"/>
       <c r="L155" s="5"/>
       <c r="N155" s="4"/>
@@ -13322,7 +13602,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="156" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B156" s="3" t="s">
         <v>343</v>
       </c>
@@ -13364,7 +13644,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="157" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B157" s="3"/>
       <c r="L157" s="5"/>
       <c r="N157" s="3"/>
@@ -13385,7 +13665,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="158" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B158" s="3" t="s">
         <v>344</v>
       </c>
@@ -13430,7 +13710,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="159" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B159" s="3"/>
       <c r="C159" s="6"/>
       <c r="E159" s="6"/>
@@ -13454,7 +13734,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="160" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B160" s="3" t="s">
         <v>346</v>
       </c>
@@ -13499,7 +13779,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="161" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B161" s="3"/>
       <c r="C161" s="6"/>
       <c r="E161" s="6"/>
@@ -13523,7 +13803,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="162" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B162" s="3" t="s">
         <v>348</v>
       </c>
@@ -13568,7 +13848,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="163" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B163" s="3"/>
       <c r="C163" s="6"/>
       <c r="E163" s="6"/>
@@ -13592,7 +13872,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="164" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B164" s="3" t="s">
         <v>350</v>
       </c>
@@ -13634,7 +13914,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="165" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B165" s="3" t="s">
         <v>352</v>
       </c>
@@ -13677,7 +13957,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="166" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B166" s="3" t="s">
         <v>354</v>
       </c>
@@ -13720,7 +14000,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="167" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B167" s="3" t="s">
         <v>477</v>
       </c>
@@ -13764,7 +14044,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="168" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B168" s="3"/>
       <c r="E168" s="11"/>
       <c r="N168" s="3"/>
@@ -13787,7 +14067,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="169" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B169" s="3" t="s">
         <v>357</v>
       </c>
@@ -13831,7 +14111,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="170" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B170" s="3"/>
       <c r="E170" s="11"/>
       <c r="N170" s="3"/>
@@ -13854,7 +14134,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="171" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B171" s="3" t="s">
         <v>359</v>
       </c>
@@ -13898,7 +14178,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="172" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B172" s="3"/>
       <c r="E172" s="11"/>
       <c r="N172" s="3"/>
@@ -13921,7 +14201,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="173" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B173" s="3" t="s">
         <v>361</v>
       </c>
@@ -13962,7 +14242,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="174" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B174" s="3"/>
       <c r="E174" s="11"/>
       <c r="N174" s="3"/>
@@ -13985,7 +14265,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="175" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B175" s="3" t="s">
         <v>363</v>
       </c>
@@ -14026,7 +14306,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="176" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B176" s="3"/>
       <c r="E176" s="11"/>
       <c r="N176" s="3"/>
@@ -14049,7 +14329,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="177" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B177" s="3" t="s">
         <v>365</v>
       </c>
@@ -14090,7 +14370,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="178" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B178" s="3"/>
       <c r="E178" s="11"/>
       <c r="N178" s="3"/>
@@ -14113,7 +14393,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="179" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B179" s="3" t="s">
         <v>367</v>
       </c>
@@ -14159,7 +14439,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="180" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B180" s="3" t="s">
         <v>369</v>
       </c>
@@ -14205,7 +14485,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="181" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B181" s="3" t="s">
         <v>371</v>
       </c>
@@ -14251,7 +14531,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="182" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B182" s="6" t="s">
         <v>479</v>
       </c>
